--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -404,76 +404,76 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rohit Sharma</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B3" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C3" t="str">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B4" t="str">
         <v>MI</v>
       </c>
       <c r="C4" t="str">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Sam Curran</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B5" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C5" t="str">
-        <v>224</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B6" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C6" t="str">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B7" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C7" t="str">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Ishan Kishan</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B8" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C8" t="str">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Riyan Parag</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B9" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C9" t="str">
         <v>199</v>
@@ -481,54 +481,54 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B10" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C10" t="str">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B11" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C11" t="str">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B12" t="str">
         <v>RR</v>
       </c>
       <c r="C12" t="str">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Harshal Patel</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B13" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C13" t="str">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Faf du Plessis</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B14" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C14" t="str">
         <v>190</v>
@@ -536,142 +536,142 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Travis Head</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B15" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C15" t="str">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jos Buttler</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B16" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C16" t="str">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sanju Samson</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B17" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C17" t="str">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Avesh Khan</v>
+        <v>Travis Head</v>
       </c>
       <c r="B18" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C18" t="str">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B19" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C19" t="str">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Shashank Singh</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B20" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C20" t="str">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Pat Cummins</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B21" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C21" t="str">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Philip Salt</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B22" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C22" t="str">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B23" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C23" t="str">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B24" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C24" t="str">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Rishabh Pant</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B25" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C25" t="str">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Shivam Dube</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B26" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C26" t="str">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Tilak Varma</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B27" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C27" t="str">
         <v>137</v>
@@ -679,65 +679,65 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Nithish Reddy</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B28" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C28" t="str">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>KL Rahul</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B29" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C29" t="str">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B30" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C30" t="str">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rashid Khan</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B31" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C31" t="str">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B32" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C32" t="str">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B33" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C33" t="str">
         <v>130</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Hardik Pandya</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B34" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C34" t="str">
         <v>130</v>
@@ -756,13 +756,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B35" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C35" t="str">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -773,26 +773,26 @@
         <v>LSG</v>
       </c>
       <c r="C36" t="str">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B37" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C37" t="str">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B38" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C38" t="str">
         <v>120</v>
@@ -800,428 +800,428 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B39" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C39" t="str">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B40" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C40" t="str">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B41" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C41" t="str">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shubman Gill</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B42" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C42" t="str">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B43" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C43" t="str">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B44" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C44" t="str">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Abdul Samad</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B45" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C45" t="str">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Mitchell Starc</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B46" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C46" t="str">
-        <v>99</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B47" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B48" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C48" t="str">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ishant Sharma</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B49" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C49" t="str">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rajat Patidar</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B50" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C50" t="str">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B51" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C51" t="str">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B52" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C52" t="str">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Virat Kohli</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B53" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C53" t="str">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Trent Boult</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B54" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C54" t="str">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Liam Livingstone</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B55" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C55" t="str">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B56" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C56" t="str">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B57" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C57" t="str">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B58" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C58" t="str">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B59" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C59" t="str">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B60" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C60" t="str">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B61" t="str">
         <v>SRH</v>
       </c>
       <c r="C61" t="str">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B62" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C62" t="str">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Prithvi Shaw</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B63" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C63" t="str">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B64" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C64" t="str">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Andre Russell</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B65" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C65" t="str">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B66" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C66" t="str">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Harpreet Brar</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B67" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C67" t="str">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B68" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C68" t="str">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Tim David</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B69" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C69" t="str">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B70" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C70" t="str">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B71" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C71" t="str">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mayank Markande</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B72" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C72" t="str">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Rahul Tewatia</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B73" t="str">
         <v>GT</v>
       </c>
       <c r="C73" t="str">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Tim David</v>
       </c>
       <c r="B74" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C74" t="str">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Aiden Markram</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B75" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Harshit Rana</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B76" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C76" t="str">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Akash Madhwal</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B77" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C77" t="str">
         <v>60</v>
@@ -1229,142 +1229,142 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>T Natarajan</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B78" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C78" t="str">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Shai Hope</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B79" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C79" t="str">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mohsin Khan</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B80" t="str">
         <v>LSG</v>
       </c>
       <c r="C80" t="str">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Rovman Powell</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B81" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C81" t="str">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Axar Patel</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B82" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C82" t="str">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Rinku Singh</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B83" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C83" t="str">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B84" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C84" t="str">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B85" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C85" t="str">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Will Jacks</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B86" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C86" t="str">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B87" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C87" t="str">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Sikandar Raza</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B88" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C88" t="str">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Anuj Rawat</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B89" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C89" t="str">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Quinton de Kock</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B90" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C90" t="str">
         <v>45</v>
@@ -1372,244 +1372,244 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B91" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C91" t="str">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mohit Sharma</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B92" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C92" t="str">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B93" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C93" t="str">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Arshad Khan</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B94" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C94" t="str">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>MS Dhoni</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B95" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C95" t="str">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Vijay Shankar</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B96" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C96" t="str">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Sumit Kumar</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B97" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C97" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Yash Thakur</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B98" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C98" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Simran Singh</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B99" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C99" t="str">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B100" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C100" t="str">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B101" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C101" t="str">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Spencer Johnson</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B102" t="str">
         <v>GT</v>
       </c>
       <c r="C102" t="str">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B103" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C103" t="str">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B104" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C104" t="str">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B105" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C105" t="str">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Deepak Hooda</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B106" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C106" t="str">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Abhishek Porel</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B107" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C107" t="str">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Umesh Yadav</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B108" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C108" t="str">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Reece Topley</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B109" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C109" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B110" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C110" t="str">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B111" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C111" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Shardul Thakur</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B112" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C112" t="str">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
@@ -1625,90 +1625,90 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B114" t="str">
         <v>GT</v>
       </c>
       <c r="C114" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Harpreet Singh</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B115" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C115" t="str">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Atharva Taide</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B116" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C116" t="str">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B117" t="str">
         <v>GT</v>
       </c>
       <c r="C117" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>David Warner</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B118" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C118" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Saurav Chauhan</v>
+        <v>David Warner</v>
       </c>
       <c r="B119" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C119" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B120" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C120" t="str">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Matthew Wade</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B121" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C121" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
@@ -1724,54 +1724,54 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B123" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C123" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Krunal Pandya</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B124" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C124" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B125" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C125" t="str">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Noor Ahmad</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B126" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C126" t="str">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B127" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C127" t="str">
         <v>7</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Anukul Roy</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B128" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C128" t="str">
         <v>7</v>
@@ -1790,87 +1790,87 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>David Miller</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B129" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C129" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Rilee Rossouw</v>
+        <v>David Miller</v>
       </c>
       <c r="B130" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C130" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B131" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C131" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Romario Shepherd</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B132" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C132" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Marco Jansen</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B133" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C133" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B134" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C134" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B135" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C135" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Kane Williamson</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B136" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C136" t="str">
         <v>0</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B137" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C137" t="str">
         <v>0</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Chris Woakes</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B138" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C138" t="str">
         <v>0</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Cameron Green</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B139" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C139" t="str">
         <v>0</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B140" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C140" t="str">
         <v>0</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B141" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C141" t="str">
         <v>0</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Nathan Ellis</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B142" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C142" t="str">
         <v>0</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Anrich Nortje</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B143" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C143" t="str">
         <v>0</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Deepak Chahar</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B144" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C144" t="str">
         <v>0</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Luke Wood</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B145" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C145" t="str">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Lizaad Williams</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B146" t="str">
         <v>DC</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Fazal Haque</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B147" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C147" t="str">
         <v>0</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Mitchell Santner</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B148" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C148" t="str">
         <v>0</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B149" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C149" t="str">
         <v>0</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Kyle Mayers</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B150" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C150" t="str">
         <v>0</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B151" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C151" t="str">
         <v>0</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B152" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C152" t="str">
         <v>0</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Amit Mishra</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B153" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C153" t="str">
         <v>0</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Moeen Ali</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B154" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C154" t="str">
         <v>0</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B155" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C155" t="str">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Washington Sundar</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B157" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C157" t="str">
         <v>0</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Suyash Sharma</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B158" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Manish Pandey</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B159" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Karn Sharma</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B160" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B161" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Yash Dhull</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B162" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Umran Malik</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B163" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Nitish Rana</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B164" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B165" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Rahul Chahar</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B166" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B167" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B168" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B169" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Manav Suthar</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B170" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Praveen Dubey</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B171" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B172" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Jhye Richardson</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B174" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B175" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Shamar Joseph</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B176" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B177" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Navdeep Saini</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B178" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B179" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Lalit Yadav</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B180" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Dewald Brevis</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B181" t="str">
         <v>MI</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B182" t="str">
         <v>RR</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>SK Rasheed</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B183" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B184" t="str">
         <v>RR</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B185" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>M Siddharth</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B186" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B187" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B189" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Piyush Chawla</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B190" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Matt Henry</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B191" t="str">
         <v>LSG</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Mayank Dagar</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B192" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B193" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>BR sharath</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B194" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B196" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Sandeep Warrier</v>
+        <v>BR sharath</v>
       </c>
       <c r="B197" t="str">
         <v>GT</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Ajay Mandal</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B198" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Ashton Turner</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B199" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B200" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B201" t="str">
         <v>MI</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B202" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B203" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B204" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Shams Mulani</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B205" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B206" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Sanvir Singh</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B207" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Rasikh Dar</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B208" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Prashant Solanki</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B211" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Joshua Little</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B213" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B214" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Jayant Yadav</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B215" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Sushant Mishra</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B216" t="str">
         <v>GT</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B217" t="str">
         <v>GT</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Prerak Mankad</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B218" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B220" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Sakib Hussain</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B221" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Tom Curran</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B222" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B223" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B225" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B227" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B229" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B230" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B231" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Shivam Singh</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B232" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Naman Dhir</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B233" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B234" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Upendra Yadav</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B235" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B236" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B237" t="str">
         <v>MI</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B238" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B239" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B244" t="str">
         <v>RCB</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Yash Dayal</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B245" t="str">
         <v>RCB</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -404,343 +404,343 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>KL Rahul</v>
+        <v>Travis Head</v>
       </c>
       <c r="B3" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C3" t="str">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rohit Sharma</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B4" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C4" t="str">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B5" t="str">
         <v>MI</v>
       </c>
       <c r="C5" t="str">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Sam Curran</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B6" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C6" t="str">
-        <v>224</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B7" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C7" t="str">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B8" t="str">
         <v>PBKS</v>
       </c>
       <c r="C8" t="str">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ishan Kishan</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B9" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C9" t="str">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B10" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C10" t="str">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B11" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Riyan Parag</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B12" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C12" t="str">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B13" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C13" t="str">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B14" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C14" t="str">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Faf du Plessis</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B15" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C15" t="str">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Harshal Patel</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B16" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C16" t="str">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Shashank Singh</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B17" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Travis Head</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B18" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C18" t="str">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Jos Buttler</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B19" t="str">
         <v>RR</v>
       </c>
       <c r="C19" t="str">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Philip Salt</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B20" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C20" t="str">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Sanju Samson</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B21" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C21" t="str">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B22" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C22" t="str">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Avesh Khan</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B23" t="str">
         <v>RR</v>
       </c>
       <c r="C23" t="str">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B24" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C24" t="str">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B25" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C25" t="str">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Pat Cummins</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B26" t="str">
         <v>SRH</v>
       </c>
       <c r="C26" t="str">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B27" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C27" t="str">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B28" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C28" t="str">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rishabh Pant</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B29" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C29" t="str">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Shivam Dube</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B30" t="str">
         <v>CSK</v>
       </c>
       <c r="C30" t="str">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Tilak Varma</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B31" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C31" t="str">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Rashid Khan</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B32" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C32" t="str">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Hardik Pandya</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B33" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C33" t="str">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -751,546 +751,546 @@
         <v>DC</v>
       </c>
       <c r="C34" t="str">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B35" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C35" t="str">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ayush Badoni</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B36" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C36" t="str">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B37" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C37" t="str">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B38" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C38" t="str">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Quinton de Kock</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B39" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C39" t="str">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B40" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C40" t="str">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B41" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C41" t="str">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B42" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C42" t="str">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B43" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C43" t="str">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Shubman Gill</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B44" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C44" t="str">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B45" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C45" t="str">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nithish Reddy</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B46" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C46" t="str">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B47" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C47" t="str">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B48" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C48" t="str">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Abdul Samad</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B49" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C49" t="str">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mitchell Starc</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B50" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C50" t="str">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B51" t="str">
         <v>KKR</v>
       </c>
       <c r="C51" t="str">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B52" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C52" t="str">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B53" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C53" t="str">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B54" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C54" t="str">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rajat Patidar</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B55" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C55" t="str">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B56" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C56" t="str">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B57" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C57" t="str">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Virat Kohli</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B58" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C58" t="str">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B59" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C59" t="str">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Liam Livingstone</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B60" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C60" t="str">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B61" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C61" t="str">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Trent Boult</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B62" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C62" t="str">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>MS Dhoni</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B63" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C63" t="str">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Krunal Pandya</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B64" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C64" t="str">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B65" t="str">
         <v>DC</v>
       </c>
       <c r="C65" t="str">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Andre Russell</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B66" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C66" t="str">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B67" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C67" t="str">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B68" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C68" t="str">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B69" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C69" t="str">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B70" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C70" t="str">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B71" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C71" t="str">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B72" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C72" t="str">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B73" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C73" t="str">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Tim David</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B74" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C74" t="str">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Harpreet Brar</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B75" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C75" t="str">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B76" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C76" t="str">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Rovman Powell</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B77" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C77" t="str">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Dhruv Jurel</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B78" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C78" t="str">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Akash Madhwal</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B79" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C79" t="str">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Yash Thakur</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B80" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C80" t="str">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mayank Markande</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B81" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C81" t="str">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B82" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C82" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B83" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C83" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
@@ -1301,89 +1301,89 @@
         <v>SRH</v>
       </c>
       <c r="C84" t="str">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Harshit Rana</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B85" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C85" t="str">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>T Natarajan</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B86" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C86" t="str">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shai Hope</v>
+        <v>Tim David</v>
       </c>
       <c r="B87" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C87" t="str">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Axar Patel</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B88" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C88" t="str">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Moeen Ali</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B89" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C89" t="str">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B90" t="str">
         <v>CSK</v>
       </c>
       <c r="C90" t="str">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Rinku Singh</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B91" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C91" t="str">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B92" t="str">
         <v>KKR</v>
@@ -1394,18 +1394,18 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B93" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C93" t="str">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Will Jacks</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B94" t="str">
         <v>RCB</v>
@@ -1416,24 +1416,24 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B95" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C95" t="str">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Anuj Rawat</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B96" t="str">
         <v>RCB</v>
       </c>
       <c r="C96" t="str">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97">
@@ -1449,35 +1449,35 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Spencer Johnson</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B98" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C98" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Mohit Sharma</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B99" t="str">
         <v>GT</v>
       </c>
       <c r="C99" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B100" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C100" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -1515,21 +1515,21 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Simran Singh</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B104" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C104" t="str">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B105" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C105" t="str">
         <v>34</v>
@@ -1537,32 +1537,32 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B106" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C106" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Deepak Hooda</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B107" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C107" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Reece Topley</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B108" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C108" t="str">
         <v>31</v>
@@ -1570,46 +1570,46 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B109" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C109" t="str">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B110" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C110" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B111" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C111" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Abhishek Porel</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B112" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C112" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
@@ -1636,24 +1636,24 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B115" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C115" t="str">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Shardul Thakur</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B116" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C116" t="str">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
@@ -1686,18 +1686,18 @@
         <v>DC</v>
       </c>
       <c r="C119" t="str">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Harpreet Singh</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B120" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C120" t="str">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -1713,32 +1713,32 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B122" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C122" t="str">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B123" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C123" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Matthew Wade</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B124" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C124" t="str">
         <v>16</v>
@@ -1768,21 +1768,21 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Noor Ahmad</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B127" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C127" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B128" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C128" t="str">
         <v>7</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Anukul Roy</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B129" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C129" t="str">
         <v>7</v>
@@ -1801,98 +1801,98 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>David Miller</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B130" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C130" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Rilee Rossouw</v>
+        <v>David Miller</v>
       </c>
       <c r="B131" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C131" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Deepak Chahar</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B132" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C132" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Matt Henry</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B133" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C133" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B134" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C134" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Romario Shepherd</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B135" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C135" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Marco Jansen</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B136" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C136" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B137" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C137" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Kane Williamson</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B138" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C138" t="str">
         <v>0</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Chris Woakes</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B139" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C139" t="str">
         <v>0</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B140" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C140" t="str">
         <v>0</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Nathan Ellis</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B141" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C141" t="str">
         <v>0</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Navdeep Saini</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B142" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C142" t="str">
         <v>0</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B143" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C143" t="str">
         <v>0</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Lalit Yadav</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B144" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C144" t="str">
         <v>0</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B145" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C145" t="str">
         <v>0</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B146" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C146" t="str">
         <v>0</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Luke Wood</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B147" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C147" t="str">
         <v>0</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Lizaad Williams</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B148" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C148" t="str">
         <v>0</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Fazal Haque</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B149" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C149" t="str">
         <v>0</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Mitchell Santner</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B150" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C150" t="str">
         <v>0</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B151" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C151" t="str">
         <v>0</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Kyle Mayers</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B152" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C152" t="str">
         <v>0</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B153" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C153" t="str">
         <v>0</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B154" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C154" t="str">
         <v>0</v>
@@ -2076,21 +2076,21 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Amit Mishra</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B155" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C155" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Sai Kishore</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B156" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C156" t="str">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B157" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C157" t="str">
         <v>0</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Washington Sundar</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B158" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Anrich Nortje</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B159" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Manish Pandey</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B160" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Karn Sharma</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B161" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B162" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Yash Dhull</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B163" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Umran Malik</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B164" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Nitish Rana</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B165" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B166" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Rahul Chahar</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B167" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B168" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B169" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B170" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Manav Suthar</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B171" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Praveen Dubey</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B172" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B173" t="str">
         <v>MI</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Cameron Green</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B174" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B175" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Suyash Sharma</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B176" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Jhye Richardson</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B177" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B178" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B180" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B181" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B182" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B183" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B184" t="str">
         <v>RR</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Glenn Phillips</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B186" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B187" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Swastik Chikara</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B188" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Mayank Dagar</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B189" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B190" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>M Siddharth</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B191" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>SK Rasheed</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B192" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Piyush Chawla</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B193" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B194" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Harvik Desai</v>
+        <v>BR sharath</v>
       </c>
       <c r="B195" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B196" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>BR sharath</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B197" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B198" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B199" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B200" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B201" t="str">
         <v>MI</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Ashton Turner</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B202" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B203" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B205" t="str">
         <v>LSG</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Shams Mulani</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B206" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B207" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B209" t="str">
         <v>RCB</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Swapnil Singh</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B210" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Sanvir Singh</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B211" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B212" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Rasikh Dar</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B213" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Prashant Solanki</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B214" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B215" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Joshua Little</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B216" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Jayant Yadav</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B217" t="str">
         <v>GT</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Sushant Mishra</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B218" t="str">
         <v>GT</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B219" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B222" t="str">
         <v>PBKS</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Tom Curran</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B223" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Prince Choudhary</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B224" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B225" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Akash Singh</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B226" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B227" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Rajan Kumar</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B228" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B229" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B230" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Shivam Singh</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B231" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B232" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Upendra Yadav</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B233" t="str">
         <v>SRH</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Ricky Bhui</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B234" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B235" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Naman Dhir</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B237" t="str">
         <v>MI</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B238" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B239" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Srikar Bharat</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B240" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Shubham Dubey</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B241" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,21 +3033,21 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Nandre Burger</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Mayank Yadav</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B243" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,18 +3055,18 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Yash Dayal</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B244" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B245" t="str">
         <v>RCB</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,7 +399,7 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>357</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
@@ -415,1572 +415,1572 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KL Rahul</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B4" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C4" t="str">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rohit Sharma</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B5" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C5" t="str">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B6" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C6" t="str">
-        <v>258</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Nithish Reddy</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B7" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C7" t="str">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Sam Curran</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B8" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C8" t="str">
-        <v>224</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>T Natarajan</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B9" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C9" t="str">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B10" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C10" t="str">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B11" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C11" t="str">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B12" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C12" t="str">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B13" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C13" t="str">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Rishabh Pant</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B14" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C14" t="str">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B15" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C15" t="str">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ishan Kishan</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B16" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C16" t="str">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Riyan Parag</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B17" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C17" t="str">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Harshal Patel</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B18" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C18" t="str">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B19" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C19" t="str">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B20" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C20" t="str">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B21" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C21" t="str">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Faf du Plessis</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B22" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C22" t="str">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Jos Buttler</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B23" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C23" t="str">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Shashank Singh</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B24" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C24" t="str">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Pat Cummins</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B25" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C25" t="str">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B26" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C26" t="str">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Philip Salt</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B27" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C27" t="str">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B28" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C28" t="str">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Sanju Samson</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B29" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C29" t="str">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B30" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C30" t="str">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Avesh Khan</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B31" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C31" t="str">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B32" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C32" t="str">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Shivam Dube</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B33" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C33" t="str">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B34" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C34" t="str">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B35" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C35" t="str">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B36" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C36" t="str">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Tilak Varma</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B37" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C37" t="str">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Rashid Khan</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B38" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C38" t="str">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Hardik Pandya</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B39" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C39" t="str">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Abdul Samad</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B40" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C40" t="str">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Ayush Badoni</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B41" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C41" t="str">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B42" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C42" t="str">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B43" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C43" t="str">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B44" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C44" t="str">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B45" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C45" t="str">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Quinton de Kock</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B46" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C46" t="str">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B47" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C47" t="str">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B48" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C48" t="str">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B49" t="str">
         <v>LSG</v>
       </c>
       <c r="C49" t="str">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B50" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C50" t="str">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B51" t="str">
         <v>KKR</v>
       </c>
       <c r="C51" t="str">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B52" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C52" t="str">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Axar Patel</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B53" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C53" t="str">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Shubman Gill</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B54" t="str">
         <v>GT</v>
       </c>
       <c r="C54" t="str">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B55" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C55" t="str">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Mayank Markande</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B56" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C56" t="str">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B57" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C57" t="str">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mitchell Starc</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B58" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C58" t="str">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B59" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C59" t="str">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B60" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C60" t="str">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B61" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C61" t="str">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Ishant Sharma</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B62" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C62" t="str">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B63" t="str">
         <v>DC</v>
       </c>
       <c r="C63" t="str">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rajat Patidar</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B64" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C64" t="str">
-        <v>94</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Abhishek Porel</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B65" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C65" t="str">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B66" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C66" t="str">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Virat Kohli</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B67" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C67" t="str">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B68" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C68" t="str">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Trent Boult</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B69" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C69" t="str">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Liam Livingstone</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B70" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C70" t="str">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mohsin Khan</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B71" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C71" t="str">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B72" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C72" t="str">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Krunal Pandya</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B73" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C73" t="str">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Andre Russell</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B74" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C74" t="str">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B75" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C75" t="str">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B76" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C76" t="str">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B77" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C77" t="str">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>MS Dhoni</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B78" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C78" t="str">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Harpreet Brar</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B79" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C79" t="str">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B80" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C80" t="str">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Rovman Powell</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B81" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C81" t="str">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Akash Madhwal</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B82" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Yash Thakur</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B83" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C83" t="str">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Aiden Markram</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B84" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C84" t="str">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B85" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C85" t="str">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B86" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C86" t="str">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Tim David</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B87" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C87" t="str">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B88" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C88" t="str">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Shai Hope</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B89" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C89" t="str">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Moeen Ali</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B90" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C90" t="str">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B91" t="str">
         <v>CSK</v>
       </c>
       <c r="C91" t="str">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Rinku Singh</v>
+        <v>Tim David</v>
       </c>
       <c r="B92" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C92" t="str">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B93" t="str">
         <v>KKR</v>
       </c>
       <c r="C93" t="str">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B94" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C94" t="str">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Harshit Rana</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B95" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C95" t="str">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B96" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C96" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Sikandar Raza</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B97" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C97" t="str">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Anuj Rawat</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B98" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C98" t="str">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Spencer Johnson</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B99" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C99" t="str">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Mohit Sharma</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B100" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C100" t="str">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Arshad Khan</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B101" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C101" t="str">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Vijay Shankar</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B102" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C102" t="str">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Sumit Kumar</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B103" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C103" t="str">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B104" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C104" t="str">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Simran Singh</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B105" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C105" t="str">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B106" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C106" t="str">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B107" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C107" t="str">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Deepak Hooda</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B108" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C108" t="str">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Will Jacks</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B109" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C109" t="str">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B110" t="str">
         <v>PBKS</v>
       </c>
       <c r="C110" t="str">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B111" t="str">
         <v>LSG</v>
       </c>
       <c r="C111" t="str">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B112" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C112" t="str">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Akash Deep</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B113" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C113" t="str">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Umesh Yadav</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B114" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C114" t="str">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shardul Thakur</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B115" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C115" t="str">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Washington Sundar</v>
+        <v>David Warner</v>
       </c>
       <c r="B116" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C116" t="str">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B117" t="str">
         <v>GT</v>
       </c>
       <c r="C117" t="str">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B118" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C118" t="str">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>David Warner</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B119" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C119" t="str">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Reece Topley</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B120" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C120" t="str">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Atharva Taide</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B121" t="str">
         <v>PBKS</v>
       </c>
       <c r="C121" t="str">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Harpreet Singh</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B122" t="str">
         <v>PBKS</v>
       </c>
       <c r="C122" t="str">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B123" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C123" t="str">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B124" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C124" t="str">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B125" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C125" t="str">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B126" t="str">
         <v>CSK</v>
       </c>
       <c r="C126" t="str">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Anrich Nortje</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B127" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C127" t="str">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Noor Ahmad</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B128" t="str">
         <v>GT</v>
       </c>
       <c r="C128" t="str">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B129" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C129" t="str">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Anukul Roy</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B130" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C130" t="str">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>David Miller</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B131" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C131" t="str">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Lalit Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B132" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C132" t="str">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B133" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C133" t="str">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Deepak Chahar</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B134" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C134" t="str">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Matt Henry</v>
+        <v>David Miller</v>
       </c>
       <c r="B135" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C135" t="str">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B136" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C136" t="str">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Romario Shepherd</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B137" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C137" t="str">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Marco Jansen</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B138" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C138" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B139" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C139" t="str">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Cameron Green</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B140" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C140" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B141" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C141" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B142" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C142" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Kane Williamson</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B143" t="str">
         <v>GT</v>
       </c>
       <c r="C143" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Chris Woakes</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B144" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C144" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B145" t="str">
         <v>MI</v>
       </c>
       <c r="C145" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Nathan Ellis</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B146" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C146" t="str">
         <v>0</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B147" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
         <v>0</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Navdeep Saini</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B148" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C148" t="str">
         <v>0</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B149" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C149" t="str">
         <v>0</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Luke Wood</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B150" t="str">
         <v>MI</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Lizaad Williams</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B151" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C151" t="str">
         <v>0</v>
@@ -2043,21 +2043,21 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Fazal Haque</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B152" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C152" t="str">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Mitchell Santner</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B153" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C153" t="str">
         <v>0</v>
@@ -2065,32 +2065,32 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B154" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C154" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Matthew Wade</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B155" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C155" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Kyle Mayers</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B156" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C156" t="str">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B157" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C157" t="str">
         <v>0</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B158" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Amit Mishra</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B159" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B160" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Sai Kishore</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B161" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Suyash Sharma</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B162" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Karn Sharma</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B163" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B164" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Yash Dhull</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B165" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Umran Malik</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B167" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B168" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Nitish Rana</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B169" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Rahul Chahar</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B170" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B171" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B172" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B173" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Manav Suthar</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B174" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Jhye Richardson</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B175" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B177" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B178" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Dewald Brevis</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B179" t="str">
         <v>MI</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Praveen Dubey</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B180" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B181" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B182" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B183" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B184" t="str">
         <v>RR</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Shamar Joseph</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B185" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B186" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>SK Rasheed</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B187" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>M Siddharth</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B188" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Swastik Chikara</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B189" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Mayank Dagar</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B190" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Glenn Phillips</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B191" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B192" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B193" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Harvik Desai</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B194" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>BR sharath</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B195" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Piyush Chawla</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B196" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Anshul Kamboj</v>
+        <v>BR sharath</v>
       </c>
       <c r="B197" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Ashton Turner</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B198" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B199" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B200" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Shams Mulani</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B201" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B202" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B203" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B207" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Swapnil Singh</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B209" t="str">
         <v>RCB</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B210" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Joshua Little</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B212" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Prashant Solanki</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B213" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Sanvir Singh</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B214" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B216" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Sushant Mishra</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B217" t="str">
         <v>GT</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Jayant Yadav</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B219" t="str">
         <v>GT</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Sakib Hussain</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B220" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B221" t="str">
         <v>PBKS</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Prince Choudhary</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B222" t="str">
         <v>PBKS</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B223" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B224" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Akash Singh</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B225" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B226" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Rajan Kumar</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B227" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Ricky Bhui</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B228" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B229" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Tom Curran</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B230" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B231" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Shivam Singh</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B232" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B233" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B234" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Upendra Yadav</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B235" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B236" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Shubham Dubey</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B239" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Nandre Burger</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B240" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3033,21 +3033,21 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B242" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C242" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B243" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Naman Dhir</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B244" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C244" t="str">
         <v>0</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Yash Dayal</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B245" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
         <v>-2</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -426,57 +426,57 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>KL Rahul</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B5" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C5" t="str">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Sam Curran</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B6" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C6" t="str">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B7" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C7" t="str">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rohit Sharma</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B8" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C8" t="str">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Philip Salt</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B9" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C9" t="str">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -492,13 +492,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>T Natarajan</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B11" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C11" t="str">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -514,967 +514,967 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B13" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C13" t="str">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B14" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C14" t="str">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Faf du Plessis</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B15" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C15" t="str">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Rishabh Pant</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B16" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C16" t="str">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B17" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C17" t="str">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Ishan Kishan</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B18" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C18" t="str">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B19" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C19" t="str">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B20" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C20" t="str">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Riyan Parag</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B21" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C21" t="str">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B22" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C22" t="str">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Andre Russell</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B23" t="str">
         <v>KKR</v>
       </c>
       <c r="C23" t="str">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rajat Patidar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B24" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C24" t="str">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Rashid Khan</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B25" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C25" t="str">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Shashank Singh</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B26" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C26" t="str">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B27" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C27" t="str">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Jos Buttler</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B28" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C28" t="str">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B29" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C29" t="str">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Pat Cummins</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B30" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C30" t="str">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B31" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C31" t="str">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B32" t="str">
         <v>PBKS</v>
       </c>
       <c r="C32" t="str">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B33" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C33" t="str">
-        <v>159</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B34" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C34" t="str">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Shubman Gill</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B35" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C35" t="str">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Sanju Samson</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B36" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C36" t="str">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Liam Livingstone</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B37" t="str">
         <v>PBKS</v>
       </c>
       <c r="C37" t="str">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Avesh Khan</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B38" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C38" t="str">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B39" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C39" t="str">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B40" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C40" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Tilak Varma</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B41" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C41" t="str">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B42" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C42" t="str">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Hardik Pandya</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B43" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C43" t="str">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mitchell Starc</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B44" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C44" t="str">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Will Jacks</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B45" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C45" t="str">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Abdul Samad</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B46" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C46" t="str">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Sai Kishore</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B47" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B48" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C48" t="str">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ayush Badoni</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B49" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C49" t="str">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B50" t="str">
         <v>KKR</v>
       </c>
       <c r="C50" t="str">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Harshit Rana</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B51" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C51" t="str">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B52" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C52" t="str">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B53" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C53" t="str">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B54" t="str">
         <v>GT</v>
       </c>
       <c r="C54" t="str">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B55" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C55" t="str">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Quinton de Kock</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B56" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C56" t="str">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Virat Kohli</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B57" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C57" t="str">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B58" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C58" t="str">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B59" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C59" t="str">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B60" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C60" t="str">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B61" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C61" t="str">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B62" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C62" t="str">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Axar Patel</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B63" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C63" t="str">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Shivam Dube</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B64" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C64" t="str">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Mayank Markande</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B65" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C65" t="str">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B66" t="str">
         <v>DC</v>
       </c>
       <c r="C66" t="str">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B67" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C67" t="str">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B68" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C68" t="str">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B69" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C69" t="str">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B70" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C70" t="str">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B71" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C71" t="str">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mohit Sharma</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B72" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C72" t="str">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B73" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C73" t="str">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Abhishek Porel</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B74" t="str">
         <v>DC</v>
       </c>
       <c r="C74" t="str">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B75" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C75" t="str">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Simran Singh</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B76" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C76" t="str">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Ishant Sharma</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B77" t="str">
         <v>DC</v>
       </c>
       <c r="C77" t="str">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Harpreet Brar</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B78" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C78" t="str">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>MS Dhoni</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B79" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C79" t="str">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B80" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C80" t="str">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B81" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C81" t="str">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C82" t="str">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Rinku Singh</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B83" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C83" t="str">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Trent Boult</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B84" t="str">
         <v>RR</v>
       </c>
       <c r="C84" t="str">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Krunal Pandya</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B85" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C85" t="str">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B86" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C86" t="str">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Noor Ahmad</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B87" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C87" t="str">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B88" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C88" t="str">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B89" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C89" t="str">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Cameron Green</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B90" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C90" t="str">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B91" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C91" t="str">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Tim David</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B92" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C92" t="str">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B93" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C93" t="str">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B94" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C94" t="str">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Tim David</v>
       </c>
       <c r="B95" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C95" t="str">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Rovman Powell</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B96" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C96" t="str">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Akash Madhwal</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B97" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C97" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Yash Thakur</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B98" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C98" t="str">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Aiden Markram</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B99" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C99" t="str">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B100" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C100" t="str">
         <v>60</v>
@@ -1482,68 +1482,68 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Yash Dayal</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B101" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C101" t="str">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Shai Hope</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B102" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C102" t="str">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Moeen Ali</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B103" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C103" t="str">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B104" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C104" t="str">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B105" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C105" t="str">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B106" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C106" t="str">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107">
@@ -1581,43 +1581,43 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Harpreet Singh</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B110" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C110" t="str">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Arshad Khan</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B111" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C111" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Vijay Shankar</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B112" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C112" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Sumit Kumar</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B113" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C113" t="str">
         <v>35</v>
@@ -1625,21 +1625,21 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B114" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C114" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>David Warner</v>
       </c>
       <c r="B115" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C115" t="str">
         <v>34</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>David Warner</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B116" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C116" t="str">
         <v>34</v>
@@ -1658,373 +1658,373 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B117" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C117" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Karn Sharma</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B118" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C118" t="str">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B119" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C119" t="str">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B120" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C120" t="str">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B121" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B122" t="str">
         <v>PBKS</v>
       </c>
       <c r="C122" t="str">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B123" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C123" t="str">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Akash Deep</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B124" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C124" t="str">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Umesh Yadav</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B125" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C125" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Shardul Thakur</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B126" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Washington Sundar</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B127" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C127" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B128" t="str">
         <v>GT</v>
       </c>
       <c r="C128" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B129" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C129" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Atharva Taide</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B130" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C130" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B131" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C131" t="str">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B132" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C132" t="str">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Matthew Wade</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B133" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C133" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B134" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C134" t="str">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>David Miller</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B135" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C135" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B136" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C136" t="str">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Anrich Nortje</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B137" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C137" t="str">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B138" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C138" t="str">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Deepak Hooda</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B139" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C139" t="str">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Lalit Yadav</v>
+        <v>David Miller</v>
       </c>
       <c r="B140" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C140" t="str">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Deepak Chahar</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B141" t="str">
         <v>CSK</v>
       </c>
       <c r="C141" t="str">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Matt Henry</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B142" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C142" t="str">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B143" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C143" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B144" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C144" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Romario Shepherd</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B145" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C145" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Marco Jansen</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B146" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C146" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C147" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B148" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C148" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Kane Williamson</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B149" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C149" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B150" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C150" t="str">
         <v>0</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Chris Woakes</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B151" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C151" t="str">
         <v>0</v>
@@ -2043,21 +2043,21 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Reece Topley</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B152" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C152" t="str">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Nathan Ellis</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B153" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C153" t="str">
         <v>0</v>
@@ -2076,21 +2076,21 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B155" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C155" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Navdeep Saini</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B156" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C156" t="str">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Lizaad Williams</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B157" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C157" t="str">
         <v>0</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Fazal Haque</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B158" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Mitchell Santner</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B159" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B160" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Kyle Mayers</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B161" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B162" t="str">
         <v>MI</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B163" t="str">
         <v>DC</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Amit Mishra</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B164" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B165" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Manish Pandey</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B166" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Yash Dhull</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B167" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Umran Malik</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B168" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Rahul Chahar</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B169" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Nitish Rana</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B170" t="str">
         <v>KKR</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B171" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B172" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B173" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B174" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Manav Suthar</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B175" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B176" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B178" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Luke Wood</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B179" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Dewald Brevis</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B181" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Praveen Dubey</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B182" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Shamar Joseph</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B183" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B184" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B185" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B187" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>SK Rasheed</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B188" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Glenn Phillips</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B189" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>M Siddharth</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B190" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Swastik Chikara</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B191" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Mayank Dagar</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B192" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Piyush Chawla</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B193" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B194" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Harvik Desai</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B195" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B196" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>BR sharath</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B197" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Anshul Kamboj</v>
+        <v>BR sharath</v>
       </c>
       <c r="B198" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B199" t="str">
         <v>MI</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Ajay Mandal</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B201" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Ashton Turner</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B202" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Shams Mulani</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B203" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B205" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B206" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B208" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B209" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Swapnil Singh</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B210" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B212" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Prashant Solanki</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B214" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Joshua Little</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B216" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Jayant Yadav</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B217" t="str">
         <v>GT</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B218" t="str">
         <v>GT</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Sushant Mishra</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B219" t="str">
         <v>GT</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Prince Choudhary</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B221" t="str">
         <v>PBKS</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B222" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B223" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B224" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Sakib Hussain</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B226" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B228" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Rajan Kumar</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B229" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B230" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B231" t="str">
         <v>RCB</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B232" t="str">
         <v>CSK</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Ricky Bhui</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B233" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B234" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Shivam Singh</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B235" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Naman Dhir</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B237" t="str">
         <v>MI</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Srikar Bharat</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B238" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B239" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Upendra Yadav</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B240" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Mayank Yadav</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B241" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B242" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3055,24 +3055,24 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Nandre Burger</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B244" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Suyash Sharma</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B245" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -404,68 +404,68 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Travis Head</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B3" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>314</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Harshal Patel</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B4" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C4" t="str">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Sam Curran</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B5" t="str">
         <v>PBKS</v>
       </c>
       <c r="C5" t="str">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rohit Sharma</v>
+        <v>Travis Head</v>
       </c>
       <c r="B6" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C6" t="str">
-        <v>274</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>KL Rahul</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B7" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C7" t="str">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B8" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C8" t="str">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -481,277 +481,277 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B10" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C10" t="str">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Philip Salt</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B11" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C11" t="str">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Nithish Reddy</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B12" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C12" t="str">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Sanju Samson</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B13" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C13" t="str">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Jos Buttler</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B14" t="str">
         <v>RR</v>
       </c>
       <c r="C14" t="str">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>T Natarajan</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B15" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C15" t="str">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Tilak Varma</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B16" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C16" t="str">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B17" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C17" t="str">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B18" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C18" t="str">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Riyan Parag</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B19" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C19" t="str">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B20" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C20" t="str">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Faf du Plessis</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B21" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C21" t="str">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B22" t="str">
         <v>CSK</v>
       </c>
       <c r="C22" t="str">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B23" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C23" t="str">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Ishan Kishan</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B24" t="str">
         <v>MI</v>
       </c>
       <c r="C24" t="str">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B25" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C25" t="str">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Rishabh Pant</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B26" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C26" t="str">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B27" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C27" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Andre Russell</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B28" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C28" t="str">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rajat Patidar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B29" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C29" t="str">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Avesh Khan</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B30" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C30" t="str">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rashid Khan</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B31" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C31" t="str">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Shashank Singh</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B32" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C32" t="str">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B33" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C33" t="str">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B34" t="str">
         <v>PBKS</v>
       </c>
       <c r="C34" t="str">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
@@ -767,79 +767,79 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shubman Gill</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B36" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C36" t="str">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B37" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C37" t="str">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B38" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C38" t="str">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B39" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C39" t="str">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B40" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C40" t="str">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B41" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C41" t="str">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shivam Dube</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B42" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C42" t="str">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43">
@@ -855,222 +855,222 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B44" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C44" t="str">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Hardik Pandya</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B45" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C45" t="str">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B46" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C46" t="str">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Liam Livingstone</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B47" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C47" t="str">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B48" t="str">
         <v>DC</v>
       </c>
       <c r="C48" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Trent Boult</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B49" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C49" t="str">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B50" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C50" t="str">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Abdul Samad</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B51" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C51" t="str">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mitchell Starc</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B52" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C52" t="str">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Will Jacks</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B53" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C53" t="str">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Sai Kishore</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B54" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C54" t="str">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Ayush Badoni</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B55" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C55" t="str">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Harshit Rana</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B56" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C56" t="str">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B57" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C57" t="str">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B58" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C58" t="str">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Quinton de Kock</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B59" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C59" t="str">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Virat Kohli</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B60" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C60" t="str">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B61" t="str">
         <v>CSK</v>
       </c>
       <c r="C61" t="str">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B62" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C62" t="str">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B63" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C63" t="str">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
@@ -1086,189 +1086,189 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B65" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C65" t="str">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B66" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C66" t="str">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B67" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C67" t="str">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Axar Patel</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B68" t="str">
         <v>DC</v>
       </c>
       <c r="C68" t="str">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mayank Markande</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B69" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C69" t="str">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B70" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C70" t="str">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Harpreet Brar</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B71" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B72" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C72" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Mohit Sharma</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B73" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C73" t="str">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ishant Sharma</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B74" t="str">
         <v>DC</v>
       </c>
       <c r="C74" t="str">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B75" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C75" t="str">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B76" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C76" t="str">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Abhishek Porel</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B77" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C77" t="str">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mohsin Khan</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B78" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C78" t="str">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B79" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C79" t="str">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>MS Dhoni</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B80" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C80" t="str">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B81" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C81" t="str">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
@@ -1284,65 +1284,65 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B83" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C83" t="str">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B84" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C84" t="str">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B85" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C85" t="str">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B86" t="str">
         <v>LSG</v>
       </c>
       <c r="C86" t="str">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Rinku Singh</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B87" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C87" t="str">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Rovman Powell</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B88" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C88" t="str">
         <v>80</v>
@@ -1350,46 +1350,46 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Krunal Pandya</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B89" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C89" t="str">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B90" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C90" t="str">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Noor Ahmad</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B91" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C91" t="str">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B92" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C92" t="str">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B96" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C96" t="str">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B97" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C97" t="str">
         <v>64</v>
@@ -1482,398 +1482,398 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Yash Thakur</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B101" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C101" t="str">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B102" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C102" t="str">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Shai Hope</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B103" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C103" t="str">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Yash Dayal</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B104" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C104" t="str">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B105" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C105" t="str">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B106" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C106" t="str">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Anuj Rawat</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B107" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C107" t="str">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Sikandar Raza</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B108" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C108" t="str">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Spencer Johnson</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B109" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C109" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Moeen Ali</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B110" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C110" t="str">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Harpreet Singh</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B111" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C111" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Arshad Khan</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B112" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C112" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Vijay Shankar</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B113" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Sumit Kumar</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B114" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C114" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>David Warner</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B115" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B116" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C116" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>David Warner</v>
       </c>
       <c r="B117" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C117" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B118" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C118" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Piyush Chawla</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B119" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C119" t="str">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Reece Topley</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B120" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C120" t="str">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Karn Sharma</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C121" t="str">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B122" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Aiden Markram</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B123" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C123" t="str">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Deepak Hooda</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B124" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C124" t="str">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B125" t="str">
         <v>PBKS</v>
       </c>
       <c r="C125" t="str">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B126" t="str">
         <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Akash Deep</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B127" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C127" t="str">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Umesh Yadav</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B128" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C128" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Shardul Thakur</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B129" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C129" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Washington Sundar</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B130" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C130" t="str">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B131" t="str">
         <v>GT</v>
       </c>
       <c r="C131" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B132" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C132" t="str">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B133" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C133" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B134" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C134" t="str">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B135" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C135" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Matthew Wade</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B136" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C136" t="str">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
@@ -1889,21 +1889,21 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B138" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C138" t="str">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B139" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C139" t="str">
         <v>16</v>
@@ -1911,68 +1911,68 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>David Miller</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B140" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C140" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Sameer Rizvi</v>
+        <v>David Miller</v>
       </c>
       <c r="B141" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C141" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Anrich Nortje</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B142" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C142" t="str">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Lalit Yadav</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B143" t="str">
         <v>DC</v>
       </c>
       <c r="C143" t="str">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Deepak Chahar</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B144" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C144" t="str">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Matt Henry</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B145" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C145" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -2054,35 +2054,35 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Kane Williamson</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B153" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C153" t="str">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Anukul Roy</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B154" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C154" t="str">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B155" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C155" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -2098,7 +2098,7 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Chris Woakes</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B157" t="str">
         <v>PBKS</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Nathan Ellis</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B158" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B160" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B161" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Luke Wood</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Lizaad Williams</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B163" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Fazal Haque</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B164" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mitchell Santner</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B165" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B166" t="str">
         <v>LSG</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Kyle Mayers</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B167" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B168" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Amit Mishra</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B169" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Manish Pandey</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B170" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Yash Dhull</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B171" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Umran Malik</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B172" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Rahul Chahar</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B173" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Nitish Rana</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B174" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B175" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B176" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Jhye Richardson</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B177" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Manav Suthar</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B178" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B181" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B182" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B183" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B184" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Shamar Joseph</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B185" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B186" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Dewald Brevis</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B187" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>SK Rasheed</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B189" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B191" t="str">
         <v>RR</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>M Siddharth</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B192" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B193" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Mayank Agarwal</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B195" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Swastik Chikara</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B196" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>BR sharath</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B198" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Harvik Desai</v>
+        <v>BR sharath</v>
       </c>
       <c r="B199" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B200" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Ashton Turner</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B201" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B202" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B203" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Prerak Mankad</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B204" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B206" t="str">
         <v>LSG</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B207" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Shams Mulani</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B208" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B209" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Ajay Mandal</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B210" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Rasikh Dar</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B211" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B212" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Sanvir Singh</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B213" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Swapnil Singh</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B214" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B215" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Prashant Solanki</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B216" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Joshua Little</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B217" t="str">
         <v>GT</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Jayant Yadav</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B218" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B219" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B220" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B221" t="str">
         <v>PBKS</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B222" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Prince Choudhary</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B223" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B224" t="str">
         <v>KKR</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Tom Curran</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B225" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B226" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Akash Singh</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B227" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Sakib Hussain</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B228" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B229" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B230" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajan Kumar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B231" t="str">
         <v>RCB</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Shivam Singh</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B233" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B234" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B235" t="str">
         <v>SRH</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Upendra Yadav</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B236" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B237" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B238" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Naman Dhir</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B239" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B240" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Srikar Bharat</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B241" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Nandre Burger</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Shubham Dubey</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B243" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,24 +3055,24 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Suyash Sharma</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Mayank Yadav</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B245" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -415,13 +415,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KL Rahul</v>
+        <v>Travis Head</v>
       </c>
       <c r="B4" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C4" t="str">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5">
@@ -437,87 +437,87 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Travis Head</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B6" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Sam Curran</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B7" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C7" t="str">
-        <v>283</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rohit Sharma</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B8" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C8" t="str">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B9" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C9" t="str">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B10" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C10" t="str">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B11" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Shivam Dube</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B12" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C12" t="str">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Philip Salt</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B13" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C13" t="str">
         <v>249</v>
@@ -525,43 +525,43 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Sanju Samson</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B14" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C14" t="str">
-        <v>228</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B15" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C15" t="str">
-        <v>240</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B16" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C16" t="str">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Nithish Reddy</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B17" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C17" t="str">
         <v>240</v>
@@ -569,24 +569,24 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Tilak Varma</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B18" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C18" t="str">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B19" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C19" t="str">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
@@ -602,266 +602,266 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>T Natarajan</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B21" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C21" t="str">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B22" t="str">
         <v>CSK</v>
       </c>
       <c r="C22" t="str">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B23" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C23" t="str">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B24" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C24" t="str">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Riyan Parag</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B25" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C25" t="str">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B26" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C26" t="str">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Faf du Plessis</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B27" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C27" t="str">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B28" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C28" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Ishan Kishan</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B29" t="str">
         <v>MI</v>
       </c>
       <c r="C29" t="str">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Andre Russell</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B30" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C30" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rajat Patidar</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B31" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C31" t="str">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Avesh Khan</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B32" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C32" t="str">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Rashid Khan</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B33" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C33" t="str">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Shashank Singh</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B34" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C34" t="str">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Pat Cummins</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B35" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C35" t="str">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B36" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C36" t="str">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B37" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C37" t="str">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Rishabh Pant</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B38" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C38" t="str">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B39" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C39" t="str">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Shubman Gill</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B40" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C40" t="str">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B41" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C41" t="str">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B42" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C42" t="str">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B43" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C43" t="str">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Liam Livingstone</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B44" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C44" t="str">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
@@ -877,178 +877,178 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Hardik Pandya</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B46" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C46" t="str">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B47" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C47" t="str">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B48" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C48" t="str">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B49" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C49" t="str">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B50" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C50" t="str">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B51" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C51" t="str">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Trent Boult</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B52" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C52" t="str">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B53" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C53" t="str">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Ayush Badoni</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B54" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C54" t="str">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Mitchell Starc</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B55" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C55" t="str">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Will Jacks</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B56" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C56" t="str">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Sai Kishore</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B57" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C57" t="str">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Quinton de Kock</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B58" t="str">
         <v>LSG</v>
       </c>
       <c r="C58" t="str">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B59" t="str">
         <v>KKR</v>
       </c>
       <c r="C59" t="str">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Harshit Rana</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B60" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C60" t="str">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B61" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C61" t="str">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
@@ -1064,714 +1064,714 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B63" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C63" t="str">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B64" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C64" t="str">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Virat Kohli</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B65" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C65" t="str">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B66" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C66" t="str">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mohsin Khan</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B67" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C67" t="str">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B68" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C68" t="str">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B69" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C69" t="str">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mayank Markande</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B70" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C70" t="str">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B71" t="str">
         <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B72" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C72" t="str">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Harpreet Brar</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B73" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C73" t="str">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Axar Patel</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B74" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C74" t="str">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Ramandeep Singh</v>
+        <v>David Miller</v>
       </c>
       <c r="B75" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C75" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohit Sharma</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B76" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C76" t="str">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>MS Dhoni</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B77" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C77" t="str">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B78" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C78" t="str">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B79" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C79" t="str">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Abhishek Porel</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B80" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C80" t="str">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B81" t="str">
         <v>MI</v>
       </c>
       <c r="C81" t="str">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Simran Singh</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B82" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C82" t="str">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B83" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C83" t="str">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B84" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C84" t="str">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Ishant Sharma</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B85" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C85" t="str">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Yash Thakur</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B86" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C86" t="str">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B87" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C87" t="str">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Rinku Singh</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B88" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C88" t="str">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Rovman Powell</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B89" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C89" t="str">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Krunal Pandya</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B90" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C90" t="str">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B91" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C91" t="str">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Noor Ahmad</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B92" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C92" t="str">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B93" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C93" t="str">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Cameron Green</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B94" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C94" t="str">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Tim David</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B95" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C95" t="str">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B96" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C96" t="str">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Deepak Hooda</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B97" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C97" t="str">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B98" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C98" t="str">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B99" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C99" t="str">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Akash Madhwal</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B100" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C100" t="str">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Aiden Markram</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B101" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C101" t="str">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Yash Dayal</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B102" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C102" t="str">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B103" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C103" t="str">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Moeen Ali</v>
+        <v>Tim David</v>
       </c>
       <c r="B104" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C104" t="str">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Shai Hope</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B105" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C105" t="str">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Deepak Chahar</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B106" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C106" t="str">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B107" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C107" t="str">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B108" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C108" t="str">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Anuj Rawat</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B109" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Sikandar Raza</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B110" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C110" t="str">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Spencer Johnson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B111" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C111" t="str">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Piyush Chawla</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B112" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C112" t="str">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C113" t="str">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Arshad Khan</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B114" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C114" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Vijay Shankar</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B115" t="str">
         <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Sumit Kumar</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B116" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C116" t="str">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>David Warner</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B117" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C117" t="str">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B118" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C118" t="str">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B119" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C119" t="str">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Matt Henry</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B120" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C120" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>David Warner</v>
       </c>
       <c r="B121" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C121" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Reece Topley</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B122" t="str">
         <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Shardul Thakur</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B123" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C123" t="str">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B124" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C124" t="str">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Harpreet Singh</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B125" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C125" t="str">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Karn Sharma</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B126" t="str">
         <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B127" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C127" t="str">
         <v>30</v>
@@ -1779,57 +1779,57 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B128" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C128" t="str">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B129" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C129" t="str">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B130" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C130" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Umesh Yadav</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B131" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C131" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Akash Deep</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B132" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C132" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
@@ -1840,180 +1840,180 @@
         <v>GT</v>
       </c>
       <c r="C133" t="str">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B134" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C134" t="str">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B135" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C135" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Washington Sundar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B136" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C136" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Atharva Taide</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B137" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C137" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B138" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C138" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Matthew Wade</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B139" t="str">
         <v>GT</v>
       </c>
       <c r="C139" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B140" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C140" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>David Miller</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B141" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C141" t="str">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B142" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C142" t="str">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Anrich Nortje</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B143" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C143" t="str">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Anukul Roy</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B144" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C144" t="str">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Lalit Yadav</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B145" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C145" t="str">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B146" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C146" t="str">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B147" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B148" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C148" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Romario Shepherd</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B149" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C149" t="str">
         <v>2</v>
@@ -2021,21 +2021,21 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Marco Jansen</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B150" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C150" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B151" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C151" t="str">
         <v>0</v>
@@ -2043,43 +2043,43 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B152" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C152" t="str">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B153" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C153" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B154" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C154" t="str">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Kane Williamson</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B155" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C155" t="str">
         <v>0</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B156" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C156" t="str">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Nathan Ellis</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B157" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C157" t="str">
         <v>0</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B158" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Navdeep Saini</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B159" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B160" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Luke Wood</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B161" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Lizaad Williams</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B162" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Fazal Haque</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B163" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Mitchell Santner</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B164" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B165" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Kyle Mayers</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B166" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B167" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Amit Mishra</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B168" t="str">
         <v>LSG</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Manish Pandey</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B169" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Yash Dhull</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B170" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Umran Malik</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B171" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Rahul Chahar</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B172" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Nitish Rana</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B173" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B174" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B175" t="str">
         <v>KKR</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B176" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Manav Suthar</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B177" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Jhye Richardson</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B178" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Praveen Dubey</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B179" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B180" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B181" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B183" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Chris Woakes</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B184" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Dewald Brevis</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B185" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Shamar Joseph</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B189" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Glenn Phillips</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B190" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B191" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>M Siddharth</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B193" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Mayank Dagar</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B194" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>SK Rasheed</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B195" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B196" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B197" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Harvik Desai</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B198" t="str">
         <v>MI</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>BR sharath</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B199" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Ajay Mandal</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B200" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B201" t="str">
         <v>MI</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B202" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Ashton Turner</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B203" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B204" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B205" t="str">
         <v>MI</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Prerak Mankad</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B206" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Swapnil Singh</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B207" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B208" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Shams Mulani</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B209" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Rasikh Dar</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B210" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B211" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B212" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B213" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Jayant Yadav</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B214" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Joshua Little</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B215" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Kartik Tyagi</v>
+        <v>BR sharath</v>
       </c>
       <c r="B216" t="str">
         <v>GT</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B217" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B218" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Prashant Solanki</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B219" t="str">
         <v>CSK</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B220" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Prince Choudhary</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B222" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Sakib Hussain</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B224" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B225" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B227" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B228" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Rajan Kumar</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B229" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Shivam Singh</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B230" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B231" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B232" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B242" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Sanvir Singh</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B243" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,24 +3055,24 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Mayank Yadav</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B244" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Suyash Sharma</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B245" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Travis Head</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B4" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C4" t="str">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Harshal Patel</v>
+        <v>Travis Head</v>
       </c>
       <c r="B5" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C5" t="str">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
@@ -448,813 +448,813 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rishabh Pant</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B7" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C7" t="str">
-        <v>346</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B8" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C8" t="str">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B9" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C9" t="str">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B10" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C10" t="str">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Axar Patel</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B11" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C11" t="str">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B12" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C12" t="str">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Shivam Dube</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B13" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C13" t="str">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Sam Curran</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B14" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C14" t="str">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Rohit Sharma</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B15" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C15" t="str">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Philip Salt</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B16" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C16" t="str">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B17" t="str">
         <v>RCB</v>
       </c>
       <c r="C17" t="str">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Nithish Reddy</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B18" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C18" t="str">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Tilak Varma</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B19" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C19" t="str">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Jos Buttler</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B20" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C20" t="str">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Sanju Samson</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B21" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C21" t="str">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B22" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C22" t="str">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B23" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rashid Khan</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B24" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C24" t="str">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>T Natarajan</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B25" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C25" t="str">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B26" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C26" t="str">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Riyan Parag</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B27" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C27" t="str">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Faf du Plessis</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B28" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C28" t="str">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B29" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C29" t="str">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B30" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C30" t="str">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B31" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C31" t="str">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Ishan Kishan</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B32" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C32" t="str">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B33" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C33" t="str">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B34" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C34" t="str">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Andre Russell</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B35" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C35" t="str">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B36" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C36" t="str">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rajat Patidar</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B37" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C37" t="str">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Avesh Khan</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B38" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C38" t="str">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B39" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C39" t="str">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Shashank Singh</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B40" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C40" t="str">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Shubman Gill</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B41" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C41" t="str">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Pat Cummins</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B42" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C42" t="str">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B43" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C43" t="str">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B44" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C44" t="str">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B45" t="str">
         <v>PBKS</v>
       </c>
       <c r="C45" t="str">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B46" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C46" t="str">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B47" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Sai Kishore</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B48" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C48" t="str">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Liam Livingstone</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B49" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C49" t="str">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B50" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C50" t="str">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B51" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C51" t="str">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Hardik Pandya</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B52" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C52" t="str">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B53" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C53" t="str">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B54" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C54" t="str">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B55" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C55" t="str">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Trent Boult</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B56" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C56" t="str">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B57" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C57" t="str">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Ayush Badoni</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B58" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C58" t="str">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mitchell Starc</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B59" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C59" t="str">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Will Jacks</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B60" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C60" t="str">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B61" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C61" t="str">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Abdul Samad</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B62" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C62" t="str">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Quinton de Kock</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B63" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C63" t="str">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B64" t="str">
         <v>KKR</v>
       </c>
       <c r="C64" t="str">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Harshit Rana</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B65" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C65" t="str">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B66" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C66" t="str">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B67" t="str">
         <v>SRH</v>
       </c>
       <c r="C67" t="str">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Virat Kohli</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B68" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C68" t="str">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mohsin Khan</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B69" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C69" t="str">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Noor Ahmad</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B70" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C70" t="str">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B71" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C71" t="str">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B72" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C72" t="str">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B73" t="str">
         <v>DC</v>
       </c>
       <c r="C73" t="str">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mayank Markande</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B74" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C74" t="str">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>David Miller</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B75" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C75" t="str">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Harpreet Brar</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B76" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C76" t="str">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B77" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C77" t="str">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Ramandeep Singh</v>
+        <v>David Miller</v>
       </c>
       <c r="B78" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C78" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mohit Sharma</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B79" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C79" t="str">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>MS Dhoni</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B80" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C80" t="str">
         <v>97</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Shreyas Gopal</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B81" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C81" t="str">
         <v>97</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B82" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C82" t="str">
         <v>97</v>
@@ -1284,164 +1284,164 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Rasikh Dar</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B83" t="str">
         <v>DC</v>
       </c>
       <c r="C83" t="str">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Abhishek Porel</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B84" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C84" t="str">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B85" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C85" t="str">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B86" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C86" t="str">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B87" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C87" t="str">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Simran Singh</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B88" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C88" t="str">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B89" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C89" t="str">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B90" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C90" t="str">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B91" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C91" t="str">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Yash Thakur</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B92" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C92" t="str">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Krunal Pandya</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B93" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C93" t="str">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rovman Powell</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B94" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C94" t="str">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B95" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C95" t="str">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B96" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C96" t="str">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rinku Singh</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B97" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C97" t="str">
         <v>80</v>
@@ -1449,233 +1449,233 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B98" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C98" t="str">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B99" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C99" t="str">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B100" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C100" t="str">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B101" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C101" t="str">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B102" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C102" t="str">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Deepak Hooda</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B103" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C103" t="str">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Tim David</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B104" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C104" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Cameron Green</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B105" t="str">
         <v>RCB</v>
       </c>
       <c r="C105" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Tim David</v>
       </c>
       <c r="B106" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C106" t="str">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Aiden Markram</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B107" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C107" t="str">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Shai Hope</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B108" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C108" t="str">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Akash Madhwal</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B109" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C109" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Yash Dayal</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B110" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C110" t="str">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Moeen Ali</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B111" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C111" t="str">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B112" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C112" t="str">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Anuj Rawat</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B113" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Sikandar Raza</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B114" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C114" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Spencer Johnson</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B115" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C115" t="str">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Deepak Chahar</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B116" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C116" t="str">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Harpreet Singh</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B117" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C117" t="str">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Arshad Khan</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B118" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C118" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -1691,153 +1691,153 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Sumit Kumar</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B120" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C120" t="str">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>David Warner</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B121" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C121" t="str">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B122" t="str">
         <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Anrich Nortje</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B123" t="str">
         <v>DC</v>
       </c>
       <c r="C123" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>David Warner</v>
       </c>
       <c r="B124" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C124" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Matt Henry</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B125" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C125" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Reece Topley</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B126" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C126" t="str">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Shardul Thakur</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B127" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C127" t="str">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Karn Sharma</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B128" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C128" t="str">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B129" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C129" t="str">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B130" t="str">
         <v>LSG</v>
       </c>
       <c r="C130" t="str">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B131" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C131" t="str">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B132" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C132" t="str">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B133" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C133" t="str">
         <v>28</v>
@@ -1845,186 +1845,186 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B134" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C134" t="str">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Akash Deep</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B135" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C135" t="str">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Umesh Yadav</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B136" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C136" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Washington Sundar</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B137" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C137" t="str">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B138" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C138" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B139" t="str">
         <v>GT</v>
       </c>
       <c r="C139" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B140" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C140" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Atharva Taide</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B141" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C141" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B142" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C142" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Matthew Wade</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B143" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C143" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B144" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C144" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B145" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C145" t="str">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Anukul Roy</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B146" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C146" t="str">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Lalit Yadav</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C147" t="str">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B148" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C148" t="str">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B149" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C149" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Romario Shepherd</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B150" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C150" t="str">
         <v>2</v>
@@ -2032,65 +2032,65 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Marco Jansen</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B151" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C151" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Vijay Shankar</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B152" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C152" t="str">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B153" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kane Williamson</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B154" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C154" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B155" t="str">
         <v>MI</v>
       </c>
       <c r="C155" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B156" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C156" t="str">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B157" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C157" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Chris Woakes</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B159" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Navdeep Saini</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B160" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B161" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B162" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Luke Wood</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B163" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Lizaad Williams</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B164" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Fazal Haque</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B165" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Mitchell Santner</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B166" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B167" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Kyle Mayers</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B168" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B169" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Amit Mishra</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B170" t="str">
         <v>LSG</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Manish Pandey</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B171" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Yash Dhull</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B173" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Rahul Chahar</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B174" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Nitish Rana</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B175" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B176" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B178" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Manav Suthar</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B179" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Jhye Richardson</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B180" t="str">
         <v>DC</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Praveen Dubey</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B181" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B182" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Dewald Brevis</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B183" t="str">
         <v>MI</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B184" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Shamar Joseph</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B185" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B186" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B187" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B188" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Glenn Phillips</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B189" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B190" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>M Siddharth</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B191" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Swastik Chikara</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B192" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>SK Rasheed</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B193" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B194" t="str">
         <v>SRH</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Mayank Dagar</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B195" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B196" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B197" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B198" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B199" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Ashton Turner</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B200" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B201" t="str">
         <v>MI</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B202" t="str">
         <v>CSK</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B203" t="str">
         <v>MI</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Prerak Mankad</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B204" t="str">
         <v>LSG</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Harvik Desai</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B205" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Swapnil Singh</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B206" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B207" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B208" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>BR sharath</v>
       </c>
       <c r="B209" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Sanvir Singh</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B211" t="str">
         <v>SRH</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B212" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B213" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B214" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B215" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>BR sharath</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B216" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Prince Choudhary</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B217" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Jayant Yadav</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B218" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Ajay Mandal</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B219" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B220" t="str">
         <v>GT</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B221" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Sushant Mishra</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B222" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B224" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Sakib Hussain</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B225" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B226" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B227" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Rajan Kumar</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B228" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B229" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B230" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Shivam Singh</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B231" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Shams Mulani</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B232" t="str">
         <v>MI</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B233" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B234" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Upendra Yadav</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B235" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B237" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B238" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Srikar Bharat</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B239" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Nandre Burger</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B240" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Shubham Dubey</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B241" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Mayank Yadav</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B242" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B243" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Joshua Little</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B245" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C245" t="str">
         <v>0</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,51 +399,51 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>429</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B3" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C3" t="str">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rishabh Pant</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B4" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C4" t="str">
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Travis Head</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B5" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C5" t="str">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KL Rahul</v>
+        <v>Travis Head</v>
       </c>
       <c r="B6" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C6" t="str">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
@@ -454,84 +454,84 @@
         <v>PBKS</v>
       </c>
       <c r="C7" t="str">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rohit Sharma</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B8" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C8" t="str">
-        <v>274</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Sam Curran</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B9" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C9" t="str">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>T Natarajan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B10" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C10" t="str">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B11" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C11" t="str">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B12" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C12" t="str">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B13" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C13" t="str">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B14" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C14" t="str">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15">
@@ -547,310 +547,310 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Axar Patel</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B16" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C16" t="str">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Faf du Plessis</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B17" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B18" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C18" t="str">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Nithish Reddy</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B19" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C19" t="str">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Shivam Dube</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B20" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C20" t="str">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B21" t="str">
         <v>CSK</v>
       </c>
       <c r="C21" t="str">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Philip Salt</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B22" t="str">
         <v>KKR</v>
       </c>
       <c r="C22" t="str">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Pat Cummins</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B23" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C23" t="str">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Sanju Samson</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B24" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C24" t="str">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Tilak Varma</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B25" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C25" t="str">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Jos Buttler</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B26" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C26" t="str">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B27" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C27" t="str">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Riyan Parag</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B28" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C28" t="str">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B29" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C29" t="str">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B30" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C30" t="str">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rashid Khan</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B31" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C31" t="str">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B32" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C32" t="str">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B33" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C33" t="str">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B34" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C34" t="str">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B35" t="str">
         <v>GT</v>
       </c>
       <c r="C35" t="str">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ishan Kishan</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B36" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C36" t="str">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B37" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C37" t="str">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Virat Kohli</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B38" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C38" t="str">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Cameron Green</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B39" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C39" t="str">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Avesh Khan</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B40" t="str">
         <v>RR</v>
       </c>
       <c r="C40" t="str">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Andre Russell</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B41" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C41" t="str">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B42" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C42" t="str">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B43" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C43" t="str">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44">
@@ -866,24 +866,24 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Shashank Singh</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B45" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C45" t="str">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Shubman Gill</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B46" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C46" t="str">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47">
@@ -894,7 +894,7 @@
         <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48">
@@ -910,101 +910,101 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B49" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C49" t="str">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Will Jacks</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B50" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C50" t="str">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B51" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C51" t="str">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Sai Kishore</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B52" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C52" t="str">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Liam Livingstone</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B53" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C53" t="str">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B54" t="str">
         <v>PBKS</v>
       </c>
       <c r="C54" t="str">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B55" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C55" t="str">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Hardik Pandya</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B56" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C56" t="str">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B57" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C57" t="str">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58">
@@ -1020,263 +1020,263 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mayank Markande</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B59" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C59" t="str">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B60" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C60" t="str">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Trent Boult</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B61" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C61" t="str">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B62" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C62" t="str">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B63" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C63" t="str">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mitchell Starc</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B64" t="str">
         <v>KKR</v>
       </c>
       <c r="C64" t="str">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B65" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C65" t="str">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Quinton de Kock</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B66" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C66" t="str">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B67" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C67" t="str">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Ayush Badoni</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B68" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C68" t="str">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Harshit Rana</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B69" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C69" t="str">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B70" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C70" t="str">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B71" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C71" t="str">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Noor Ahmad</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B72" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C72" t="str">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B73" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C73" t="str">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B74" t="str">
         <v>KKR</v>
       </c>
       <c r="C74" t="str">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B75" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C75" t="str">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Karn Sharma</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B76" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C76" t="str">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Harpreet Brar</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B77" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C77" t="str">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>David Miller</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B78" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C78" t="str">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B79" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C79" t="str">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mohit Sharma</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B80" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C80" t="str">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>MS Dhoni</v>
+        <v>David Miller</v>
       </c>
       <c r="B81" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C81" t="str">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B82" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C82" t="str">
         <v>97</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Ishant Sharma</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B83" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C83" t="str">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
@@ -1306,189 +1306,189 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Rasikh Dar</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B85" t="str">
         <v>DC</v>
       </c>
       <c r="C85" t="str">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohammad Nabi</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B86" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C86" t="str">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B87" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C87" t="str">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B88" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C88" t="str">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B89" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C89" t="str">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Simran Singh</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B90" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C90" t="str">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B91" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C91" t="str">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B92" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C92" t="str">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Yash Dayal</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B93" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C93" t="str">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Yash Thakur</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B94" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C94" t="str">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Krunal Pandya</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B95" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C95" t="str">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Abhishek Porel</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B96" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C96" t="str">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rovman Powell</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B97" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C97" t="str">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Rinku Singh</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B98" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C98" t="str">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B99" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C99" t="str">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B100" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C100" t="str">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Aiden Markram</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B101" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C101" t="str">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
@@ -1515,24 +1515,24 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B104" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C104" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Swapnil Singh</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B105" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C105" t="str">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106">
@@ -1548,35 +1548,35 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B107" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C107" t="str">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B108" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C108" t="str">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Deepak Hooda</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B109" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C109" t="str">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110">
@@ -1592,46 +1592,46 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Akash Madhwal</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B111" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C111" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B112" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C112" t="str">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Moeen Ali</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C113" t="str">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Deepak Chahar</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B114" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C114" t="str">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
@@ -1647,13 +1647,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B116" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C116" t="str">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
@@ -1669,21 +1669,21 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Sikandar Raza</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B118" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C118" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Piyush Chawla</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B119" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C119" t="str">
         <v>38</v>
@@ -1691,43 +1691,43 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Harpreet Singh</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B120" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C120" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Spencer Johnson</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B121" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Anuj Rawat</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B122" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C122" t="str">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Sumit Kumar</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B123" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C123" t="str">
         <v>35</v>
@@ -1735,43 +1735,43 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>David Warner</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B124" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C124" t="str">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B125" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C125" t="str">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Arshad Khan</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B126" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C126" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B127" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C127" t="str">
         <v>33</v>
@@ -1779,21 +1779,21 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Vijay Shankar</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B128" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C128" t="str">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Anrich Nortje</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B129" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C129" t="str">
         <v>33</v>
@@ -1801,98 +1801,98 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Matt Henry</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B130" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C130" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Reece Topley</v>
+        <v>David Warner</v>
       </c>
       <c r="B131" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C131" t="str">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Shardul Thakur</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B132" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C132" t="str">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B133" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C133" t="str">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B134" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C134" t="str">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B135" t="str">
         <v>PBKS</v>
       </c>
       <c r="C135" t="str">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B136" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C136" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B137" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C137" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Akash Deep</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B138" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C138" t="str">
         <v>25</v>
@@ -1900,32 +1900,32 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Umesh Yadav</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B139" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C139" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Washington Sundar</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B140" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C140" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B141" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C141" t="str">
         <v>22</v>
@@ -1933,46 +1933,46 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B142" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C142" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B143" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C143" t="str">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Atharva Taide</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B144" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C144" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B145" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C145" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
@@ -1988,13 +1988,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B147" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C147" t="str">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -2010,32 +2010,32 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Anukul Roy</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B149" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C149" t="str">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B150" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C150" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Romario Shepherd</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B151" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C151" t="str">
         <v>2</v>
@@ -2043,21 +2043,21 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Marco Jansen</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B152" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C152" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B153" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C153" t="str">
         <v>0</v>
@@ -2065,43 +2065,43 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Lalit Yadav</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B154" t="str">
         <v>DC</v>
       </c>
       <c r="C154" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B155" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C155" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B156" t="str">
         <v>MI</v>
       </c>
       <c r="C156" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Chris Woakes</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B157" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C157" t="str">
         <v>0</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Nathan Ellis</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B158" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Navdeep Saini</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B159" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Kane Williamson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B160" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C160" t="str">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B161" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Luke Wood</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Lizaad Williams</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B163" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B164" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B165" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Mitchell Santner</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B167" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B168" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Amit Mishra</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B169" t="str">
         <v>LSG</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Kyle Mayers</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B170" t="str">
         <v>LSG</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Yash Dhull</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B171" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Umran Malik</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B172" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Rahul Chahar</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B173" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B176" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B177" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B178" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Jhye Richardson</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B179" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Praveen Dubey</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B180" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B181" t="str">
         <v>MI</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Manish Pandey</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B182" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B183" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Dewald Brevis</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B184" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B185" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Shamar Joseph</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B186" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B187" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B188" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B189" t="str">
         <v>RR</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Manav Suthar</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B190" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B191" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B192" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>M Siddharth</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B193" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B194" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>SK Rasheed</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B195" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Swastik Chikara</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B196" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Mayank Dagar</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B197" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B198" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B199" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B200" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B201" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B202" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Harvik Desai</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B203" t="str">
         <v>MI</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Prerak Mankad</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B205" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B206" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B207" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B208" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B210" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B211" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B212" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B213" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Shams Mulani</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B214" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Jayant Yadav</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B215" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Sanvir Singh</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B216" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Joshua Little</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B217" t="str">
         <v>GT</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Prince Choudhary</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B218" t="str">
         <v>PBKS</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B219" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Sushant Mishra</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B220" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B222" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Tom Curran</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B223" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B225" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Prashant Solanki</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B226" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B227" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Akash Singh</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B228" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B229" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Ricky Bhui</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B230" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajan Kumar</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B231" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B233" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B234" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Shivam Singh</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B235" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Naman Dhir</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B237" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B238" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Upendra Yadav</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B239" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B240" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Srikar Bharat</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B241" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,21 +3033,21 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Nandre Burger</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Shubham Dubey</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B243" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,24 +3055,24 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Mayank Yadav</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B245" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -404,145 +404,145 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Philip Salt</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B3" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C3" t="str">
-        <v>360</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B4" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C4" t="str">
-        <v>374</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rishabh Pant</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B5" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C5" t="str">
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Travis Head</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B6" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C6" t="str">
-        <v>319</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Harshal Patel</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B7" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C7" t="str">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Sam Curran</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B8" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C8" t="str">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>KL Rahul</v>
+        <v>Travis Head</v>
       </c>
       <c r="B9" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C9" t="str">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rohit Sharma</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B10" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C10" t="str">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Shashank Singh</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B11" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C11" t="str">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>T Natarajan</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B12" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C12" t="str">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B13" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C13" t="str">
-        <v>265</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B14" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C14" t="str">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Rajat Patidar</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B15" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C15" t="str">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16">
@@ -553,832 +553,832 @@
         <v>MI</v>
       </c>
       <c r="C16" t="str">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B17" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C17" t="str">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Nithish Reddy</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B18" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C18" t="str">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Axar Patel</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B19" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C19" t="str">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B20" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C20" t="str">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Shivam Dube</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B21" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C21" t="str">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B22" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C22" t="str">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Faf du Plessis</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B23" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Pat Cummins</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B24" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C24" t="str">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B25" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C25" t="str">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B26" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C26" t="str">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Tilak Varma</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B27" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C27" t="str">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Andre Russell</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B28" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C28" t="str">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Jos Buttler</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B29" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C29" t="str">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sanju Samson</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B30" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C30" t="str">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B31" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C31" t="str">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B32" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C32" t="str">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B33" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C33" t="str">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B34" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C34" t="str">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Rashid Khan</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B35" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C35" t="str">
-        <v>217</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B36" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C36" t="str">
-        <v>206</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Riyan Parag</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B37" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C37" t="str">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B38" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C38" t="str">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Ishan Kishan</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B39" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C39" t="str">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B40" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C40" t="str">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B41" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C41" t="str">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Virat Kohli</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B42" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C42" t="str">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Avesh Khan</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B43" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C43" t="str">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B44" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C44" t="str">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B45" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C45" t="str">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Simran Singh</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B46" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C46" t="str">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B47" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C47" t="str">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Abdul Samad</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B48" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C48" t="str">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Shubman Gill</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B49" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C49" t="str">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B50" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C50" t="str">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Will Jacks</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B51" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C51" t="str">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B52" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C52" t="str">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Cameron Green</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B53" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C53" t="str">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B54" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C54" t="str">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Sai Kishore</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B55" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C55" t="str">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Liam Livingstone</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B56" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C56" t="str">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B57" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C57" t="str">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B58" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C58" t="str">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B59" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C59" t="str">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B60" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C60" t="str">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B61" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C61" t="str">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Hardik Pandya</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B62" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C62" t="str">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mayank Markande</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B63" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C63" t="str">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B64" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C64" t="str">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Trent Boult</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B65" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C65" t="str">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B66" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C66" t="str">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Ayush Badoni</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B67" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C67" t="str">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B68" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C68" t="str">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B69" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C69" t="str">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Quinton de Kock</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B70" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C70" t="str">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mitchell Starc</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B71" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C71" t="str">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B72" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C72" t="str">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Harshit Rana</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B73" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C73" t="str">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B74" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C74" t="str">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B75" t="str">
         <v>SRH</v>
       </c>
       <c r="C75" t="str">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B76" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C76" t="str">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Tim David</v>
       </c>
       <c r="B77" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C77" t="str">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B78" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C78" t="str">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Karn Sharma</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B79" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C79" t="str">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Harpreet Brar</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B80" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C80" t="str">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>David Miller</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B81" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C81" t="str">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mohit Sharma</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B82" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C82" t="str">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Noor Ahmad</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B83" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C83" t="str">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B84" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C84" t="str">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B85" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C85" t="str">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>MS Dhoni</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B86" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C86" t="str">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B87" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C87" t="str">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Ishant Sharma</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B88" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C88" t="str">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B89" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C89" t="str">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Abhishek Porel</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B90" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C90" t="str">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Rasikh Dar</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B91" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C91" t="str">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92">
@@ -1389,183 +1389,183 @@
         <v>LSG</v>
       </c>
       <c r="C92" t="str">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B93" t="str">
         <v>GT</v>
       </c>
       <c r="C93" t="str">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rinku Singh</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B94" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C94" t="str">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B95" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C95" t="str">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Yash Dayal</v>
+        <v>David Miller</v>
       </c>
       <c r="B96" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C96" t="str">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Yash Thakur</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B97" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C97" t="str">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Krunal Pandya</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B98" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C98" t="str">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Rovman Powell</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B99" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C99" t="str">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B100" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C100" t="str">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B101" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C101" t="str">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B102" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C102" t="str">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B103" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C103" t="str">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B104" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C104" t="str">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B105" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C105" t="str">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Tim David</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B106" t="str">
         <v>MI</v>
       </c>
       <c r="C106" t="str">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B107" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C107" t="str">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Swapnil Singh</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B108" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C108" t="str">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
@@ -1581,167 +1581,167 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B110" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C110" t="str">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Deepak Hooda</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B111" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C111" t="str">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B112" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C112" t="str">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B113" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C113" t="str">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Akash Madhwal</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B114" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C114" t="str">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shai Hope</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B115" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Deepak Chahar</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B116" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C116" t="str">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B117" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C117" t="str">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Anuj Rawat</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B118" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C118" t="str">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Sikandar Raza</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B119" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C119" t="str">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Piyush Chawla</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B120" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C120" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C121" t="str">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Arshad Khan</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B122" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Vijay Shankar</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B123" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C123" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Moeen Ali</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B124" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C124" t="str">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125">
@@ -1757,54 +1757,54 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Spencer Johnson</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B126" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C126" t="str">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Anrich Nortje</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B127" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C127" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B128" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C128" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Matt Henry</v>
+        <v>David Warner</v>
       </c>
       <c r="B129" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C129" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Sumit Kumar</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B130" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C130" t="str">
         <v>35</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>David Warner</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B131" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C131" t="str">
         <v>34</v>
@@ -1823,134 +1823,134 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B132" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C132" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Reece Topley</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B133" t="str">
         <v>RCB</v>
       </c>
       <c r="C133" t="str">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Shardul Thakur</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B134" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C134" t="str">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B135" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C135" t="str">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B136" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C136" t="str">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Akash Deep</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B137" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C137" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Umesh Yadav</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B138" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C138" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B139" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C139" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B140" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C140" t="str">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B141" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C141" t="str">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B142" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C142" t="str">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Rahul Chahar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B143" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C143" t="str">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
@@ -1966,35 +1966,35 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Atharva Taide</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B145" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C145" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Matthew Wade</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B146" t="str">
         <v>GT</v>
       </c>
       <c r="C146" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B147" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C147" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
@@ -2010,109 +2010,109 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B149" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C149" t="str">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Lalit Yadav</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B150" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C150" t="str">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B151" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C151" t="str">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Romario Shepherd</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B152" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C152" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Marco Jansen</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B153" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B154" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C154" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Anukul Roy</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B155" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C155" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B156" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C156" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B157" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C157" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Kane Williamson</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B158" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C158" t="str">
         <v>0</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B159" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C159" t="str">
         <v>0</v>
@@ -2131,21 +2131,21 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Chris Woakes</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B160" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C160" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Nathan Ellis</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B161" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B162" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Navdeep Saini</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B163" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B164" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Luke Wood</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B165" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Fazal Haque</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B166" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Lizaad Williams</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B167" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Mitchell Santner</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B168" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B169" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Amit Mishra</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B170" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Manish Pandey</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B171" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Yash Dhull</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B172" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Umran Malik</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B173" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Nitish Rana</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B174" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B175" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B176" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Praveen Dubey</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B177" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Jhye Richardson</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B178" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B180" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B181" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Kyle Mayers</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B182" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B183" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B184" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Dewald Brevis</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B185" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B186" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B187" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Shamar Joseph</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B188" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B189" t="str">
         <v>RR</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>M Siddharth</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B190" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Glenn Phillips</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B191" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Swastik Chikara</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B192" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>SK Rasheed</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B193" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Mayank Dagar</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B194" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B195" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B196" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Harvik Desai</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B197" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B198" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B199" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Ajay Mandal</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B200" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B201" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B202" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B203" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Ashton Turner</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B204" t="str">
         <v>LSG</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B205" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B206" t="str">
         <v>LSG</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B207" t="str">
         <v>LSG</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Shams Mulani</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B208" t="str">
         <v>MI</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B210" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Prerak Mankad</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B211" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Joshua Little</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B212" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Jayant Yadav</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B213" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Sanvir Singh</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B214" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B215" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B216" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B217" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B218" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Prince Choudhary</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B219" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B220" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B221" t="str">
         <v>PBKS</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Tom Curran</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B222" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B223" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Sakib Hussain</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B224" t="str">
         <v>KKR</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B225" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Akash Singh</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B226" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Ricky Bhui</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B227" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Rajan Kumar</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B228" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B232" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Naman Dhir</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B233" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B234" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B235" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B237" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B243" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,24 +3055,24 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B244" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B245" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,117 +399,117 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>574</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>KL Rahul</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B3" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>420</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rishabh Pant</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B4" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C4" t="str">
-        <v>403</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B5" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C5" t="str">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Philip Salt</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B6" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>360</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Sanju Samson</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B7" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C7" t="str">
-        <v>332</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Tilak Varma</v>
+        <v>Travis Head</v>
       </c>
       <c r="B8" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C8" t="str">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Travis Head</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B9" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C9" t="str">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B10" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C10" t="str">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Rohit Sharma</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B11" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>295</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B12" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C12" t="str">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13">
@@ -536,945 +536,945 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B15" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C15" t="str">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B16" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C16" t="str">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Shashank Singh</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B17" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B18" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C18" t="str">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Jos Buttler</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B19" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C19" t="str">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Axar Patel</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B20" t="str">
         <v>DC</v>
       </c>
       <c r="C20" t="str">
-        <v>275</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>T Natarajan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B21" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C21" t="str">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Rajat Patidar</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B22" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C22" t="str">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Nithish Reddy</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B23" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C23" t="str">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Faf du Plessis</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B24" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C24" t="str">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B25" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C25" t="str">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B26" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C26" t="str">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B27" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C27" t="str">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Pat Cummins</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B28" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C28" t="str">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Ishan Kishan</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B29" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C29" t="str">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B30" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C30" t="str">
-        <v>231</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Riyan Parag</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B31" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C31" t="str">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B32" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C32" t="str">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Andre Russell</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B33" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C33" t="str">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B34" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C34" t="str">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B35" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C35" t="str">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shivam Dube</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B36" t="str">
         <v>CSK</v>
       </c>
       <c r="C36" t="str">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B37" t="str">
         <v>SRH</v>
       </c>
       <c r="C37" t="str">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Rashid Khan</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B38" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C38" t="str">
-        <v>217</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B39" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C39" t="str">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B40" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C40" t="str">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Avesh Khan</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B41" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C41" t="str">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B42" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C42" t="str">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Hardik Pandya</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B43" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C43" t="str">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B44" t="str">
         <v>GT</v>
       </c>
       <c r="C44" t="str">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B45" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C45" t="str">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B46" t="str">
         <v>RR</v>
       </c>
       <c r="C46" t="str">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Cameron Green</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B47" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C47" t="str">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B48" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C48" t="str">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Virat Kohli</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B49" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C49" t="str">
-        <v>185</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Trent Boult</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B50" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C50" t="str">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B51" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C51" t="str">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B52" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C52" t="str">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Simran Singh</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B53" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C53" t="str">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Rasikh Dar</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B54" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C54" t="str">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B55" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C55" t="str">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Abdul Samad</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B56" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C56" t="str">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Shubman Gill</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B57" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C57" t="str">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Will Jacks</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B58" t="str">
         <v>RCB</v>
       </c>
       <c r="C58" t="str">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Ayush Badoni</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B59" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C59" t="str">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B60" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C60" t="str">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Sai Kishore</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B61" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C61" t="str">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Shai Hope</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B62" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C62" t="str">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B63" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C63" t="str">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Abhishek Porel</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B64" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C64" t="str">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B65" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C65" t="str">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Liam Livingstone</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B66" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C66" t="str">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B67" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C67" t="str">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B68" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C68" t="str">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B69" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C69" t="str">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B70" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C70" t="str">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Quinton de Kock</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B71" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C71" t="str">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mayank Markande</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B72" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C72" t="str">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Deepak Hooda</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B73" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C73" t="str">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B74" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B75" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C75" t="str">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mitchell Starc</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B76" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C76" t="str">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Tim David</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B77" t="str">
         <v>MI</v>
       </c>
       <c r="C77" t="str">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B78" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C78" t="str">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B79" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C79" t="str">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B80" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C80" t="str">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Harshit Rana</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B81" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C81" t="str">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B82" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>David Miller</v>
       </c>
       <c r="B83" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C83" t="str">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Yash Thakur</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B84" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C84" t="str">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Noor Ahmad</v>
+        <v>Tim David</v>
       </c>
       <c r="B85" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C85" t="str">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohsin Khan</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B86" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C86" t="str">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B87" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C87" t="str">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B88" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C88" t="str">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B89" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C89" t="str">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Karn Sharma</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B90" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C90" t="str">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Krunal Pandya</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B91" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C91" t="str">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B92" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C92" t="str">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohit Sharma</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B93" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C93" t="str">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>MS Dhoni</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B94" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C94" t="str">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B95" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C95" t="str">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>David Miller</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B96" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C96" t="str">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rovman Powell</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B97" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C97" t="str">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B98" t="str">
         <v>GT</v>
       </c>
       <c r="C98" t="str">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Harpreet Brar</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B99" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C99" t="str">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B100" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C100" t="str">
         <v>97</v>
@@ -1482,142 +1482,142 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Rinku Singh</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B101" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C101" t="str">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B102" t="str">
         <v>GT</v>
       </c>
       <c r="C102" t="str">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B103" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C103" t="str">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B104" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C104" t="str">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Yash Dayal</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B105" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C105" t="str">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B106" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C106" t="str">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B107" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C107" t="str">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Piyush Chawla</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B108" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C108" t="str">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Aiden Markram</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B109" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B110" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C110" t="str">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B111" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C111" t="str">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B112" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C112" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Swapnil Singh</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B113" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
         <v>71</v>
@@ -1625,73 +1625,73 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B114" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C114" t="str">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B115" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C115" t="str">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Akash Madhwal</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B116" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C116" t="str">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B117" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C117" t="str">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Moeen Ali</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B118" t="str">
         <v>CSK</v>
       </c>
       <c r="C118" t="str">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B119" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C119" t="str">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Deepak Chahar</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B120" t="str">
         <v>CSK</v>
@@ -1702,43 +1702,43 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B121" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Anuj Rawat</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B122" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C122" t="str">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Sikandar Raza</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B123" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C123" t="str">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Spencer Johnson</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B124" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C124" t="str">
         <v>38</v>
@@ -1746,43 +1746,43 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Harpreet Singh</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B125" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C125" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Arshad Khan</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B126" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C126" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Vijay Shankar</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B127" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C127" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Sumit Kumar</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B128" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C128" t="str">
         <v>35</v>
@@ -1801,21 +1801,21 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Matt Henry</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B130" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C130" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Luke Wood</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B131" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C131" t="str">
         <v>34</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Anrich Nortje</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B132" t="str">
         <v>DC</v>
       </c>
       <c r="C132" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
@@ -1845,76 +1845,76 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B134" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C134" t="str">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Reece Topley</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B135" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C135" t="str">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Shardul Thakur</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B136" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C136" t="str">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B137" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C137" t="str">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Rahul Chahar</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B138" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C138" t="str">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B139" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C139" t="str">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B140" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C140" t="str">
         <v>28</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Akash Deep</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B142" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C142" t="str">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
@@ -1999,21 +1999,21 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B148" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C148" t="str">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Matthew Wade</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B149" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C149" t="str">
         <v>16</v>
@@ -2032,24 +2032,24 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B151" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C151" t="str">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Lizaad Williams</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B152" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C152" t="str">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
@@ -2065,32 +2065,32 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Anukul Roy</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B154" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C154" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B155" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C155" t="str">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B156" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C156" t="str">
         <v>2</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Romario Shepherd</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B157" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C157" t="str">
         <v>2</v>
@@ -2120,18 +2120,18 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B159" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C159" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B160" t="str">
         <v>MI</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B161" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B162" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Kane Williamson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B163" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Chris Woakes</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B164" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Nathan Ellis</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B165" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B166" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Navdeep Saini</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B167" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B168" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Fazal Haque</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B169" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Mitchell Santner</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B170" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B171" t="str">
         <v>LSG</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Kyle Mayers</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B172" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Manish Pandey</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B173" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Umran Malik</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B175" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Nitish Rana</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B176" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B177" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B178" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Manav Suthar</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B179" t="str">
         <v>GT</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Jhye Richardson</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B180" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Praveen Dubey</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B181" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B182" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B183" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B184" t="str">
         <v>MI</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Dewald Brevis</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B186" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Shamar Joseph</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B187" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B189" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B190" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>M Siddharth</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B191" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Glenn Phillips</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B192" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B193" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>SK Rasheed</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B194" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Swastik Chikara</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B195" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Mayank Dagar</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B196" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B197" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B198" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B199" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B200" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B201" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Ashton Turner</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B202" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Prerak Mankad</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B204" t="str">
         <v>LSG</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B205" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B206" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B207" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Harvik Desai</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B208" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>BR sharath</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B209" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Shams Mulani</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B210" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Joshua Little</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B211" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B212" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Manoj Bhandage</v>
+        <v>BR sharath</v>
       </c>
       <c r="B213" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Sushant Mishra</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B214" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B215" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Prashant Solanki</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B216" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Prince Choudhary</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B217" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Sanvir Singh</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B218" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B219" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Jayant Yadav</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B220" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B221" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Sakib Hussain</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B222" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B224" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Akash Singh</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B225" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B226" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Tom Curran</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B227" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Ricky Bhui</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B228" t="str">
         <v>DC</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B229" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B230" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Shivam Singh</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B231" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B232" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B233" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Naman Dhir</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B234" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Upendra Yadav</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B236" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Rajan Kumar</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B237" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Srikar Bharat</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B238" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Nandre Burger</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B239" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Shubham Dubey</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B240" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Mayank Yadav</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B241" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,21 +3033,21 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Suyash Sharma</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B242" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C242" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B243" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B244" t="str">
         <v>KKR</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B245" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,189 +415,189 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Philip Salt</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B4" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C4" t="str">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Axar Patel</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B5" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C5" t="str">
-        <v>356</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KL Rahul</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B6" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C6" t="str">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rishabh Pant</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B7" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C7" t="str">
-        <v>440</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Travis Head</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B8" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C8" t="str">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Tilak Varma</v>
+        <v>Travis Head</v>
       </c>
       <c r="B9" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C9" t="str">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B10" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C10" t="str">
-        <v>324</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B11" t="str">
         <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B12" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C12" t="str">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Harshal Patel</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B13" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C13" t="str">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Sam Curran</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B14" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C14" t="str">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Will Jacks</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B15" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C15" t="str">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shivam Dube</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B16" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C16" t="str">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sanju Samson</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B17" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C17" t="str">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B18" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C18" t="str">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>T Natarajan</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B19" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C19" t="str">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B20" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C20" t="str">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21">
@@ -608,337 +608,337 @@
         <v>MI</v>
       </c>
       <c r="C21" t="str">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Nithish Reddy</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B22" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C22" t="str">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Virat Kohli</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B23" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B24" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C24" t="str">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B25" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C25" t="str">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B26" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C26" t="str">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Jos Buttler</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B27" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C27" t="str">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B28" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C28" t="str">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B29" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C29" t="str">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Faf du Plessis</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B30" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C30" t="str">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B31" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C31" t="str">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B32" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C32" t="str">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Pat Cummins</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B33" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C33" t="str">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B34" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C34" t="str">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Shashank Singh</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B35" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C35" t="str">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B36" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C36" t="str">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B37" t="str">
         <v>SRH</v>
       </c>
       <c r="C37" t="str">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Rajat Patidar</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B38" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C38" t="str">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Andre Russell</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B39" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C39" t="str">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Riyan Parag</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B40" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C40" t="str">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B41" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C41" t="str">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Ishan Kishan</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B42" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C42" t="str">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B43" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C43" t="str">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Rashid Khan</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B44" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C44" t="str">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B45" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C45" t="str">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Avesh Khan</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B46" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C46" t="str">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B47" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C47" t="str">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B48" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C48" t="str">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B49" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C49" t="str">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Hardik Pandya</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B50" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C50" t="str">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Abdul Samad</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B51" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C51" t="str">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52">
@@ -954,21 +954,21 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B53" t="str">
         <v>CSK</v>
       </c>
       <c r="C53" t="str">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B54" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C54" t="str">
         <v>195</v>
@@ -976,21 +976,21 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Shubman Gill</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B55" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C55" t="str">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B56" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C56" t="str">
         <v>192</v>
@@ -998,43 +998,43 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Trent Boult</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B57" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C57" t="str">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Cameron Green</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B58" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C58" t="str">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Harshit Rana</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B59" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C59" t="str">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Sai Kishore</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B60" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C60" t="str">
         <v>184</v>
@@ -1042,277 +1042,277 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Simran Singh</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B61" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C61" t="str">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B62" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C62" t="str">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Abhishek Porel</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B63" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C63" t="str">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B64" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C64" t="str">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rasikh Dar</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B65" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C65" t="str">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B66" t="str">
         <v>LSG</v>
       </c>
       <c r="C66" t="str">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B67" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C67" t="str">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B68" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C68" t="str">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Tim David</v>
       </c>
       <c r="B69" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C69" t="str">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B70" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C70" t="str">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Liam Livingstone</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B71" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mitchell Starc</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B72" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C72" t="str">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B73" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C73" t="str">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B74" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C74" t="str">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B75" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C75" t="str">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shai Hope</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B76" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C76" t="str">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B77" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C77" t="str">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Ayush Badoni</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B78" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C78" t="str">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Quinton de Kock</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B79" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C79" t="str">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B80" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C80" t="str">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mayank Markande</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B81" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C81" t="str">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Deepak Hooda</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C82" t="str">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>David Miller</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B83" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C83" t="str">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B84" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C84" t="str">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Tim David</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B85" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C85" t="str">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
@@ -1328,35 +1328,35 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B87" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C87" t="str">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B88" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C88" t="str">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Aiden Markram</v>
+        <v>David Miller</v>
       </c>
       <c r="B89" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C89" t="str">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
@@ -1372,134 +1372,134 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Karn Sharma</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B91" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C91" t="str">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B92" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C92" t="str">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohsin Khan</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B93" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C93" t="str">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rinku Singh</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B94" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C94" t="str">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Krunal Pandya</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B95" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C95" t="str">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B96" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C96" t="str">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Harpreet Brar</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B97" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C97" t="str">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B98" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C98" t="str">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Swapnil Singh</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B99" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C99" t="str">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B100" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C100" t="str">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>MS Dhoni</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B101" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C101" t="str">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Noor Ahmad</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B102" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C102" t="str">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
@@ -1537,57 +1537,57 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Yash Dayal</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B106" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C106" t="str">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B107" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C107" t="str">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B108" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C108" t="str">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B109" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C109" t="str">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B110" t="str">
         <v>RCB</v>
       </c>
       <c r="C110" t="str">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111">
@@ -1598,279 +1598,279 @@
         <v>MI</v>
       </c>
       <c r="C111" t="str">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B112" t="str">
         <v>RCB</v>
       </c>
       <c r="C112" t="str">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C113" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Moeen Ali</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B114" t="str">
         <v>CSK</v>
       </c>
       <c r="C114" t="str">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Rovman Powell</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B115" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C115" t="str">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B116" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C116" t="str">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Akash Madhwal</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B117" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C117" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Shardul Thakur</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B118" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C118" t="str">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B119" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C119" t="str">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B120" t="str">
         <v>CSK</v>
       </c>
       <c r="C120" t="str">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Anuj Rawat</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C121" t="str">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Deepak Chahar</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B122" t="str">
         <v>CSK</v>
       </c>
       <c r="C122" t="str">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B123" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C123" t="str">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Sikandar Raza</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B124" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C124" t="str">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Spencer Johnson</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B125" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C125" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B126" t="str">
         <v>PBKS</v>
       </c>
       <c r="C126" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Arshad Khan</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B127" t="str">
         <v>LSG</v>
       </c>
       <c r="C127" t="str">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Vijay Shankar</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B128" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C128" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>David Warner</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B129" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C129" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Luke Wood</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B130" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C130" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B131" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C131" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Sumit Kumar</v>
+        <v>David Warner</v>
       </c>
       <c r="B132" t="str">
         <v>DC</v>
       </c>
       <c r="C132" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B133" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C133" t="str">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Lizaad Williams</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B134" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C134" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Matt Henry</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B135" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C135" t="str">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Anrich Nortje</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B136" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C136" t="str">
         <v>33</v>
@@ -1878,29 +1878,29 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B137" t="str">
         <v>GT</v>
       </c>
       <c r="C137" t="str">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B138" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C138" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Reece Topley</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B139" t="str">
         <v>RCB</v>
@@ -1911,156 +1911,156 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B140" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C140" t="str">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Amit Mishra</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B141" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C141" t="str">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B142" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C142" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Umesh Yadav</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B143" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C143" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Washington Sundar</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B144" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C144" t="str">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B145" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C145" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B146" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C146" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Atharva Taide</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B147" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Rahul Chahar</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B148" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C148" t="str">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B149" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C149" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B150" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C150" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Akash Deep</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B151" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C151" t="str">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B152" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C152" t="str">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Lalit Yadav</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B153" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C153" t="str">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -2076,65 +2076,65 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Matthew Wade</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B155" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C155" t="str">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B156" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C156" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B157" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C157" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Marco Jansen</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B158" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C158" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Anukul Roy</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B159" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C159" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Romario Shepherd</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B160" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C160" t="str">
         <v>2</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B161" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C161" t="str">
         <v>0</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C162" t="str">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Chris Woakes</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B163" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C163" t="str">
         <v>0</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B164" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Navdeep Saini</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B165" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Nathan Ellis</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B166" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C166" t="str">
         <v>0</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B167" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Fazal Haque</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B168" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,32 +2230,32 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Mitchell Santner</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B169" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C169" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B170" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C170" t="str">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Kyle Mayers</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B171" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Manish Pandey</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B172" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Umran Malik</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B173" t="str">
         <v>SRH</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Yash Dhull</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B174" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Nitish Rana</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B175" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B176" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B177" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B178" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Kane Williamson</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B179" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B180" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Manav Suthar</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B181" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Praveen Dubey</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B182" t="str">
         <v>DC</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B183" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Dewald Brevis</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B184" t="str">
         <v>MI</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B185" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B188" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Shamar Joseph</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B189" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>M Siddharth</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B190" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Glenn Phillips</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B191" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B192" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>SK Rasheed</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B193" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Swastik Chikara</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B194" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Mayank Dagar</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B195" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B196" t="str">
         <v>SRH</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B197" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B198" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Shivalik Sharma</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B199" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Ajay Mandal</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B200" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Ashton Turner</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B201" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B202" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B203" t="str">
         <v>CSK</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B204" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Prerak Mankad</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B205" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Harvik Desai</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B206" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Shams Mulani</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B207" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B208" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B209" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Sanvir Singh</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B210" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B211" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B212" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>BR sharath</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B213" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B214" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Jayant Yadav</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B215" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Joshua Little</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B216" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B217" t="str">
         <v>GT</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B218" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Prince Choudhary</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B219" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Prashant Solanki</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B220" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Chetan Sakariya</v>
+        <v>BR sharath</v>
       </c>
       <c r="B221" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B223" t="str">
         <v>PBKS</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B224" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Tom Curran</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B225" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Sakib Hussain</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B226" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B227" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B228" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B229" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Rajan Kumar</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B230" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Ricky Bhui</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B231" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B232" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Shivam Singh</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B233" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B234" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B235" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Naman Dhir</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B237" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Upendra Yadav</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B238" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B239" t="str">
         <v>MI</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Srikar Bharat</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B240" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Nandre Burger</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B241" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Shubham Dubey</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B242" t="str">
         <v>RR</v>
@@ -3044,40 +3044,62 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Mayank Yadav</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B243" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C243" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Suyash Sharma</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B244" t="str">
         <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
+        <v>Vishnu Vinod</v>
+      </c>
+      <c r="B245" t="str">
+        <v>MI</v>
+      </c>
+      <c r="C245" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Shubham Dubey</v>
+      </c>
+      <c r="B246" t="str">
+        <v>RR</v>
+      </c>
+      <c r="C246" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
         <v>Dushmantha Chameera</v>
       </c>
-      <c r="B245" t="str">
+      <c r="B247" t="str">
         <v>KKR</v>
       </c>
-      <c r="C245" t="str">
+      <c r="C247" t="str">
         <v>-2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C245"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C247"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,7 +399,7 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3">
@@ -410,139 +410,139 @@
         <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>506</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KL Rahul</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B4" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C4" t="str">
-        <v>473</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Philip Salt</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B5" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C5" t="str">
-        <v>491</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rishabh Pant</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B6" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>440</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Tilak Varma</v>
+        <v>Travis Head</v>
       </c>
       <c r="B7" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C7" t="str">
-        <v>346</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Axar Patel</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B8" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C8" t="str">
-        <v>356</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Travis Head</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B9" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C9" t="str">
-        <v>339</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Marcus Stoinis</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B10" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C10" t="str">
-        <v>405</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B11" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C11" t="str">
-        <v>335</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sanju Samson</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B12" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C12" t="str">
-        <v>332</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B13" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C13" t="str">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B14" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C14" t="str">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B15" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C15" t="str">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16">
@@ -553,106 +553,106 @@
         <v>PBKS</v>
       </c>
       <c r="C16" t="str">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sam Curran</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B17" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Will Jacks</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B18" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C18" t="str">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Shivam Dube</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B19" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C19" t="str">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B20" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C20" t="str">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Rohit Sharma</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B21" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C21" t="str">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B22" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C22" t="str">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>T Natarajan</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B23" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C23" t="str">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Nithish Reddy</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B24" t="str">
         <v>SRH</v>
       </c>
       <c r="C24" t="str">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Faf du Plessis</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B25" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C25" t="str">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26">
@@ -663,29 +663,29 @@
         <v>MI</v>
       </c>
       <c r="C26" t="str">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Virat Kohli</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B27" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C27" t="str">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Shashank Singh</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B28" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C28" t="str">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
@@ -696,18 +696,18 @@
         <v>RR</v>
       </c>
       <c r="C29" t="str">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B30" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C30" t="str">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
@@ -723,255 +723,255 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B32" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C32" t="str">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Rajat Patidar</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B33" t="str">
         <v>RCB</v>
       </c>
       <c r="C33" t="str">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B34" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C34" t="str">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B35" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C35" t="str">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Hardik Pandya</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B36" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C36" t="str">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B37" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C37" t="str">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B38" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C38" t="str">
-        <v>234</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Pat Cummins</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B39" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C39" t="str">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B40" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C40" t="str">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Riyan Parag</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B41" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C41" t="str">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Andre Russell</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B42" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C42" t="str">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B43" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C43" t="str">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B44" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C44" t="str">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Rashid Khan</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B45" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C45" t="str">
-        <v>215</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B46" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C46" t="str">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B47" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C47" t="str">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B48" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C48" t="str">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Avesh Khan</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B49" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C49" t="str">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Abdul Samad</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B50" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C50" t="str">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B51" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C51" t="str">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B52" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C52" t="str">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B53" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C53" t="str">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B54" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C54" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55">
@@ -982,18 +982,18 @@
         <v>SRH</v>
       </c>
       <c r="C55" t="str">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Cameron Green</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B56" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C56" t="str">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57">
@@ -1009,222 +1009,222 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Trent Boult</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B58" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C58" t="str">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Rasikh Dar</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B59" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C59" t="str">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Harshit Rana</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B60" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C60" t="str">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Sai Kishore</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B61" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C61" t="str">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B62" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C62" t="str">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Tim David</v>
       </c>
       <c r="B63" t="str">
         <v>MI</v>
       </c>
       <c r="C63" t="str">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Simran Singh</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B64" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C64" t="str">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B65" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C65" t="str">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Ayush Badoni</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B66" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C66" t="str">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B67" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C67" t="str">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B68" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C68" t="str">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Tim David</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B69" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C69" t="str">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B70" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C70" t="str">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Abhishek Porel</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B71" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C71" t="str">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Shai Hope</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B72" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C72" t="str">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B73" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C73" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Deepak Hooda</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B74" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C74" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B75" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C75" t="str">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B76" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C76" t="str">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Liam Livingstone</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B77" t="str">
         <v>PBKS</v>
       </c>
       <c r="C77" t="str">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78">
@@ -1235,106 +1235,106 @@
         <v>KKR</v>
       </c>
       <c r="C78" t="str">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B79" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C79" t="str">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B80" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C80" t="str">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B81" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C81" t="str">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B82" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B83" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C83" t="str">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B84" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C84" t="str">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B85" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C85" t="str">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Dhruv Jurel</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B86" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C86" t="str">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mayank Markande</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B87" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C87" t="str">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
@@ -1350,321 +1350,321 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>David Miller</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B89" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C89" t="str">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Yash Thakur</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B90" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C90" t="str">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B91" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C91" t="str">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Aiden Markram</v>
+        <v>David Miller</v>
       </c>
       <c r="B92" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C92" t="str">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B93" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C93" t="str">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>MS Dhoni</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B94" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C94" t="str">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Noor Ahmad</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B95" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C95" t="str">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Karn Sharma</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B96" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C96" t="str">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B97" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C97" t="str">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Krunal Pandya</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B98" t="str">
         <v>LSG</v>
       </c>
       <c r="C98" t="str">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Harpreet Brar</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B99" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C99" t="str">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B100" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C100" t="str">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Swapnil Singh</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B101" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C101" t="str">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Rinku Singh</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B102" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C102" t="str">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Ishant Sharma</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B103" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C103" t="str">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Mohit Sharma</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B104" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C104" t="str">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B105" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C105" t="str">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B106" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C106" t="str">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Rovman Powell</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B107" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C107" t="str">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B108" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C108" t="str">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B109" t="str">
         <v>CSK</v>
       </c>
       <c r="C109" t="str">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B110" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C110" t="str">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Piyush Chawla</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B111" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C111" t="str">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B112" t="str">
         <v>RCB</v>
       </c>
       <c r="C112" t="str">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B113" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C113" t="str">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B114" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C114" t="str">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Moeen Ali</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B115" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C115" t="str">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B116" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C116" t="str">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B117" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C117" t="str">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118">
@@ -1680,24 +1680,24 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Akash Madhwal</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B119" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C119" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Shardul Thakur</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B120" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C120" t="str">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
@@ -1708,477 +1708,477 @@
         <v>RR</v>
       </c>
       <c r="C121" t="str">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B122" t="str">
         <v>CSK</v>
       </c>
       <c r="C122" t="str">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Anuj Rawat</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B123" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C123" t="str">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Deepak Chahar</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B124" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C124" t="str">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B125" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C125" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Sikandar Raza</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B126" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C126" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mayank Yadav</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B127" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C127" t="str">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Arshad Khan</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B128" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C128" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Vijay Shankar</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B129" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C129" t="str">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Sumit Kumar</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B130" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C130" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Matt Henry</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B131" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C131" t="str">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>David Warner</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B132" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C132" t="str">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Harpreet Singh</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B133" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C133" t="str">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B134" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C134" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Anrich Nortje</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B135" t="str">
         <v>DC</v>
       </c>
       <c r="C135" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>David Warner</v>
       </c>
       <c r="B136" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C136" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Spencer Johnson</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B137" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C137" t="str">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B138" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C138" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B139" t="str">
         <v>RCB</v>
       </c>
       <c r="C139" t="str">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Reece Topley</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B140" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C140" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Rahul Chahar</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B141" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C141" t="str">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B142" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C142" t="str">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Amit Mishra</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B143" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C143" t="str">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Luke Wood</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B144" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C144" t="str">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Umesh Yadav</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B145" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C145" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Washington Sundar</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B146" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C146" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Lizaad Williams</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C147" t="str">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Akash Deep</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B148" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C148" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B149" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C149" t="str">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B150" t="str">
         <v>GT</v>
       </c>
       <c r="C150" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B151" t="str">
         <v>SRH</v>
       </c>
       <c r="C151" t="str">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Matthew Wade</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B152" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C152" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B153" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C153" t="str">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B154" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C154" t="str">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Ashton Turner</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B155" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C155" t="str">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Lalit Yadav</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B156" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C156" t="str">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Anukul Roy</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B157" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C157" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Romario Shepherd</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B158" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C158" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B159" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C159" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B160" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C160" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Marco Jansen</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B161" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C161" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B162" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B163" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C163" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Kane Williamson</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B164" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C164" t="str">
         <v>0</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Chris Woakes</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B165" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,21 +2197,21 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B166" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C166" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Nathan Ellis</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B167" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Navdeep Saini</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B168" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C168" t="str">
         <v>0</v>
@@ -2230,32 +2230,32 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B169" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C169" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Atharva Taide</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B170" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C170" t="str">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B171" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B172" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Fazal Haque</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B173" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Mitchell Santner</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B174" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B175" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,21 +2307,21 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Kyle Mayers</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B176" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C176" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Manish Pandey</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B177" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Umran Malik</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B178" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B179" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Nitish Rana</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B180" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B181" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Yash Dhull</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B182" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B183" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B184" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Manav Suthar</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B185" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B187" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B188" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Praveen Dubey</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B189" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B190" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Dewald Brevis</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B191" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Shamar Joseph</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B192" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B193" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B194" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B195" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Glenn Phillips</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B196" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B197" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>SK Rasheed</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B199" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Swastik Chikara</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B200" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Mayank Dagar</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B201" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B202" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Richard Gleeson</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B203" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B204" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B205" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Ajay Mandal</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B206" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B207" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B208" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B209" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Prerak Mankad</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B210" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Shams Mulani</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B211" t="str">
         <v>MI</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B212" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>BR sharath</v>
       </c>
       <c r="B213" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B214" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B215" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B216" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Jayant Yadav</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B218" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Sanvir Singh</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B219" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>BR sharath</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Sushant Mishra</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B222" t="str">
         <v>GT</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B223" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B224" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B226" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Sakib Hussain</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B227" t="str">
         <v>KKR</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Tom Curran</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B228" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B229" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B230" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Akash Singh</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B231" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B232" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Rajan Kumar</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B233" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Ricky Bhui</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B234" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B235" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Shivam Singh</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B236" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B237" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Naman Dhir</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B238" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B239" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B240" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Upendra Yadav</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B241" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Nandre Burger</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,32 +3044,32 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Suyash Sharma</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B243" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C243" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Srikar Bharat</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B244" t="str">
         <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B245" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C245" t="str">
         <v>0</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Shubham Dubey</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B246" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C246" t="str">
         <v>0</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,7 +399,7 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3">
@@ -415,35 +415,35 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Philip Salt</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B4" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C4" t="str">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rishabh Pant</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B5" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C5" t="str">
-        <v>440</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KL Rahul</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B6" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C6" t="str">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
@@ -459,68 +459,68 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Nithish Reddy</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B8" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C8" t="str">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B9" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C9" t="str">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>T Natarajan</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B10" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C10" t="str">
-        <v>359</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Tilak Varma</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B11" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C11" t="str">
-        <v>358</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Marcus Stoinis</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B12" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C12" t="str">
-        <v>405</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Axar Patel</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B13" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C13" t="str">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14">
@@ -536,54 +536,54 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Sam Curran</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B15" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C15" t="str">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Harshal Patel</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B16" t="str">
         <v>PBKS</v>
       </c>
       <c r="C16" t="str">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sanju Samson</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B17" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C17" t="str">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shivam Dube</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B18" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C18" t="str">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B19" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C19" t="str">
         <v>335</v>
@@ -591,167 +591,167 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B20" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C20" t="str">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B21" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C21" t="str">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B22" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C22" t="str">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Shashank Singh</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B23" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C23" t="str">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Pat Cummins</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B24" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C24" t="str">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B25" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C25" t="str">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ishan Kishan</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B26" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C26" t="str">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B27" t="str">
         <v>MI</v>
       </c>
       <c r="C27" t="str">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Virat Kohli</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B28" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C28" t="str">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Jos Buttler</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B29" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C29" t="str">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Will Jacks</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B30" t="str">
         <v>RCB</v>
       </c>
       <c r="C30" t="str">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B31" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C31" t="str">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Rohit Sharma</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B32" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C32" t="str">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Faf du Plessis</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B33" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C33" t="str">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B34" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C34" t="str">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -762,7 +762,7 @@
         <v>MI</v>
       </c>
       <c r="C35" t="str">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
@@ -778,79 +778,79 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Avesh Khan</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B37" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C37" t="str">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B38" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C38" t="str">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Rajat Patidar</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B39" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C39" t="str">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B40" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C40" t="str">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Hardik Pandya</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B41" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C41" t="str">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B42" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C42" t="str">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B43" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C43" t="str">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44">
@@ -866,13 +866,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B45" t="str">
         <v>SRH</v>
       </c>
       <c r="C45" t="str">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46">
@@ -888,43 +888,43 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Andre Russell</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B47" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B48" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C48" t="str">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B49" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C49" t="str">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B50" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C50" t="str">
         <v>215</v>
@@ -932,43 +932,43 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B51" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C51" t="str">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B52" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C52" t="str">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B53" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C53" t="str">
-        <v>203</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Abdul Samad</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B54" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C54" t="str">
         <v>203</v>
@@ -976,167 +976,167 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B55" t="str">
         <v>SRH</v>
       </c>
       <c r="C55" t="str">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Rashid Khan</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B56" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C56" t="str">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Shubman Gill</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B57" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C57" t="str">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Cameron Green</v>
+        <v>Tim David</v>
       </c>
       <c r="B58" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C58" t="str">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B59" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C59" t="str">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Trent Boult</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B60" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C60" t="str">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B61" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C61" t="str">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B62" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C62" t="str">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Tim David</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B63" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C63" t="str">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Harshit Rana</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B64" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C64" t="str">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rasikh Dar</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B65" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C65" t="str">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B66" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C66" t="str">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Simran Singh</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B67" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C67" t="str">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B68" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C68" t="str">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B69" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C69" t="str">
-        <v>174</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70">
@@ -1152,164 +1152,164 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Harpreet Brar</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B71" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C71" t="str">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B72" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C72" t="str">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B73" t="str">
         <v>DC</v>
       </c>
       <c r="C73" t="str">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Shai Hope</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B74" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Abhishek Porel</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B75" t="str">
         <v>DC</v>
       </c>
       <c r="C75" t="str">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B76" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C76" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B77" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C77" t="str">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mitchell Starc</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B78" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C78" t="str">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B79" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C79" t="str">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Liam Livingstone</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B80" t="str">
         <v>PBKS</v>
       </c>
       <c r="C80" t="str">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B81" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C81" t="str">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Deepak Hooda</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C82" t="str">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B83" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C83" t="str">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Sai Kishore</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B84" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C84" t="str">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B85" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C85" t="str">
         <v>144</v>
@@ -1317,68 +1317,68 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>MS Dhoni</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B86" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C86" t="str">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B87" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C87" t="str">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B88" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C88" t="str">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mayank Markande</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B89" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C89" t="str">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B90" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C90" t="str">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B91" t="str">
         <v>RR</v>
       </c>
       <c r="C91" t="str">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
@@ -1394,46 +1394,46 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Rovman Powell</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B93" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C93" t="str">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B94" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C94" t="str">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B95" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C95" t="str">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B96" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C96" t="str">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
@@ -1449,211 +1449,211 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Yash Thakur</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B98" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C98" t="str">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Krunal Pandya</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B99" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C99" t="str">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Rinku Singh</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B100" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B101" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C101" t="str">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Rahul Chahar</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B102" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C102" t="str">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B103" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C103" t="str">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Swapnil Singh</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B104" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C104" t="str">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B105" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C105" t="str">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Ishant Sharma</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B106" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C106" t="str">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohit Sharma</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B107" t="str">
         <v>GT</v>
       </c>
       <c r="C107" t="str">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B108" t="str">
         <v>GT</v>
       </c>
       <c r="C108" t="str">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Shardul Thakur</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B109" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C109" t="str">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B110" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C110" t="str">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Noor Ahmad</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B111" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C111" t="str">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Karn Sharma</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B112" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C112" t="str">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Piyush Chawla</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B113" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C113" t="str">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B114" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C114" t="str">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B115" t="str">
         <v>RCB</v>
       </c>
       <c r="C115" t="str">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B116" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C116" t="str">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117">
@@ -1669,13 +1669,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Yash Dayal</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B118" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C118" t="str">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119">
@@ -1702,101 +1702,101 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B121" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C121" t="str">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Deepak Chahar</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B122" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C122" t="str">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B123" t="str">
         <v>CSK</v>
       </c>
       <c r="C123" t="str">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Mayank Yadav</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B124" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C124" t="str">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Anuj Rawat</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B125" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C125" t="str">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B126" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Sikandar Raza</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B127" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C127" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B128" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C128" t="str">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B129" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C129" t="str">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130">
@@ -1812,13 +1812,13 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Moeen Ali</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B131" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C131" t="str">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132">
@@ -1834,21 +1834,21 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Vijay Shankar</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B133" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C133" t="str">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Matt Henry</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B134" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C134" t="str">
         <v>35</v>
@@ -1867,21 +1867,21 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>David Warner</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B136" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C136" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>David Warner</v>
       </c>
       <c r="B137" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C137" t="str">
         <v>34</v>
@@ -1889,32 +1889,32 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Anrich Nortje</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B138" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C138" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B139" t="str">
         <v>RCB</v>
       </c>
       <c r="C139" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B140" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C140" t="str">
         <v>32</v>
@@ -1922,46 +1922,46 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B141" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C141" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Luke Wood</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B142" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C142" t="str">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Reece Topley</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B143" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C143" t="str">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Richard Gleeson</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B144" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C144" t="str">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -1977,90 +1977,90 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Akash Deep</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B146" t="str">
         <v>RCB</v>
       </c>
       <c r="C146" t="str">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Marco Jansen</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B147" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Amit Mishra</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B148" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C148" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Lizaad Williams</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B149" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C149" t="str">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Umesh Yadav</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B150" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C150" t="str">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Washington Sundar</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B151" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C151" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B152" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C152" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Atharva Taide</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B153" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C153" t="str">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -2087,24 +2087,24 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B156" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C156" t="str">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B157" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C157" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -2120,76 +2120,76 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B159" t="str">
         <v>DC</v>
       </c>
       <c r="C159" t="str">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Anukul Roy</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B160" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C160" t="str">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Naman Dhir</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B161" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C161" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Romario Shepherd</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C162" t="str">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B163" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C163" t="str">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B164" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C164" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B165" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C165" t="str">
         <v>0</v>
@@ -2197,13 +2197,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B166" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C166" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -2219,32 +2219,32 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Chris Woakes</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B168" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C168" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Nathan Ellis</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B169" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C169" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Navdeep Saini</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B170" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B171" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C171" t="str">
         <v>0</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B172" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B173" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Mitchell Santner</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B175" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,21 +2307,21 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Lalit Yadav</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B176" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C176" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Kyle Mayers</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B177" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Manish Pandey</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B178" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Yash Dhull</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B179" t="str">
         <v>DC</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Kane Williamson</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B180" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B181" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B182" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Manav Suthar</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B184" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B185" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Jhye Richardson</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B186" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B187" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Praveen Dubey</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B188" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B189" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Umran Malik</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B190" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B191" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B193" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Shamar Joseph</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B194" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B195" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B196" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B204" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B206" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Ajay Mandal</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B207" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Prerak Mankad</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B209" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B210" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B211" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B212" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>BR sharath</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B213" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Shams Mulani</v>
+        <v>BR sharath</v>
       </c>
       <c r="B214" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B216" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Joshua Little</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B217" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Sanvir Singh</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B218" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B219" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B221" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Jayant Yadav</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B239" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Upendra Yadav</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B242" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Nandre Burger</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B245" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C245" t="str">
         <v>0</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B246" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C246" t="str">
         <v>0</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,7 +399,7 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>649</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3">
@@ -415,35 +415,35 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KL Rahul</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B4" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C4" t="str">
-        <v>473</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Philip Salt</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B5" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C5" t="str">
-        <v>501</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rishabh Pant</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B6" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>440</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
@@ -503,79 +503,79 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>T Natarajan</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B12" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C12" t="str">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Tilak Varma</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B13" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C13" t="str">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Riyan Parag</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B14" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C14" t="str">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Shivam Dube</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B15" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C15" t="str">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Sam Curran</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B16" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C16" t="str">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B17" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C17" t="str">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Axar Patel</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B18" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C18" t="str">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19">
@@ -597,18 +597,18 @@
         <v>KKR</v>
       </c>
       <c r="C20" t="str">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Hardik Pandya</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B21" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C21" t="str">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22">
@@ -624,13 +624,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B23" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C23" t="str">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24">
@@ -646,57 +646,57 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Will Jacks</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B25" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C25" t="str">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Shashank Singh</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B26" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C26" t="str">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Rohit Sharma</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B27" t="str">
         <v>MI</v>
       </c>
       <c r="C27" t="str">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Ishan Kishan</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B28" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C28" t="str">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B29" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C29" t="str">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -712,117 +712,117 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Virat Kohli</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B31" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C31" t="str">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Pat Cummins</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B32" t="str">
         <v>SRH</v>
       </c>
       <c r="C32" t="str">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Jos Buttler</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B33" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C33" t="str">
-        <v>279</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B34" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C34" t="str">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B35" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C35" t="str">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B36" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C36" t="str">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B37" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C37" t="str">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B38" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C38" t="str">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B39" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C39" t="str">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B40" t="str">
         <v>CSK</v>
       </c>
       <c r="C40" t="str">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Rajat Patidar</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B41" t="str">
         <v>RCB</v>
@@ -833,57 +833,57 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Avesh Khan</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B42" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C42" t="str">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B43" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C43" t="str">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B44" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C44" t="str">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B45" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C45" t="str">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B46" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C46" t="str">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
@@ -899,35 +899,35 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B48" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C48" t="str">
-        <v>226</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B49" t="str">
         <v>KKR</v>
       </c>
       <c r="C49" t="str">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rashid Khan</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B50" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C50" t="str">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51">
@@ -943,131 +943,131 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B52" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C52" t="str">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Andre Russell</v>
+        <v>Tim David</v>
       </c>
       <c r="B53" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C53" t="str">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B54" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C54" t="str">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Abdul Samad</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B55" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C55" t="str">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B56" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C56" t="str">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Simran Singh</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B57" t="str">
         <v>PBKS</v>
       </c>
       <c r="C57" t="str">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Tim David</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B58" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C58" t="str">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B59" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C59" t="str">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Cameron Green</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B60" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C60" t="str">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shubman Gill</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B61" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C61" t="str">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Trent Boult</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B62" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C62" t="str">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B63" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C63" t="str">
         <v>192</v>
@@ -1075,46 +1075,46 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rasikh Dar</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B64" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C64" t="str">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B65" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C65" t="str">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Sai Kishore</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B66" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C66" t="str">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B67" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C67" t="str">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68">
@@ -1130,73 +1130,73 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B69" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C69" t="str">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Ayush Badoni</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B70" t="str">
         <v>LSG</v>
       </c>
       <c r="C70" t="str">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B71" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B72" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C72" t="str">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Abhishek Porel</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B73" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C73" t="str">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Harpreet Brar</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B74" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C74" t="str">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B75" t="str">
         <v>DC</v>
@@ -1207,32 +1207,32 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shai Hope</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B76" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C76" t="str">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Deepak Hooda</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B77" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C77" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B78" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C78" t="str">
         <v>163</v>
@@ -1240,43 +1240,43 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B79" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C79" t="str">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B80" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C80" t="str">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mitchell Starc</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B81" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C81" t="str">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B82" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C82" t="str">
         <v>154</v>
@@ -1295,90 +1295,90 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B84" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C84" t="str">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>MS Dhoni</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B85" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C85" t="str">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B86" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C86" t="str">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Quinton de Kock</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B87" t="str">
         <v>LSG</v>
       </c>
       <c r="C87" t="str">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Rilee Rossouw</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B88" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C88" t="str">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Liam Livingstone</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B89" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C89" t="str">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mayank Markande</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B90" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C90" t="str">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Rovman Powell</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B91" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C91" t="str">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92">
@@ -1394,178 +1394,178 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B93" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C93" t="str">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B94" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C94" t="str">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B95" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C95" t="str">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B96" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C96" t="str">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Aiden Markram</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B97" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C97" t="str">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Rinku Singh</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B98" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C98" t="str">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B99" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C99" t="str">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Yash Thakur</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B100" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C100" t="str">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Noor Ahmad</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B101" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C101" t="str">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Karn Sharma</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B102" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C102" t="str">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Krunal Pandya</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B103" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C103" t="str">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B104" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C104" t="str">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Rahul Chahar</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B105" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C105" t="str">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Piyush Chawla</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B106" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C106" t="str">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B107" t="str">
         <v>GT</v>
       </c>
       <c r="C107" t="str">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B108" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C108" t="str">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
@@ -1603,7 +1603,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Mohit Sharma</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B112" t="str">
         <v>GT</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B113" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114">
@@ -1636,134 +1636,134 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B115" t="str">
         <v>RCB</v>
       </c>
       <c r="C115" t="str">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B116" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C116" t="str">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B117" t="str">
         <v>RCB</v>
       </c>
       <c r="C117" t="str">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B118" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C118" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B119" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C119" t="str">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Akash Madhwal</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B120" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C120" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Manish Pandey</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B121" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B122" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C122" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Deepak Chahar</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B123" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C123" t="str">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Shardul Thakur</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B124" t="str">
         <v>CSK</v>
       </c>
       <c r="C124" t="str">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B125" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C125" t="str">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Yash Dayal</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B126" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C126" t="str">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127">
@@ -1779,32 +1779,32 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B128" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C128" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Sikandar Raza</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B129" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C129" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Spencer Johnson</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B130" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C130" t="str">
         <v>38</v>
@@ -1812,35 +1812,35 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Harpreet Singh</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B131" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C131" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Arshad Khan</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B132" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C132" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Anuj Rawat</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B133" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C133" t="str">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134">
@@ -1911,51 +1911,51 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Lizaad Williams</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B140" t="str">
         <v>DC</v>
       </c>
       <c r="C140" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B141" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C141" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B142" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C142" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Richard Gleeson</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B143" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C143" t="str">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Reece Topley</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B144" t="str">
         <v>RCB</v>
@@ -1966,35 +1966,35 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B145" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C145" t="str">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B146" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C146" t="str">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Anrich Nortje</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C147" t="str">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
@@ -2010,208 +2010,208 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Akash Deep</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B149" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C149" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B150" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C150" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B151" t="str">
         <v>GT</v>
       </c>
       <c r="C151" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Atharva Taide</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B152" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C152" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B153" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C153" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Matthew Wade</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B154" t="str">
         <v>GT</v>
       </c>
       <c r="C154" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B155" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C155" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B156" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C156" t="str">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B157" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C157" t="str">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Ashton Turner</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B158" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C158" t="str">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Lalit Yadav</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B159" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C159" t="str">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Amit Mishra</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B160" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C160" t="str">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Anukul Roy</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B161" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C161" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Washington Sundar</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B162" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C162" t="str">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Umesh Yadav</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B163" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C163" t="str">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Naman Dhir</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B164" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C164" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B165" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C165" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Kane Williamson</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B166" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C166" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B167" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C167" t="str">
         <v>0</v>
@@ -2219,32 +2219,32 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Romario Shepherd</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B168" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C168" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B169" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C169" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Chris Woakes</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B170" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Nathan Ellis</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B171" t="str">
         <v>PBKS</v>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B172" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Fazal Haque</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B174" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B176" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B177" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B179" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B185" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Manav Suthar</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B186" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B187" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B188" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Jhye Richardson</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B189" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B190" t="str">
         <v>MI</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Praveen Dubey</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B191" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Dewald Brevis</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B192" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B193" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B194" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Shamar Joseph</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B195" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Simarjeet Singh</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B196" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B197" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>M Siddharth</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B198" t="str">
         <v>LSG</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B199" t="str">
         <v>RR</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>SK Rasheed</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B201" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Mayank Dagar</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B203" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B204" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B205" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B206" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B207" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B209" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B210" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B211" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Shams Mulani</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B212" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Manoj Bhandage</v>
+        <v>BR sharath</v>
       </c>
       <c r="B213" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>BR sharath</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B214" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B215" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Prerak Mankad</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B216" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Sanvir Singh</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B217" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Prince Choudhary</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B220" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Harvik Desai</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B225" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B226" t="str">
         <v>PBKS</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B227" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B228" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Akash Singh</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B229" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Sakib Hussain</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B230" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B231" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajan Kumar</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B232" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B233" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B234" t="str">
         <v>RCB</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Shivam Singh</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B235" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B236" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B240" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Srikar Bharat</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B241" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Nandre Burger</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Shubham Dubey</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B243" t="str">
         <v>RR</v>
@@ -3055,32 +3055,32 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Suyash Sharma</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B245" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B246" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C246" t="str">
         <v>0</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -426,24 +426,24 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rishabh Pant</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B5" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C5" t="str">
-        <v>440</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KL Rahul</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B6" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C6" t="str">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
@@ -465,29 +465,29 @@
         <v>MI</v>
       </c>
       <c r="C8" t="str">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Nithish Reddy</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B9" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C9" t="str">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B10" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C10" t="str">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11">
@@ -503,13 +503,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Tilak Varma</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B12" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C12" t="str">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
@@ -536,68 +536,68 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Riyan Parag</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B15" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C15" t="str">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shivam Dube</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B16" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C16" t="str">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B17" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Sam Curran</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B18" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C18" t="str">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Harshal Patel</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B19" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C19" t="str">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B20" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C20" t="str">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21">
@@ -613,101 +613,101 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B22" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C22" t="str">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Hardik Pandya</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B23" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C23" t="str">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Sanju Samson</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B24" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C24" t="str">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Rohit Sharma</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B25" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C25" t="str">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B26" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C26" t="str">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Ishan Kishan</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B27" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C27" t="str">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Pat Cummins</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B28" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C28" t="str">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Andre Russell</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B29" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C29" t="str">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Faf du Plessis</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B30" t="str">
         <v>RCB</v>
       </c>
       <c r="C30" t="str">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31">
@@ -734,24 +734,24 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Will Jacks</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B33" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C33" t="str">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Virat Kohli</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B34" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C34" t="str">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
@@ -778,90 +778,90 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B37" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C37" t="str">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B38" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C38" t="str">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Avesh Khan</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B39" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C39" t="str">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B40" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C40" t="str">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B41" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C41" t="str">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B42" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C42" t="str">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B43" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C43" t="str">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B44" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C44" t="str">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45">
@@ -888,142 +888,142 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B47" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C47" t="str">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Rajat Patidar</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B48" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C48" t="str">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Mitchell Starc</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B49" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C49" t="str">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B50" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C50" t="str">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B51" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C51" t="str">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B52" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C52" t="str">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Tim David</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B53" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C53" t="str">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B54" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C54" t="str">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rashid Khan</v>
+        <v>Tim David</v>
       </c>
       <c r="B55" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C55" t="str">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B56" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C56" t="str">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B57" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C57" t="str">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B58" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C58" t="str">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Abdul Samad</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B59" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C59" t="str">
         <v>203</v>
@@ -1031,35 +1031,35 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Simran Singh</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B60" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C60" t="str">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>David Miller</v>
       </c>
       <c r="B61" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C61" t="str">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B62" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C62" t="str">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63">
@@ -1070,125 +1070,125 @@
         <v>GT</v>
       </c>
       <c r="C63" t="str">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Cameron Green</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B64" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C64" t="str">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B65" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C65" t="str">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Trent Boult</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B66" t="str">
         <v>RR</v>
       </c>
       <c r="C66" t="str">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Rasikh Dar</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B67" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C67" t="str">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Harshit Rana</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B68" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C68" t="str">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Sai Kishore</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B69" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C69" t="str">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mohsin Khan</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B70" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C70" t="str">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Abhishek Porel</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B71" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C71" t="str">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B72" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C72" t="str">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Harpreet Brar</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B73" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C73" t="str">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B74" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C74" t="str">
         <v>173</v>
@@ -1196,703 +1196,703 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shai Hope</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B75" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C75" t="str">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Deepak Hooda</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B76" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C76" t="str">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B77" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C77" t="str">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B78" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C78" t="str">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B79" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C79" t="str">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B80" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C80" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B81" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C81" t="str">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Liam Livingstone</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B82" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B83" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C83" t="str">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B84" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C84" t="str">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B85" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C85" t="str">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B86" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C86" t="str">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B87" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C87" t="str">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>MS Dhoni</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B88" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C88" t="str">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Ayush Badoni</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B89" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C89" t="str">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Quinton de Kock</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B90" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C90" t="str">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mayank Markande</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B91" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C91" t="str">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>David Miller</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B92" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C92" t="str">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Rovman Powell</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B93" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C93" t="str">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B94" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C94" t="str">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B95" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C95" t="str">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B96" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C96" t="str">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B97" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C97" t="str">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Piyush Chawla</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B98" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C98" t="str">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Aiden Markram</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B99" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C99" t="str">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Rinku Singh</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B100" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C100" t="str">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B101" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C101" t="str">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Yash Thakur</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B102" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C102" t="str">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Noor Ahmad</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B103" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C103" t="str">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Krunal Pandya</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B104" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C104" t="str">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B105" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C105" t="str">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Rahul Chahar</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B106" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C106" t="str">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B107" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C107" t="str">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Karn Sharma</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B108" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C108" t="str">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Swapnil Singh</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B109" t="str">
         <v>RCB</v>
       </c>
       <c r="C109" t="str">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B110" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C110" t="str">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B111" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C111" t="str">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B112" t="str">
         <v>GT</v>
       </c>
       <c r="C112" t="str">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Shardul Thakur</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C113" t="str">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Moeen Ali</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B114" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C114" t="str">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Yash Dayal</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B115" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mohit Sharma</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B116" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C116" t="str">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B117" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C117" t="str">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B118" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C118" t="str">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B119" t="str">
         <v>CSK</v>
       </c>
       <c r="C119" t="str">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B120" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C120" t="str">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C121" t="str">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Akash Madhwal</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B122" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Manish Pandey</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B123" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C123" t="str">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B124" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C124" t="str">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B125" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C125" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Deepak Chahar</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B126" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C126" t="str">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mayank Yadav</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B127" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C127" t="str">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Anuj Rawat</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B128" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C128" t="str">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B129" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C129" t="str">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Sikandar Raza</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B130" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C130" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Spencer Johnson</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B131" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C131" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Harpreet Singh</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B132" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C132" t="str">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Arshad Khan</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B133" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C133" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Vijay Shankar</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B134" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C134" t="str">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Sumit Kumar</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B135" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C135" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Matt Henry</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B136" t="str">
         <v>LSG</v>
       </c>
       <c r="C136" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>David Warner</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B137" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C137" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Luke Wood</v>
+        <v>David Warner</v>
       </c>
       <c r="B138" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C138" t="str">
         <v>34</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B139" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C139" t="str">
         <v>34</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B144" t="str">
         <v>RCB</v>
@@ -1966,35 +1966,35 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Reece Topley</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B145" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C145" t="str">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Richard Gleeson</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B146" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C146" t="str">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B147" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
@@ -2010,21 +2010,21 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Amit Mishra</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B149" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C149" t="str">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Akash Deep</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B150" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C150" t="str">
         <v>25</v>
@@ -2032,79 +2032,79 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Umesh Yadav</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B151" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C151" t="str">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Washington Sundar</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B152" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C152" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B153" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C153" t="str">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B154" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C154" t="str">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Atharva Taide</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B155" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C155" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Naman Dhir</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B156" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C156" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B157" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C157" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
@@ -2131,35 +2131,35 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B160" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C160" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B161" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C161" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Ashton Turner</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B162" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163">
@@ -2175,13 +2175,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Anukul Roy</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B164" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C164" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
@@ -2219,13 +2219,13 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B168" t="str">
         <v>KKR</v>
       </c>
       <c r="C168" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B170" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Nitish Rana</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B183" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B184" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Jhye Richardson</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B185" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B186" t="str">
         <v>MI</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B187" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B189" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B191" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B192" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B193" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Manav Suthar</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B194" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B195" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>M Siddharth</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B196" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B197" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Shamar Joseph</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B198" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B199" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Glenn Phillips</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B200" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B201" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Swastik Chikara</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B202" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B203" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B204" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>SK Rasheed</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B205" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Mayank Dagar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B206" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Ajay Mandal</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B207" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B208" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B209" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B210" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B212" t="str">
         <v>CSK</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>BR sharath</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B213" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B215" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B216" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Shams Mulani</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B217" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Jayant Yadav</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B218" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Joshua Little</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B219" t="str">
         <v>GT</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Sanvir Singh</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B220" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B221" t="str">
         <v>PBKS</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B222" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Tom Curran</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B224" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Prashant Solanki</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B225" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Prince Choudhary</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B226" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Harvik Desai</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B227" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B228" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B229" t="str">
         <v>KKR</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B230" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Akash Singh</v>
+        <v>BR sharath</v>
       </c>
       <c r="B231" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Sakib Hussain</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B232" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B233" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Rajan Kumar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B234" t="str">
         <v>RCB</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B235" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B236" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B237" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B238" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Upendra Yadav</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B239" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B241" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Shivam Singh</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B242" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Nandre Burger</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B243" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Shubham Dubey</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B244" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C244" t="str">
         <v>0</v>
@@ -3066,24 +3066,24 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B245" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B246" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C246" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="247">

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -410,7 +410,7 @@
         <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>597</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4">
@@ -437,255 +437,255 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rishabh Pant</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B6" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C6" t="str">
-        <v>440</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Travis Head</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B7" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C7" t="str">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Travis Head</v>
       </c>
       <c r="B8" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C8" t="str">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B9" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C9" t="str">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Nithish Reddy</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B10" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C10" t="str">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B11" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C11" t="str">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Faf du Plessis</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B12" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C12" t="str">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>T Natarajan</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B13" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C13" t="str">
-        <v>359</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Axar Patel</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B14" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C14" t="str">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B15" t="str">
         <v>MI</v>
       </c>
       <c r="C15" t="str">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Sam Curran</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B16" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C16" t="str">
-        <v>343</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Riyan Parag</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B17" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C17" t="str">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B18" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C18" t="str">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Shivam Dube</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B19" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C19" t="str">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Virat Kohli</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B20" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C20" t="str">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B21" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C21" t="str">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Sanju Samson</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B22" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C22" t="str">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Harshal Patel</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B23" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C23" t="str">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Tilak Varma</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B24" t="str">
         <v>MI</v>
       </c>
       <c r="C24" t="str">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B25" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C25" t="str">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Hardik Pandya</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B26" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C26" t="str">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B27" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C27" t="str">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Rohit Sharma</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B28" t="str">
         <v>MI</v>
       </c>
       <c r="C28" t="str">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29">
@@ -701,189 +701,189 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Will Jacks</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B30" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C30" t="str">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Shashank Singh</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B31" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C31" t="str">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B32" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C32" t="str">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Andre Russell</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B33" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C33" t="str">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mitchell Starc</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B34" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C34" t="str">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Jos Buttler</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B35" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C35" t="str">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B36" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C36" t="str">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rajat Patidar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B37" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C37" t="str">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B38" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C38" t="str">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Ishan Kishan</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B39" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C39" t="str">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Pat Cummins</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B40" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C40" t="str">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Avesh Khan</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B41" t="str">
         <v>RR</v>
       </c>
       <c r="C41" t="str">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B42" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C42" t="str">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B43" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C43" t="str">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B44" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C44" t="str">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B45" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C45" t="str">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B46" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C46" t="str">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47">
@@ -899,274 +899,274 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B48" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C48" t="str">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B49" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C49" t="str">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rashid Khan</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B50" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C50" t="str">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B51" t="str">
         <v>GT</v>
       </c>
       <c r="C51" t="str">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B52" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C52" t="str">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B53" t="str">
         <v>PBKS</v>
       </c>
       <c r="C53" t="str">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B54" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C54" t="str">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Tim David</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B55" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C55" t="str">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Cameron Green</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B56" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C56" t="str">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B57" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C57" t="str">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Tim David</v>
       </c>
       <c r="B58" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C58" t="str">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B59" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C59" t="str">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Abdul Samad</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B60" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C60" t="str">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>David Miller</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B61" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C61" t="str">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B62" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C62" t="str">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Shubman Gill</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B63" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C63" t="str">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Kagiso Rabada</v>
+        <v>David Miller</v>
       </c>
       <c r="B64" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C64" t="str">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Simran Singh</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B65" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C65" t="str">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B66" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C66" t="str">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Trent Boult</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B67" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C67" t="str">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B68" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C68" t="str">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Rasikh Dar</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B69" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C69" t="str">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B70" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C70" t="str">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Harshit Rana</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B71" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Sai Kishore</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B72" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C72" t="str">
         <v>184</v>
@@ -1174,131 +1174,131 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Ayush Badoni</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B73" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C73" t="str">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Abhishek Porel</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B74" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B75" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C75" t="str">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Noor Ahmad</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B76" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C76" t="str">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Harpreet Brar</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B77" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C77" t="str">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B78" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C78" t="str">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Shai Hope</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B79" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C79" t="str">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B80" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C80" t="str">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mohsin Khan</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B81" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C81" t="str">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Deepak Hooda</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C82" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B83" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C83" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B84" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C84" t="str">
         <v>163</v>
@@ -1306,343 +1306,343 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B85" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C85" t="str">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Yash Dayal</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B86" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C86" t="str">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Liam Livingstone</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B87" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C87" t="str">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B88" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C88" t="str">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B89" t="str">
         <v>RR</v>
       </c>
       <c r="C89" t="str">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B90" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C90" t="str">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B91" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C91" t="str">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B92" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C92" t="str">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MS Dhoni</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B93" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C93" t="str">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B94" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C94" t="str">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B95" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C95" t="str">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Karn Sharma</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B96" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C96" t="str">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Mayank Markande</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B97" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C97" t="str">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Rovman Powell</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B98" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C98" t="str">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B99" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C99" t="str">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B100" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C100" t="str">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Aiden Markram</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B101" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C101" t="str">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Swapnil Singh</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B102" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C102" t="str">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B103" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C103" t="str">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Piyush Chawla</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B104" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C104" t="str">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Rinku Singh</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B105" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C105" t="str">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B106" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C106" t="str">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Yash Thakur</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B107" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C107" t="str">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B108" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C108" t="str">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B109" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C109" t="str">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Krunal Pandya</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B110" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C110" t="str">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B111" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C111" t="str">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Joshua Little</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B112" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C112" t="str">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Rahul Chahar</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B113" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B114" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C114" t="str">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B115" t="str">
         <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116">
@@ -1658,35 +1658,35 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Mohit Sharma</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B117" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C117" t="str">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Moeen Ali</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B118" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C118" t="str">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Shardul Thakur</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B119" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C119" t="str">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120">
@@ -1735,35 +1735,35 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B124" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C124" t="str">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Akash Madhwal</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B125" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C125" t="str">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B126" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C126" t="str">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127">
@@ -1790,35 +1790,35 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B129" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C129" t="str">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B130" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C130" t="str">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Mayank Yadav</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B131" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C131" t="str">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132">
@@ -1834,277 +1834,277 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Sikandar Raza</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B133" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C133" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B134" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C134" t="str">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Spencer Johnson</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B135" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C135" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Arshad Khan</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B136" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C136" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Matt Henry</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B137" t="str">
         <v>LSG</v>
       </c>
       <c r="C137" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>David Warner</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B138" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C138" t="str">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Luke Wood</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B139" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C139" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Anrich Nortje</v>
+        <v>David Warner</v>
       </c>
       <c r="B140" t="str">
         <v>DC</v>
       </c>
       <c r="C140" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B141" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C141" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Lizaad Williams</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B142" t="str">
         <v>DC</v>
       </c>
       <c r="C142" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B143" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C143" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Reece Topley</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B144" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C144" t="str">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Richard Gleeson</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B145" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C145" t="str">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B146" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C146" t="str">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Sumit Kumar</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C147" t="str">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Marco Jansen</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B148" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C148" t="str">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Akash Deep</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B149" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C149" t="str">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Umesh Yadav</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B150" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C150" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Washington Sundar</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B151" t="str">
         <v>SRH</v>
       </c>
       <c r="C151" t="str">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B152" t="str">
         <v>LSG</v>
       </c>
       <c r="C152" t="str">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Harpreet Singh</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B153" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C153" t="str">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Amit Mishra</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B154" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C154" t="str">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B155" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C155" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B156" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C156" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Atharva Taide</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B157" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C157" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
@@ -2120,46 +2120,46 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B159" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C159" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B160" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C160" t="str">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B161" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C161" t="str">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Naman Dhir</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C162" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Ashton Turner</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B164" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C164" t="str">
         <v>9</v>
@@ -2186,21 +2186,21 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Romario Shepherd</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B165" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C165" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B166" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C166" t="str">
         <v>2</v>
@@ -2208,32 +2208,32 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B167" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C167" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Anukul Roy</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B168" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C168" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Kane Williamson</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B169" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B170" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,32 +2252,32 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Chris Woakes</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B171" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C171" t="str">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Nathan Ellis</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B172" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C172" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Navdeep Saini</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B173" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B174" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B175" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B176" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Fazal Haque</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B177" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Mitchell Santner</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B178" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B179" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Kyle Mayers</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B180" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Yash Dhull</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B181" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Umran Malik</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B182" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B183" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Nitish Rana</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B184" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B185" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Praveen Dubey</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B188" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B189" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Dewald Brevis</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B190" t="str">
         <v>MI</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B191" t="str">
         <v>MI</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Shamar Joseph</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B192" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B193" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B194" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B195" t="str">
         <v>RR</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B196" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>M Siddharth</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B197" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B198" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Glenn Phillips</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B199" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Jhye Richardson</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B200" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Swastik Chikara</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B201" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Mayank Dagar</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B202" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B203" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>SK Rasheed</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B204" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B205" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B206" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Anshul Kamboj</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B207" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B208" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B209" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Prerak Mankad</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B211" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B212" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Shams Mulani</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B213" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Prashant Solanki</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B215" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Sanvir Singh</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B218" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Jayant Yadav</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B219" t="str">
         <v>GT</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B220" t="str">
         <v>PBKS</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Prince Choudhary</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B221" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Harvik Desai</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B222" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B223" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B224" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B225" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B226" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B227" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Tom Curran</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B228" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Sakib Hussain</v>
+        <v>BR sharath</v>
       </c>
       <c r="B229" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B230" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>BR sharath</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B231" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajan Kumar</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B232" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B233" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B234" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B235" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B237" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B238" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B239" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Nandre Burger</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B241" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Shubham Dubey</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Upendra Yadav</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B243" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B244" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C244" t="str">
         <v>0</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,29 +399,29 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>727</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B3" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C3" t="str">
-        <v>647</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Philip Salt</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B4" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C4" t="str">
-        <v>509</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5">
@@ -432,18 +432,18 @@
         <v>LSG</v>
       </c>
       <c r="C5" t="str">
-        <v>473</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Harshal Patel</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B6" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7">
@@ -459,90 +459,90 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Travis Head</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B8" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C8" t="str">
-        <v>423</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Travis Head</v>
       </c>
       <c r="B9" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C9" t="str">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B10" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C10" t="str">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Nithish Reddy</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B11" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C11" t="str">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B12" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C12" t="str">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B13" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C13" t="str">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Sam Curran</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B14" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C14" t="str">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Tilak Varma</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B15" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C15" t="str">
-        <v>362</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16">
@@ -558,90 +558,90 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>T Natarajan</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B17" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C17" t="str">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Virat Kohli</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B18" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C18" t="str">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Axar Patel</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B19" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C19" t="str">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Shivam Dube</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B20" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C20" t="str">
-        <v>340</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Shashank Singh</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B21" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C21" t="str">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B22" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C22" t="str">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Riyan Parag</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B23" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C23" t="str">
-        <v>340</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B24" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C24" t="str">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25">
@@ -657,73 +657,73 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B26" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C26" t="str">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Sanju Samson</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B27" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C27" t="str">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Hardik Pandya</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B28" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C28" t="str">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B29" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C29" t="str">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Rohit Sharma</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B30" t="str">
         <v>MI</v>
       </c>
       <c r="C30" t="str">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Will Jacks</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B31" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C31" t="str">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B32" t="str">
         <v>RCB</v>
@@ -734,68 +734,68 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Pat Cummins</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B33" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C33" t="str">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B34" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C34" t="str">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B35" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C35" t="str">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B36" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C36" t="str">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ishan Kishan</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B37" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C37" t="str">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Andre Russell</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B38" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C38" t="str">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39">
@@ -811,13 +811,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mitchell Starc</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B40" t="str">
         <v>KKR</v>
       </c>
       <c r="C40" t="str">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
@@ -833,32 +833,32 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B42" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C42" t="str">
-        <v>279</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B43" t="str">
         <v>CSK</v>
       </c>
       <c r="C43" t="str">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Avesh Khan</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B44" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C44" t="str">
         <v>273</v>
@@ -866,24 +866,24 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B45" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C45" t="str">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B46" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C46" t="str">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47">
@@ -894,89 +894,89 @@
         <v>KKR</v>
       </c>
       <c r="C47" t="str">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B48" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C48" t="str">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Rajat Patidar</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B49" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C49" t="str">
-        <v>275</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B50" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C50" t="str">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rashid Khan</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B51" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C51" t="str">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B52" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C52" t="str">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Simran Singh</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B53" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C53" t="str">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B54" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C54" t="str">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B55" t="str">
         <v>PBKS</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B56" t="str">
         <v>PBKS</v>
@@ -1009,57 +1009,57 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Tim David</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B58" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C58" t="str">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B59" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C59" t="str">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Rahul Chahar</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B60" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C60" t="str">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B61" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C61" t="str">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B62" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C62" t="str">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63">
@@ -1119,222 +1119,222 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Harpreet Brar</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B68" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C68" t="str">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B69" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C69" t="str">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Tim David</v>
       </c>
       <c r="B70" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C70" t="str">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Rasikh Dar</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B71" t="str">
         <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>185</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Harshit Rana</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B72" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C72" t="str">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Sai Kishore</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B73" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C73" t="str">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B74" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C74" t="str">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Ayush Badoni</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B75" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C75" t="str">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Trent Boult</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B76" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C76" t="str">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B77" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C77" t="str">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Abhishek Porel</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B78" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C78" t="str">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B79" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C79" t="str">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B80" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C80" t="str">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Noor Ahmad</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B81" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C81" t="str">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B82" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Shai Hope</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B83" t="str">
         <v>DC</v>
       </c>
       <c r="C83" t="str">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B84" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C84" t="str">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Shardul Thakur</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B85" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C85" t="str">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Deepak Hooda</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B86" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C86" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B87" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C87" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88">
@@ -1350,10 +1350,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B89" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C89" t="str">
         <v>154</v>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Liam Livingstone</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B90" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C90" t="str">
         <v>154</v>
@@ -1372,145 +1372,145 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B91" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C91" t="str">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B92" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C92" t="str">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B93" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C93" t="str">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B94" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C94" t="str">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B95" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C95" t="str">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>MS Dhoni</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B96" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C96" t="str">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B97" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C97" t="str">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mayank Markande</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B98" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C98" t="str">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B99" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C99" t="str">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Rovman Powell</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B100" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Swapnil Singh</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B101" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C101" t="str">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B102" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C102" t="str">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B103" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C103" t="str">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
@@ -1526,142 +1526,142 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Piyush Chawla</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B105" t="str">
         <v>MI</v>
       </c>
       <c r="C105" t="str">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Aiden Markram</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B106" t="str">
         <v>SRH</v>
       </c>
       <c r="C106" t="str">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Rinku Singh</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B107" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C107" t="str">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B108" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C108" t="str">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Yash Thakur</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B109" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B110" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C110" t="str">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B111" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C111" t="str">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Krunal Pandya</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B112" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C112" t="str">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Moeen Ali</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C113" t="str">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B114" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C114" t="str">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Joshua Little</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B115" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C115" t="str">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B116" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C116" t="str">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B117" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C117" t="str">
         <v>97</v>
@@ -1669,112 +1669,112 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B118" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C118" t="str">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Mohit Sharma</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B119" t="str">
         <v>GT</v>
       </c>
       <c r="C119" t="str">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B120" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C120" t="str">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Manish Pandey</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B121" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B122" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C122" t="str">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B123" t="str">
         <v>CSK</v>
       </c>
       <c r="C123" t="str">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Akash Madhwal</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B124" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C124" t="str">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B125" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C125" t="str">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B126" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C126" t="str">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Deepak Chahar</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B127" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C127" t="str">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128">
@@ -1790,24 +1790,24 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B129" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C129" t="str">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B130" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C130" t="str">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
@@ -1856,13 +1856,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Mayank Yadav</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B135" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C135" t="str">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136">
@@ -1889,13 +1889,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B138" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C138" t="str">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Richard Gleeson</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B144" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C144" t="str">
         <v>33</v>
@@ -1966,57 +1966,57 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Lizaad Williams</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B145" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C145" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Sumit Kumar</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B146" t="str">
         <v>DC</v>
       </c>
       <c r="C146" t="str">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Reece Topley</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B147" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C147" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Spencer Johnson</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B148" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C148" t="str">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B149" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C149" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -2109,21 +2109,21 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Matthew Wade</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B158" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C158" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Naman Dhir</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B159" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C159" t="str">
         <v>17</v>
@@ -2131,32 +2131,32 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B160" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C160" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Atharva Taide</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B161" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C161" t="str">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B162" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C162" t="str">
         <v>16</v>
@@ -2164,32 +2164,32 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Lalit Yadav</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B163" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C163" t="str">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B164" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C164" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Ashton Turner</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B165" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C165" t="str">
         <v>9</v>
@@ -2197,43 +2197,43 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Romario Shepherd</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B166" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C166" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B167" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C167" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B168" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C168" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B169" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C169" t="str">
         <v>0</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B170" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C170" t="str">
         <v>0</v>
@@ -2252,24 +2252,24 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B171" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C171" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Anukul Roy</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B172" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C172" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Kane Williamson</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B174" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Nathan Ellis</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B177" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B178" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B179" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B180" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Fazal Haque</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B181" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Kyle Mayers</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B182" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Yash Dhull</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B183" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,24 +2395,24 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Umran Malik</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B184" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C184" t="str">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Nitish Rana</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B185" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C185" t="str">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186">
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B187" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B188" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Jhye Richardson</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B189" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B190" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B191" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Shamar Joseph</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B194" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B195" t="str">
         <v>RR</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B196" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B197" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Glenn Phillips</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B198" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Swastik Chikara</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B199" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>SK Rasheed</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B200" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Mayank Dagar</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B201" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B202" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B203" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B204" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Prerak Mankad</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B205" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Ajay Mandal</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B206" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>M Siddharth</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B207" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B208" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B209" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B210" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Shivalik Sharma</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B211" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Shams Mulani</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B212" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B213" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B214" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B216" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B217" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Jayant Yadav</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B218" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B219" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Prince Choudhary</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B220" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Sushant Mishra</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B222" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Prashant Solanki</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B223" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B224" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B226" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Tom Curran</v>
+        <v>BR sharath</v>
       </c>
       <c r="B227" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B228" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>BR sharath</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B229" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Sakib Hussain</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B230" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Akash Singh</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B232" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B233" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Ricky Bhui</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B234" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B235" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Shivam Singh</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B236" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B241" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B242" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,46 +3044,46 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Nandre Burger</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B243" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C243" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Shubham Dubey</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B244" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Manav Suthar</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B245" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C245" t="str">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Suyash Sharma</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B246" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C246" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -404,24 +404,24 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Philip Salt</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B3" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>578</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Philip Salt</v>
       </c>
       <c r="B4" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C4" t="str">
-        <v>647</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -437,35 +437,35 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B6" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C6" t="str">
-        <v>465</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rishabh Pant</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B7" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C7" t="str">
-        <v>440</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Harshal Patel</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B8" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C8" t="str">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9">
@@ -476,7 +476,7 @@
         <v>SRH</v>
       </c>
       <c r="C9" t="str">
-        <v>423</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10">
@@ -487,18 +487,18 @@
         <v>MI</v>
       </c>
       <c r="C10" t="str">
-        <v>417</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B11" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
@@ -509,29 +509,29 @@
         <v>SRH</v>
       </c>
       <c r="C12" t="str">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B13" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C13" t="str">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B14" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C14" t="str">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15">
@@ -547,142 +547,142 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Faf du Plessis</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B16" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C16" t="str">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Andre Russell</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B17" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>368</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B18" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C18" t="str">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>T Natarajan</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B19" t="str">
         <v>SRH</v>
       </c>
       <c r="C19" t="str">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Virat Kohli</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B20" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C20" t="str">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B21" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C21" t="str">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Axar Patel</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B22" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C22" t="str">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Tilak Varma</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B23" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C23" t="str">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Riyan Parag</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B24" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C24" t="str">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B25" t="str">
         <v>DC</v>
       </c>
       <c r="C25" t="str">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Sanju Samson</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B26" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C26" t="str">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Shashank Singh</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B27" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C27" t="str">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Shivam Dube</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B28" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C28" t="str">
         <v>340</v>
@@ -690,189 +690,189 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B29" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C29" t="str">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Hardik Pandya</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B30" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C30" t="str">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rohit Sharma</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B31" t="str">
         <v>MI</v>
       </c>
       <c r="C31" t="str">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Will Jacks</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B32" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C32" t="str">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mitchell Starc</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B33" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C33" t="str">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B34" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C34" t="str">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Dinesh Karthik</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B35" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C35" t="str">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ishan Kishan</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B36" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C36" t="str">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B37" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C37" t="str">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B38" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C38" t="str">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B39" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C39" t="str">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Harshit Rana</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B40" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C40" t="str">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Jos Buttler</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B41" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C41" t="str">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Pat Cummins</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B42" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C42" t="str">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B43" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C43" t="str">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B44" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C44" t="str">
-        <v>273</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Avesh Khan</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B45" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C45" t="str">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
@@ -888,90 +888,90 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B47" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C47" t="str">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B48" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C48" t="str">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B49" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C49" t="str">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B50" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C50" t="str">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B51" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C51" t="str">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Simran Singh</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B52" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C52" t="str">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Rashid Khan</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B53" t="str">
         <v>GT</v>
       </c>
       <c r="C53" t="str">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B54" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C54" t="str">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55">
@@ -987,101 +987,101 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Tim David</v>
       </c>
       <c r="B56" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C56" t="str">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Cameron Green</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B57" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C57" t="str">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B58" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C58" t="str">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B59" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C59" t="str">
-        <v>219</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B60" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C60" t="str">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rahul Chahar</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B61" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C61" t="str">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B62" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C62" t="str">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Abdul Samad</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B63" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C63" t="str">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>David Miller</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B64" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C64" t="str">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65">
@@ -1092,161 +1092,161 @@
         <v>SRH</v>
       </c>
       <c r="C65" t="str">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Shubman Gill</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B66" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C66" t="str">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B67" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C67" t="str">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Ayush Badoni</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B68" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C68" t="str">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Harpreet Brar</v>
+        <v>David Miller</v>
       </c>
       <c r="B69" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C69" t="str">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Tim David</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B70" t="str">
         <v>MI</v>
       </c>
       <c r="C70" t="str">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B71" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C71" t="str">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B72" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C72" t="str">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Trent Boult</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B73" t="str">
         <v>RR</v>
       </c>
       <c r="C73" t="str">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B74" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C74" t="str">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Rasikh Dar</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B75" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C75" t="str">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Sai Kishore</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B76" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C76" t="str">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B77" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C77" t="str">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B78" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C78" t="str">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B79" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C79" t="str">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
@@ -1262,32 +1262,32 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B81" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C81" t="str">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Deepak Hooda</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C82" t="str">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Abhishek Porel</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B83" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C83" t="str">
         <v>173</v>
@@ -1306,98 +1306,98 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mohsin Khan</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B85" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C85" t="str">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B86" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C86" t="str">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shai Hope</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B87" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C87" t="str">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Yash Dayal</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B88" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C88" t="str">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Liam Livingstone</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B89" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C89" t="str">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B90" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C90" t="str">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B91" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C91" t="str">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Shardul Thakur</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B92" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C92" t="str">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>MS Dhoni</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B93" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C93" t="str">
         <v>154</v>
@@ -1405,79 +1405,79 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mohammed Siraj</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B94" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C94" t="str">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Rinku Singh</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B95" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C95" t="str">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B96" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C96" t="str">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B97" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C97" t="str">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B98" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C98" t="str">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B99" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C99" t="str">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Quinton de Kock</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B100" t="str">
         <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101">
@@ -1493,123 +1493,123 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Rovman Powell</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B102" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C102" t="str">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B103" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C103" t="str">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Karn Sharma</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B104" t="str">
         <v>RCB</v>
       </c>
       <c r="C104" t="str">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B105" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C105" t="str">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mayank Markande</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B106" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C106" t="str">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Swapnil Singh</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B107" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C107" t="str">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B108" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C108" t="str">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Piyush Chawla</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B109" t="str">
         <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Aiden Markram</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B110" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C110" t="str">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Krunal Pandya</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B111" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C111" t="str">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B112" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C112" t="str">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
@@ -1625,98 +1625,98 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Moeen Ali</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B114" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C114" t="str">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B115" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C115" t="str">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Joshua Little</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B116" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C116" t="str">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B117" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C117" t="str">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B118" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C118" t="str">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B119" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C119" t="str">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Mohit Sharma</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B120" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C120" t="str">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C121" t="str">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Manish Pandey</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B122" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C122" t="str">
         <v>74</v>
@@ -1724,351 +1724,351 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B123" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C123" t="str">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B124" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C124" t="str">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B125" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C125" t="str">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Akash Madhwal</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B126" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C126" t="str">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B127" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C127" t="str">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Vijay Shankar</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B128" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C128" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B129" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C129" t="str">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Deepak Chahar</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B130" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C130" t="str">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Mitchell Santner</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B131" t="str">
         <v>CSK</v>
       </c>
       <c r="C131" t="str">
-        <v>55</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Anuj Rawat</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B132" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C132" t="str">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B133" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C133" t="str">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Sikandar Raza</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B134" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C134" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Spencer Johnson</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B135" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C135" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B136" t="str">
         <v>PBKS</v>
       </c>
       <c r="C136" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Arshad Khan</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B137" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C137" t="str">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Sumit Kumar</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B138" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C138" t="str">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Matt Henry</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B139" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C139" t="str">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>David Warner</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B140" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C140" t="str">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Luke Wood</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B141" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C141" t="str">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Anrich Nortje</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B142" t="str">
         <v>DC</v>
       </c>
       <c r="C142" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B143" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C143" t="str">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Ashton Turner</v>
+        <v>David Warner</v>
       </c>
       <c r="B144" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C144" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Richard Gleeson</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B145" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C145" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Lizaad Williams</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B146" t="str">
         <v>DC</v>
       </c>
       <c r="C146" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B147" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C147" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B148" t="str">
         <v>LSG</v>
       </c>
       <c r="C148" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Reece Topley</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B149" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C149" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B150" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C150" t="str">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Marco Jansen</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B151" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C151" t="str">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Amit Mishra</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B152" t="str">
         <v>LSG</v>
       </c>
       <c r="C152" t="str">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Akash Deep</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B153" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C153" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Umesh Yadav</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B154" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C154" t="str">
         <v>25</v>
@@ -2076,57 +2076,57 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Washington Sundar</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B155" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C155" t="str">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B156" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C156" t="str">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B157" t="str">
         <v>GT</v>
       </c>
       <c r="C157" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Atharva Taide</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B158" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C158" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B159" t="str">
         <v>LSG</v>
       </c>
       <c r="C159" t="str">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
@@ -2137,136 +2137,136 @@
         <v>MI</v>
       </c>
       <c r="C160" t="str">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B161" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C161" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Matthew Wade</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B162" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C162" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B163" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C163" t="str">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B164" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C164" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B165" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C165" t="str">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Lalit Yadav</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B166" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C166" t="str">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Anukul Roy</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B167" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C167" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Romario Shepherd</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B168" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C168" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B169" t="str">
         <v>DC</v>
       </c>
       <c r="C169" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B170" t="str">
         <v>KKR</v>
       </c>
       <c r="C170" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Kane Williamson</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B171" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C171" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B172" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C172" t="str">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Chris Woakes</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B173" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C173" t="str">
         <v>0</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Nathan Ellis</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B174" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C174" t="str">
         <v>0</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Navdeep Saini</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B175" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C175" t="str">
         <v>0</v>
@@ -2307,10 +2307,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B176" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C176" t="str">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B177" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B178" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Fazal Haque</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B179" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B180" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Kyle Mayers</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B181" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Yash Dhull</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B182" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Umran Malik</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B183" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,32 +2395,32 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B184" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C184" t="str">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Mayank Yadav</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B185" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C185" t="str">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B186" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Nitish Rana</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B187" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,21 +2439,21 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B188" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C188" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B189" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Jhye Richardson</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B190" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Praveen Dubey</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B192" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Dewald Brevis</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B193" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B194" t="str">
         <v>MI</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B195" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B196" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Shamar Joseph</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B197" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B198" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Glenn Phillips</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B199" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>M Siddharth</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B200" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B201" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Swastik Chikara</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B202" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Mayank Dagar</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B203" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B204" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B205" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B206" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Ajay Mandal</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B207" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B208" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B209" t="str">
         <v>CSK</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Prerak Mankad</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B210" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>SK Rasheed</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B211" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B212" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B213" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B214" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Sanvir Singh</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B215" t="str">
         <v>SRH</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B216" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Prince Choudhary</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B217" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Shams Mulani</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B218" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B219" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Jayant Yadav</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B220" t="str">
         <v>GT</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B221" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B222" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>BR sharath</v>
       </c>
       <c r="B224" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Harvik Desai</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B225" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>BR sharath</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B227" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Akash Singh</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B228" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Sakib Hussain</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B229" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B230" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajan Kumar</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B231" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Tom Curran</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B232" t="str">
         <v>RCB</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B233" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B235" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B237" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Upendra Yadav</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B238" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B239" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Srikar Bharat</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B240" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Nandre Burger</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B241" t="str">
         <v>RR</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Shubham Dubey</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B245" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C245" t="str">
         <v>0</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Ricky Bhui</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B246" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C246" t="str">
         <v>0</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -448,35 +448,35 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Harshal Patel</v>
+        <v>Travis Head</v>
       </c>
       <c r="B7" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C7" t="str">
-        <v>459</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B8" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C8" t="str">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Travis Head</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B9" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C9" t="str">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10">
@@ -492,68 +492,68 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Rishabh Pant</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B11" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C11" t="str">
-        <v>440</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Nithish Reddy</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B12" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C12" t="str">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Tilak Varma</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B13" t="str">
         <v>MI</v>
       </c>
       <c r="C13" t="str">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Hardik Pandya</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B14" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C14" t="str">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Sam Curran</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B15" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C15" t="str">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B16" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C16" t="str">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17">
@@ -564,106 +564,106 @@
         <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Faf du Plessis</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B18" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C18" t="str">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Pat Cummins</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B19" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C19" t="str">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Andre Russell</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B20" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C20" t="str">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B21" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C21" t="str">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>T Natarajan</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B22" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C22" t="str">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B23" t="str">
         <v>KKR</v>
       </c>
       <c r="C23" t="str">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Shashank Singh</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B24" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C24" t="str">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Axar Patel</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B25" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C25" t="str">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Virat Kohli</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B26" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C26" t="str">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27">
@@ -679,35 +679,35 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Riyan Parag</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B28" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C28" t="str">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B29" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C29" t="str">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sanju Samson</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B30" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C30" t="str">
-        <v>334</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31">
@@ -723,29 +723,29 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B32" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C32" t="str">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B33" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C33" t="str">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Will Jacks</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B34" t="str">
         <v>RCB</v>
@@ -756,134 +756,134 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B35" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C35" t="str">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B36" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C36" t="str">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B37" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C37" t="str">
-        <v>304</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B38" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C38" t="str">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B39" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C39" t="str">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B40" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C40" t="str">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Rohit Sharma</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B41" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C41" t="str">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Harshit Rana</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B42" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C42" t="str">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Jos Buttler</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B43" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C43" t="str">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mitchell Starc</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B44" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C44" t="str">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B45" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C45" t="str">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Rajat Patidar</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B46" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C46" t="str">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47">
@@ -899,134 +899,134 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B48" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C48" t="str">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B49" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C49" t="str">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B50" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C50" t="str">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Simran Singh</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B51" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C51" t="str">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Rashid Khan</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B52" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C52" t="str">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B53" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C53" t="str">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B54" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C54" t="str">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B55" t="str">
         <v>PBKS</v>
       </c>
       <c r="C55" t="str">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Tim David</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B56" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C56" t="str">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B57" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C57" t="str">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B58" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C58" t="str">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Avesh Khan</v>
+        <v>Tim David</v>
       </c>
       <c r="B59" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C59" t="str">
-        <v>273</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60">
@@ -1053,35 +1053,35 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B62" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C62" t="str">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B63" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C63" t="str">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rahul Chahar</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B64" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C64" t="str">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -1097,35 +1097,35 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Abdul Samad</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B66" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C66" t="str">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B67" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C67" t="str">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shubman Gill</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B68" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C68" t="str">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69">
@@ -1141,142 +1141,142 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B70" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C70" t="str">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Ayush Badoni</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B71" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C71" t="str">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Harpreet Brar</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B72" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C72" t="str">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B73" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C73" t="str">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Trent Boult</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B74" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B75" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C75" t="str">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B76" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C76" t="str">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B77" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C77" t="str">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B78" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C78" t="str">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Sai Kishore</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B79" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C79" t="str">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B80" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C80" t="str">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Rasikh Dar</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B81" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C81" t="str">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B82" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C82" t="str">
         <v>175</v>
@@ -1284,32 +1284,32 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Deepak Hooda</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B83" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C83" t="str">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Noor Ahmad</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B84" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C84" t="str">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Abhishek Porel</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B85" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C85" t="str">
         <v>173</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohsin Khan</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B86" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C86" t="str">
         <v>172</v>
@@ -1328,76 +1328,76 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B87" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C87" t="str">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Shardul Thakur</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B88" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C88" t="str">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Yash Dayal</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C89" t="str">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Shai Hope</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B90" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C90" t="str">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B91" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C91" t="str">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Liam Livingstone</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B92" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C92" t="str">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B93" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C93" t="str">
         <v>154</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>MS Dhoni</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B94" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C94" t="str">
         <v>154</v>
@@ -1416,57 +1416,57 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Nehal Wadhera</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B95" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C95" t="str">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B96" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C96" t="str">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rinku Singh</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B97" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C97" t="str">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B98" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C98" t="str">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B99" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C99" t="str">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
@@ -1482,57 +1482,57 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Yash Thakur</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B101" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C101" t="str">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Quinton de Kock</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B102" t="str">
         <v>LSG</v>
       </c>
       <c r="C102" t="str">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Karn Sharma</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B103" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C103" t="str">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Swapnil Singh</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B104" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C104" t="str">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B105" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C105" t="str">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106">
@@ -1548,277 +1548,277 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Rovman Powell</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B107" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C107" t="str">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Krunal Pandya</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B108" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C108" t="str">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B109" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C109" t="str">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B110" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C110" t="str">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mayank Markande</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B111" t="str">
         <v>SRH</v>
       </c>
       <c r="C111" t="str">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Aiden Markram</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B112" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C112" t="str">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B113" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C113" t="str">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Joshua Little</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B114" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C114" t="str">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B115" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C115" t="str">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Ishant Sharma</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B116" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C116" t="str">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B117" t="str">
         <v>GT</v>
       </c>
       <c r="C117" t="str">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B118" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C118" t="str">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Marco Jansen</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B119" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C119" t="str">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B120" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C120" t="str">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Manish Pandey</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B121" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B122" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C122" t="str">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B123" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C123" t="str">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B124" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C124" t="str">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Akash Madhwal</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B125" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C125" t="str">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B126" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mitchell Santner</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B127" t="str">
         <v>CSK</v>
       </c>
       <c r="C127" t="str">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Deepak Chahar</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B128" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C128" t="str">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Vijay Shankar</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B129" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C129" t="str">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Mohit Sharma</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B130" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C130" t="str">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Moeen Ali</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B131" t="str">
         <v>CSK</v>
       </c>
       <c r="C131" t="str">
-        <v>111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
@@ -1878,46 +1878,46 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Spencer Johnson</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B137" t="str">
         <v>GT</v>
       </c>
       <c r="C137" t="str">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Harpreet Singh</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B138" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C138" t="str">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B139" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C139" t="str">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B140" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C140" t="str">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141">
@@ -1944,24 +1944,24 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Matt Henry</v>
+        <v>David Warner</v>
       </c>
       <c r="B143" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C143" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>David Warner</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B144" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C144" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
@@ -2010,13 +2010,13 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B149" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C149" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
@@ -2032,68 +2032,68 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Richard Gleeson</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B151" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C151" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B152" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C152" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Amit Mishra</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B153" t="str">
         <v>LSG</v>
       </c>
       <c r="C153" t="str">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Akash Deep</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B154" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C154" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Reece Topley</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B155" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C155" t="str">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B156" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C156" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157">
@@ -2131,35 +2131,35 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Naman Dhir</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B160" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C160" t="str">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B161" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C161" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Atharva Taide</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B162" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -2175,153 +2175,153 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Matthew Wade</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B164" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C164" t="str">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B165" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C165" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B166" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C166" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B167" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C167" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Sanvir Singh</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B168" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C168" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Lalit Yadav</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B169" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C169" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Anukul Roy</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B170" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C170" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Romario Shepherd</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B171" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C171" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B172" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C172" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B173" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C173" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Kane Williamson</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B174" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C174" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B175" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C175" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Chris Woakes</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B176" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C176" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Nathan Ellis</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B177" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Navdeep Saini</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B178" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B179" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B180" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B181" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Fazal Haque</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B182" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Kyle Mayers</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B183" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,21 +2395,21 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B184" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C184" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Yash Dhull</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B185" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Umran Malik</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B186" t="str">
         <v>SRH</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B187" t="str">
         <v>LSG</v>
@@ -2439,21 +2439,21 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B188" t="str">
         <v>SRH</v>
       </c>
       <c r="C188" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Nitish Rana</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B189" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B190" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B192" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Jhye Richardson</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B193" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B194" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Praveen Dubey</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B195" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Dewald Brevis</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B196" t="str">
         <v>MI</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Shamar Joseph</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B198" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B199" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B200" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B201" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>M Siddharth</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B202" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B203" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Swastik Chikara</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B205" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>SK Rasheed</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B206" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Mayank Dagar</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B207" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B208" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Ajay Mandal</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B209" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Prerak Mankad</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B212" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B213" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Shams Mulani</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B214" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B215" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Prashant Solanki</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B216" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B218" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B219" t="str">
         <v>PBKS</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B220" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Prince Choudhary</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B222" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Sushant Mishra</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B223" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B226" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B227" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B228" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Harvik Desai</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B229" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Sakib Hussain</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B231" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajan Kumar</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B232" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Ricky Bhui</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B233" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Shivam Singh</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B234" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B235" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B236" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B237" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B238" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Srikar Bharat</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B239" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Shubham Dubey</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B241" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Upendra Yadav</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B242" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,35 +3044,35 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Manav Suthar</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B243" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C243" t="str">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B245" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -459,112 +459,112 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rishabh Pant</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B8" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C8" t="str">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B9" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C9" t="str">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B10" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C10" t="str">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Harshal Patel</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B11" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C11" t="str">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Tilak Varma</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B12" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C12" t="str">
-        <v>421</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Hardik Pandya</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B13" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C13" t="str">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B14" t="str">
         <v>DC</v>
       </c>
       <c r="C14" t="str">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B15" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C15" t="str">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Nithish Reddy</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B16" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C16" t="str">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B17" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C17" t="str">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18">
@@ -580,167 +580,167 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Faf du Plessis</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B19" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C19" t="str">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Axar Patel</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B20" t="str">
         <v>DC</v>
       </c>
       <c r="C20" t="str">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Pat Cummins</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B21" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C21" t="str">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B22" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C22" t="str">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Andre Russell</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B23" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Riyan Parag</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B24" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C24" t="str">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Shashank Singh</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B25" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C25" t="str">
-        <v>350</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Sanju Samson</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B26" t="str">
         <v>RR</v>
       </c>
       <c r="C26" t="str">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Shivam Dube</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B27" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C27" t="str">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>T Natarajan</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B28" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C28" t="str">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Shreyas Iyer</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B29" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C29" t="str">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Virat Kohli</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B30" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C30" t="str">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ishan Kishan</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B31" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C31" t="str">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B32" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C32" t="str">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B33" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C33" t="str">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
@@ -756,13 +756,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B35" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C35" t="str">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -778,120 +778,120 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rohit Sharma</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B37" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C37" t="str">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Will Jacks</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B38" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C38" t="str">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B39" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C39" t="str">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B40" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C40" t="str">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B41" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C41" t="str">
-        <v>305</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B42" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C42" t="str">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B43" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C43" t="str">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B44" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C44" t="str">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Harshit Rana</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B45" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C45" t="str">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B46" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C46" t="str">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B47" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C47" t="str">
         <v>283</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Jos Buttler</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B48" t="str">
         <v>RR</v>
@@ -910,46 +910,46 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Avesh Khan</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B49" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C49" t="str">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Abhishek Porel</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B50" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C50" t="str">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B51" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C51" t="str">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B52" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C52" t="str">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53">
@@ -965,13 +965,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Rajat Patidar</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B54" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C54" t="str">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
@@ -987,18 +987,18 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B56" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C56" t="str">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B57" t="str">
         <v>PBKS</v>
@@ -1009,68 +1009,68 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rashid Khan</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B58" t="str">
         <v>GT</v>
       </c>
       <c r="C58" t="str">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Tim David</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B59" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C59" t="str">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Piyush Chawla</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B60" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C60" t="str">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Cameron Green</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B61" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C61" t="str">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Trent Boult</v>
+        <v>Tim David</v>
       </c>
       <c r="B62" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C62" t="str">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B63" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C63" t="str">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64">
@@ -1086,197 +1086,197 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B65" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C65" t="str">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Rahul Chahar</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B66" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C66" t="str">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Abdul Samad</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B67" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C67" t="str">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B68" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C68" t="str">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>David Miller</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B69" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C69" t="str">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Rasikh Dar</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B70" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C70" t="str">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Shubman Gill</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B71" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C71" t="str">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B72" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C72" t="str">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Ayush Badoni</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B73" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C73" t="str">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Harpreet Brar</v>
+        <v>David Miller</v>
       </c>
       <c r="B74" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C74" t="str">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B75" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C75" t="str">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B76" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C76" t="str">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B77" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C77" t="str">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Sai Kishore</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B78" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C78" t="str">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B79" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C79" t="str">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B80" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C80" t="str">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B81" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C81" t="str">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B82" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
         <v>175</v>
@@ -1284,24 +1284,24 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B83" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C83" t="str">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B84" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C84" t="str">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85">
@@ -1339,24 +1339,24 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Shai Hope</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B88" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C88" t="str">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B89" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C89" t="str">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90">
@@ -1383,32 +1383,32 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Yash Dayal</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B92" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C92" t="str">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Liam Livingstone</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B93" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C93" t="str">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B94" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C94" t="str">
         <v>154</v>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>MS Dhoni</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B95" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C95" t="str">
         <v>154</v>
@@ -1427,46 +1427,46 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Nehal Wadhera</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B96" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C96" t="str">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B97" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C97" t="str">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B98" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C98" t="str">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Rinku Singh</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B99" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C99" t="str">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
@@ -1482,13 +1482,13 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B101" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C101" t="str">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102">
@@ -1504,211 +1504,211 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Quinton de Kock</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B103" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C103" t="str">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Mayank Markande</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B104" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C104" t="str">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Rovman Powell</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B105" t="str">
         <v>RR</v>
       </c>
       <c r="C105" t="str">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B106" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C106" t="str">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Karn Sharma</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B107" t="str">
         <v>RCB</v>
       </c>
       <c r="C107" t="str">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Swapnil Singh</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B108" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C108" t="str">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B109" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C109" t="str">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B110" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C110" t="str">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Aiden Markram</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B111" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C111" t="str">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Krunal Pandya</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B112" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C112" t="str">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B113" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Moeen Ali</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B114" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C114" t="str">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B115" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C115" t="str">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B116" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C116" t="str">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Joshua Little</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B117" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C117" t="str">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ishant Sharma</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B118" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C118" t="str">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B119" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C119" t="str">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Mohit Sharma</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B120" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C120" t="str">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C121" t="str">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122">
@@ -1724,13 +1724,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B123" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C123" t="str">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124">
@@ -1790,43 +1790,43 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Mitchell Santner</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B129" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C129" t="str">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Deepak Chahar</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B130" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C130" t="str">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B131" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C131" t="str">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Mayank Yadav</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B132" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C132" t="str">
         <v>45</v>
@@ -1834,109 +1834,109 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B133" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C133" t="str">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Anuj Rawat</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B134" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C134" t="str">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B135" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C135" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sikandar Raza</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B136" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C136" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Vijay Shankar</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B137" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C137" t="str">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B138" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C138" t="str">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Spencer Johnson</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B139" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C139" t="str">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Harpreet Singh</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B140" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C140" t="str">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Arshad Khan</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B141" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C141" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Sumit Kumar</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B142" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C142" t="str">
         <v>35</v>
@@ -1955,32 +1955,32 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Matt Henry</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B144" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C144" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Luke Wood</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B145" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C145" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Anrich Nortje</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B146" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C146" t="str">
         <v>33</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B147" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C147" t="str">
         <v>33</v>
@@ -1999,32 +1999,32 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Ashton Turner</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B148" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C148" t="str">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Richard Gleeson</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B149" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C149" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Lizaad Williams</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B150" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C150" t="str">
         <v>32</v>
@@ -2032,24 +2032,24 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B151" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C151" t="str">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Reece Topley</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B152" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C152" t="str">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
@@ -2065,35 +2065,35 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B154" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C154" t="str">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B155" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C155" t="str">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Akash Deep</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B156" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C156" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157">
@@ -2109,21 +2109,21 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Washington Sundar</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B158" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C158" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B159" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C159" t="str">
         <v>22</v>
@@ -2131,117 +2131,117 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B160" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C160" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Atharva Taide</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B161" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C161" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Naman Dhir</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C162" t="str">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B163" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C163" t="str">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Amit Mishra</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B164" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C164" t="str">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B165" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C165" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B166" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C166" t="str">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Matthew Wade</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B167" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C167" t="str">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B168" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C168" t="str">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B169" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C169" t="str">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Sanvir Singh</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B170" t="str">
         <v>SRH</v>
@@ -2252,24 +2252,24 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B171" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C171" t="str">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Shubham Dubey</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B172" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C172" t="str">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
@@ -2285,24 +2285,24 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Lalit Yadav</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B174" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C174" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Anukul Roy</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B175" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C175" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Kane Williamson</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B177" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B178" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B179" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B180" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Chris Woakes</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B181" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Nathan Ellis</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B182" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B183" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Navdeep Saini</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B184" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B185" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Kyle Mayers</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B187" t="str">
         <v>LSG</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B189" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Yash Dhull</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B190" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B191" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Jhye Richardson</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B192" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B193" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Nitish Rana</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B194" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B195" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B196" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B197" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Praveen Dubey</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B198" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Shams Mulani</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B215" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B216" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B223" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>BR sharath</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B224" t="str">
         <v>GT</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Tom Curran</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B225" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Abid Mushtaq</v>
+        <v>BR sharath</v>
       </c>
       <c r="B226" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B227" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B228" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Sakib Hussain</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B229" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B230" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Harvik Desai</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B231" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B232" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B233" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B234" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B235" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Rajan Kumar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B236" t="str">
         <v>RCB</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B237" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Shivam Singh</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B238" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B239" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Upendra Yadav</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B241" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B242" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Srikar Bharat</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B243" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,40 +3055,40 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Manav Suthar</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B244" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C244" t="str">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B245" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Nandre Burger</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B246" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C246" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B247" t="str">
         <v>KKR</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -415,46 +415,46 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Philip Salt</v>
+        <v>Travis Head</v>
       </c>
       <c r="B4" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C4" t="str">
-        <v>578</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>KL Rahul</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B5" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C5" t="str">
-        <v>533</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B6" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>515</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Travis Head</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B7" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C7" t="str">
-        <v>492</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8">
@@ -465,7 +465,7 @@
         <v>LSG</v>
       </c>
       <c r="C8" t="str">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9">
@@ -481,35 +481,35 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rishabh Pant</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B10" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C10" t="str">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B11" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Harshal Patel</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B12" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C12" t="str">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
@@ -520,161 +520,161 @@
         <v>SRH</v>
       </c>
       <c r="C13" t="str">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Axar Patel</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B14" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C14" t="str">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Tilak Varma</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B15" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C15" t="str">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Hardik Pandya</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B16" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C16" t="str">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B17" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C17" t="str">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Sam Curran</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B18" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C18" t="str">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B19" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C19" t="str">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B20" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C20" t="str">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B21" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C21" t="str">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Faf du Plessis</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B22" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C22" t="str">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Pat Cummins</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B23" t="str">
         <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B24" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C24" t="str">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B25" t="str">
         <v>KKR</v>
       </c>
       <c r="C25" t="str">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Riyan Parag</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B26" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C26" t="str">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Andre Russell</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B27" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C27" t="str">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28">
@@ -696,150 +696,150 @@
         <v>SRH</v>
       </c>
       <c r="C29" t="str">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Shashank Singh</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B30" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C30" t="str">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Shivam Dube</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B31" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C31" t="str">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Rohit Sharma</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B32" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C32" t="str">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B33" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C33" t="str">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B34" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C34" t="str">
-        <v>317</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Will Jacks</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B35" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C35" t="str">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Mitchell Starc</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B36" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C36" t="str">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B37" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C37" t="str">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Jos Buttler</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B38" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C38" t="str">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B39" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C39" t="str">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B40" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C40" t="str">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Ishan Kishan</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B41" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C41" t="str">
-        <v>331</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B42" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C42" t="str">
-        <v>339</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43">
@@ -866,13 +866,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B45" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C45" t="str">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
@@ -910,35 +910,35 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B49" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C49" t="str">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B50" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C50" t="str">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rajat Patidar</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B51" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C51" t="str">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52">
@@ -965,13 +965,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B54" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C54" t="str">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55">
@@ -987,46 +987,46 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B56" t="str">
         <v>PBKS</v>
       </c>
       <c r="C56" t="str">
-        <v>233</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B57" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C57" t="str">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B58" t="str">
         <v>GT</v>
       </c>
       <c r="C58" t="str">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Rashid Khan</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B59" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C59" t="str">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60">
@@ -1042,123 +1042,123 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Piyush Chawla</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B61" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C61" t="str">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Tim David</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B62" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C62" t="str">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Cameron Green</v>
+        <v>Tim David</v>
       </c>
       <c r="B63" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C63" t="str">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B64" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C64" t="str">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B65" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C65" t="str">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B66" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C66" t="str">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Trent Boult</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B67" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C67" t="str">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B68" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C68" t="str">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Rahul Chahar</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B69" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C69" t="str">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B70" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C70" t="str">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Abdul Samad</v>
+        <v>David Miller</v>
       </c>
       <c r="B71" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C71" t="str">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
@@ -1174,109 +1174,109 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B73" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C73" t="str">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>David Miller</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B74" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C74" t="str">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Ayush Badoni</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B75" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C75" t="str">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Harpreet Brar</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B76" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C76" t="str">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B77" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C77" t="str">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shai Hope</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B78" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C78" t="str">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B79" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C79" t="str">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B80" t="str">
         <v>PBKS</v>
       </c>
       <c r="C80" t="str">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B81" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C81" t="str">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C82" t="str">
         <v>175</v>
@@ -1284,29 +1284,29 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Sai Kishore</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B83" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C83" t="str">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B84" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C84" t="str">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Deepak Hooda</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B85" t="str">
         <v>LSG</v>
@@ -1339,57 +1339,57 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B88" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C88" t="str">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B89" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C89" t="str">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B90" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C90" t="str">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Shardul Thakur</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B91" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C91" t="str">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Rovman Powell</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B92" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C92" t="str">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93">
@@ -1416,10 +1416,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Dhruv Jurel</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B95" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C95" t="str">
         <v>154</v>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>MS Dhoni</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B96" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C96" t="str">
         <v>154</v>
@@ -1438,101 +1438,101 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B97" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C97" t="str">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Rinku Singh</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B98" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C98" t="str">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B99" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C99" t="str">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B100" t="str">
         <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B101" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C101" t="str">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Yash Thakur</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B102" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C102" t="str">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B103" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C103" t="str">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B104" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C104" t="str">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B105" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C105" t="str">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
@@ -1570,13 +1570,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Mayank Markande</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B109" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
@@ -1587,18 +1587,18 @@
         <v>LSG</v>
       </c>
       <c r="C110" t="str">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B111" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C111" t="str">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
@@ -1625,24 +1625,24 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B114" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C114" t="str">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Aiden Markram</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B115" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116">
@@ -1669,76 +1669,76 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B118" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C118" t="str">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Mohit Sharma</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B119" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C119" t="str">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B120" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C120" t="str">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Joshua Little</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B121" t="str">
         <v>GT</v>
       </c>
       <c r="C121" t="str">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Marco Jansen</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B122" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B123" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C123" t="str">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Manish Pandey</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B124" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C124" t="str">
         <v>74</v>
@@ -1746,98 +1746,98 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B125" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C125" t="str">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B126" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C126" t="str">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B127" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C127" t="str">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Akash Madhwal</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B128" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C128" t="str">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Vijay Shankar</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B129" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C129" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B130" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C130" t="str">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Shubham Dubey</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B131" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C131" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B132" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C132" t="str">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Mayank Yadav</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B133" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C133" t="str">
         <v>45</v>
@@ -1845,54 +1845,54 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B134" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C134" t="str">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Anuj Rawat</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B135" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C135" t="str">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B136" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C136" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Sikandar Raza</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B137" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C137" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Spencer Johnson</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B138" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C138" t="str">
         <v>38</v>
@@ -1900,43 +1900,43 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Harpreet Singh</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B139" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C139" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Arshad Khan</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B140" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C140" t="str">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Sumit Kumar</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B141" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C141" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Matt Henry</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B142" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C142" t="str">
         <v>35</v>
@@ -1944,21 +1944,21 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>David Warner</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B143" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C143" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Luke Wood</v>
+        <v>David Warner</v>
       </c>
       <c r="B144" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C144" t="str">
         <v>34</v>
@@ -1966,21 +1966,21 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Anrich Nortje</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B145" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C145" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B146" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C146" t="str">
         <v>33</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ashton Turner</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B147" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C147" t="str">
         <v>33</v>
@@ -1999,57 +1999,57 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Mitchell Santner</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B148" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C148" t="str">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Lizaad Williams</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B149" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C149" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B150" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C150" t="str">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Deepak Chahar</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B151" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C151" t="str">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B152" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C152" t="str">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -2065,24 +2065,24 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Richard Gleeson</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B154" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C154" t="str">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Reece Topley</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B155" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C155" t="str">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
@@ -2098,46 +2098,46 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Umesh Yadav</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B157" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C157" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B158" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C158" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B159" t="str">
         <v>GT</v>
       </c>
       <c r="C159" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Atharva Taide</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B160" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C160" t="str">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161">
@@ -2153,90 +2153,90 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B162" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C162" t="str">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B163" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C163" t="str">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Matthew Wade</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B164" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C164" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B165" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C165" t="str">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Akash Deep</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B166" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C166" t="str">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B167" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C167" t="str">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Sanvir Singh</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B168" t="str">
         <v>SRH</v>
       </c>
       <c r="C168" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Naman Dhir</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B169" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C169" t="str">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
@@ -2252,21 +2252,21 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B171" t="str">
         <v>DC</v>
       </c>
       <c r="C171" t="str">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B172" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C172" t="str">
         <v>16</v>
@@ -2285,54 +2285,54 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Anukul Roy</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B174" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C174" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Lalit Yadav</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B175" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C175" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Romario Shepherd</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B176" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C176" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B177" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C177" t="str">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B178" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C178" t="str">
         <v>0</v>
@@ -2362,21 +2362,21 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Navdeep Saini</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B181" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C181" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B182" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Nathan Ellis</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B184" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Chris Woakes</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B185" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Fazal Haque</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B186" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B187" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Umran Malik</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B188" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Yash Dhull</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B189" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Nitish Rana</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B190" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B191" t="str">
         <v>MI</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B192" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Kyle Mayers</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B193" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Jhye Richardson</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B194" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B195" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B197" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B198" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Dewald Brevis</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B199" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Shamar Joseph</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B200" t="str">
         <v>LSG</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B201" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B202" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>M Siddharth</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B203" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Glenn Phillips</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B204" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>SK Rasheed</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B205" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Swastik Chikara</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B206" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B207" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Mayank Dagar</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B208" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B209" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B210" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B211" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Ajay Mandal</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B212" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Prerak Mankad</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B213" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B214" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B215" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Shams Mulani</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B216" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B217" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B218" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Prince Choudhary</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B219" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B220" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Jayant Yadav</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Sushant Mishra</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B222" t="str">
         <v>GT</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Chetan Sakariya</v>
+        <v>BR sharath</v>
       </c>
       <c r="B223" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B224" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B225" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>BR sharath</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B226" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Tom Curran</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B227" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B228" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B229" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Sakib Hussain</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B230" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Akash Singh</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B231" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Harvik Desai</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B232" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B233" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Rajan Kumar</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B234" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Ricky Bhui</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B235" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B236" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Shivam Singh</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B237" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B238" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B239" t="str">
         <v>MI</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B240" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Srikar Bharat</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B241" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,62 +3033,62 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Nandre Burger</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B242" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Upendra Yadav</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B243" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C243" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B244" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Manav Suthar</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B245" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C245" t="str">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B246" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C246" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Suyash Sharma</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B247" t="str">
         <v>KKR</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -481,24 +481,24 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Harshal Patel</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B10" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C10" t="str">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Rishabh Pant</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B11" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C11" t="str">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
@@ -525,13 +525,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Tilak Varma</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B14" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C14" t="str">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15">
@@ -547,13 +547,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Pat Cummins</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B16" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C16" t="str">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
@@ -580,57 +580,57 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B19" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C19" t="str">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B20" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C20" t="str">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Sam Curran</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B21" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C21" t="str">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B22" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C22" t="str">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B23" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C23" t="str">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24">
@@ -668,35 +668,35 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Riyan Parag</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B27" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C27" t="str">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Virat Kohli</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B28" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C28" t="str">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>T Natarajan</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B29" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C29" t="str">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30">
@@ -712,90 +712,90 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B31" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C31" t="str">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Shivam Dube</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B32" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C32" t="str">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Ishan Kishan</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B33" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C33" t="str">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B34" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C34" t="str">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B35" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C35" t="str">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Dinesh Karthik</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B36" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C36" t="str">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Will Jacks</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B37" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C37" t="str">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B38" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C38" t="str">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
@@ -822,35 +822,35 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B41" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C41" t="str">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B42" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C42" t="str">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B43" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C43" t="str">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
@@ -866,211 +866,211 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Rohit Sharma</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B45" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C45" t="str">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B46" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C46" t="str">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Harshit Rana</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B47" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C47" t="str">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Avesh Khan</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B48" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C48" t="str">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ayush Badoni</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B49" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C49" t="str">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rajat Patidar</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B50" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C50" t="str">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B51" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C51" t="str">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Abhishek Porel</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B52" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C52" t="str">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B53" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C53" t="str">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B54" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C54" t="str">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Simran Singh</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B55" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C55" t="str">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Shashank Singh</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B56" t="str">
         <v>PBKS</v>
       </c>
       <c r="C56" t="str">
-        <v>350</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B57" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C57" t="str">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rashid Khan</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B58" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C58" t="str">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B59" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C59" t="str">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Rasikh Dar</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B60" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C60" t="str">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B61" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C61" t="str">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Tim David</v>
       </c>
       <c r="B62" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C62" t="str">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Tim David</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B63" t="str">
         <v>MI</v>
       </c>
       <c r="C63" t="str">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64">
@@ -1086,32 +1086,32 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Piyush Chawla</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B65" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C65" t="str">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Cameron Green</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B66" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C66" t="str">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B67" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C67" t="str">
         <v>215</v>
@@ -1119,24 +1119,24 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Trent Boult</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B68" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C68" t="str">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B69" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C69" t="str">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70">
@@ -1152,219 +1152,219 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>David Miller</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B71" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C71" t="str">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Shubman Gill</v>
+        <v>David Miller</v>
       </c>
       <c r="B72" t="str">
         <v>GT</v>
       </c>
       <c r="C72" t="str">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B73" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C73" t="str">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Abdul Samad</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B74" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C74" t="str">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B75" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shai Hope</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B76" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C76" t="str">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Sai Kishore</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B77" t="str">
         <v>GT</v>
       </c>
       <c r="C77" t="str">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B78" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C78" t="str">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B79" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C79" t="str">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Harpreet Brar</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B80" t="str">
         <v>PBKS</v>
       </c>
       <c r="C80" t="str">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B81" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C81" t="str">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B82" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Deepak Hooda</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B83" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C83" t="str">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B84" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C84" t="str">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B85" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C85" t="str">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Noor Ahmad</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B86" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C86" t="str">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mohsin Khan</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B87" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C87" t="str">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B88" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C88" t="str">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Shardul Thakur</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B89" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C89" t="str">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Rovman Powell</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B90" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C90" t="str">
         <v>156</v>
@@ -1372,43 +1372,43 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B91" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C91" t="str">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B92" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C92" t="str">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Yash Dayal</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B93" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C93" t="str">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Liam Livingstone</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B94" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C94" t="str">
         <v>154</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B96" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C96" t="str">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
@@ -1460,18 +1460,18 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B99" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C99" t="str">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Quinton de Kock</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B100" t="str">
         <v>LSG</v>
@@ -1482,40 +1482,40 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B101" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C101" t="str">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B102" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C102" t="str">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B103" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C103" t="str">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Yash Thakur</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B104" t="str">
         <v>LSG</v>
@@ -1526,21 +1526,21 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Mayank Markande</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B105" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C105" t="str">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Karn Sharma</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B106" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C106" t="str">
         <v>137</v>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Krunal Pandya</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B110" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C110" t="str">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
@@ -1603,90 +1603,90 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B112" t="str">
         <v>RCB</v>
       </c>
       <c r="C112" t="str">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Moeen Ali</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C113" t="str">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B114" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C114" t="str">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Joshua Little</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B115" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C115" t="str">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B116" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C116" t="str">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ishant Sharma</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B117" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C117" t="str">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Aiden Markram</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B118" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C118" t="str">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Rinku Singh</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B119" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C119" t="str">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
@@ -1724,21 +1724,21 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Manish Pandey</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B123" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C123" t="str">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B124" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C124" t="str">
         <v>74</v>
@@ -1746,109 +1746,109 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B125" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C125" t="str">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B126" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Akash Madhwal</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B127" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C127" t="str">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Mitchell Santner</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B128" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C128" t="str">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Deepak Chahar</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B129" t="str">
         <v>CSK</v>
       </c>
       <c r="C129" t="str">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Vijay Shankar</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B130" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C130" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B131" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C131" t="str">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Shubham Dubey</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B132" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C132" t="str">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B133" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C133" t="str">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Mayank Yadav</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B134" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C134" t="str">
         <v>45</v>
@@ -1856,54 +1856,54 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B135" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C135" t="str">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Anuj Rawat</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B136" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C136" t="str">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B137" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C137" t="str">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Sikandar Raza</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B138" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C138" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Spencer Johnson</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B139" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C139" t="str">
         <v>38</v>
@@ -1911,32 +1911,32 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Harpreet Singh</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B140" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C140" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Arshad Khan</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B141" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C141" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Sumit Kumar</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B142" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C142" t="str">
         <v>35</v>
@@ -1944,32 +1944,32 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Matt Henry</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B143" t="str">
         <v>LSG</v>
       </c>
       <c r="C143" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>David Warner</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B144" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C144" t="str">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Luke Wood</v>
+        <v>David Warner</v>
       </c>
       <c r="B145" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C145" t="str">
         <v>34</v>
@@ -1977,21 +1977,21 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Anrich Nortje</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B146" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C146" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B147" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
         <v>33</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Ashton Turner</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B148" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C148" t="str">
         <v>33</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Richard Gleeson</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B149" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C149" t="str">
         <v>33</v>
@@ -2021,13 +2021,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Marco Jansen</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B150" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C150" t="str">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B152" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C152" t="str">
         <v>32</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B153" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C153" t="str">
         <v>32</v>
@@ -2065,54 +2065,54 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Reece Topley</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B154" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C154" t="str">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B155" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C155" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Amit Mishra</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B156" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C156" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B157" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C157" t="str">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Akash Deep</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B158" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C158" t="str">
         <v>25</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Umesh Yadav</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B159" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C159" t="str">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160">
@@ -2142,35 +2142,35 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Washington Sundar</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B161" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C161" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B162" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C162" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B163" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C163" t="str">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164">
@@ -2186,43 +2186,43 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Naman Dhir</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B165" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C165" t="str">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B166" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C166" t="str">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B167" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C167" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B168" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C168" t="str">
         <v>16</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Matthew Wade</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B169" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C169" t="str">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
@@ -2252,57 +2252,57 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Lalit Yadav</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B171" t="str">
         <v>DC</v>
       </c>
       <c r="C171" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B172" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C172" t="str">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B173" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C173" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B174" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C174" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Anukul Roy</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B175" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C175" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2318,32 +2318,32 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B177" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C177" t="str">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Chris Woakes</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B178" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C178" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Kane Williamson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B179" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B180" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,21 +2362,21 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Romario Shepherd</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B181" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C181" t="str">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Nathan Ellis</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B182" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B183" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Fazal Haque</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B184" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Kyle Mayers</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B185" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B190" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B194" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Navdeep Saini</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B195" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Praveen Dubey</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B196" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Shamar Joseph</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B197" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B207" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Dewald Brevis</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B212" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Prashant Solanki</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B215" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B217" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B218" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Sushant Mishra</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B219" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Jayant Yadav</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B220" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B221" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B222" t="str">
         <v>GT</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>BR sharath</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B223" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B224" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Sakib Hussain</v>
+        <v>BR sharath</v>
       </c>
       <c r="B225" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B226" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B227" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Harvik Desai</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B229" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B230" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajan Kumar</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B231" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B232" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B233" t="str">
         <v>RCB</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Shivam Singh</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B234" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B235" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B237" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Upendra Yadav</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B238" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B239" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Srikar Bharat</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B240" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B241" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,24 +3033,24 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Manav Suthar</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B242" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C242" t="str">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B243" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C243" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -3066,10 +3066,10 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Tom Curran</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B245" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C245" t="str">
         <v>0</v>
@@ -3077,13 +3077,13 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Nandre Burger</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B246" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C246" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -448,189 +448,189 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B7" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C7" t="str">
-        <v>515</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B8" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C8" t="str">
-        <v>472</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Sanju Samson</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B9" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C9" t="str">
-        <v>464</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rishabh Pant</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B10" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C10" t="str">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Harshal Patel</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B11" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C11" t="str">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B12" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C12" t="str">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Nithish Reddy</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B13" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C13" t="str">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Pat Cummins</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B14" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C14" t="str">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Axar Patel</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B15" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C15" t="str">
-        <v>423</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B16" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C16" t="str">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Hardik Pandya</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B17" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C17" t="str">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B18" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C18" t="str">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Tilak Varma</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B19" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C19" t="str">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B20" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C20" t="str">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B21" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C21" t="str">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Sam Curran</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B22" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C22" t="str">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B23" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24">
@@ -641,18 +641,18 @@
         <v>RCB</v>
       </c>
       <c r="C24" t="str">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B25" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C25" t="str">
-        <v>376</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26">
@@ -668,178 +668,178 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>T Natarajan</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B27" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C27" t="str">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Riyan Parag</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B28" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C28" t="str">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Virat Kohli</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B29" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C29" t="str">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Andre Russell</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B30" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C30" t="str">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Shashank Singh</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B31" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C31" t="str">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B32" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C32" t="str">
-        <v>354</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B33" t="str">
         <v>DC</v>
       </c>
       <c r="C33" t="str">
-        <v>339</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Shivam Dube</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B34" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C34" t="str">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Rohit Sharma</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B35" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C35" t="str">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B36" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C36" t="str">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ishan Kishan</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B37" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C37" t="str">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B38" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C38" t="str">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mitchell Starc</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B39" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C39" t="str">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Jos Buttler</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B40" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C40" t="str">
-        <v>306</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Will Jacks</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B41" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C41" t="str">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B42" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C42" t="str">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
@@ -855,90 +855,90 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B44" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C44" t="str">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B45" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C45" t="str">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B46" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C46" t="str">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B47" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B48" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C48" t="str">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Harshit Rana</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B49" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C49" t="str">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Avesh Khan</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B50" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C50" t="str">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Ayush Badoni</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B51" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C51" t="str">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52">
@@ -954,24 +954,24 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Rajat Patidar</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B53" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C53" t="str">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B54" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C54" t="str">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55">
@@ -987,156 +987,156 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Simran Singh</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B56" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C56" t="str">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Rashid Khan</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B57" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C57" t="str">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Abhishek Porel</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B58" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C58" t="str">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B59" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C59" t="str">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B60" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C60" t="str">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rasikh Dar</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B61" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C61" t="str">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Tim David</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B62" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C62" t="str">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Piyush Chawla</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B63" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C63" t="str">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B64" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C64" t="str">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Cameron Green</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B65" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C65" t="str">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Tim David</v>
       </c>
       <c r="B66" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C66" t="str">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B67" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C67" t="str">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B68" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C68" t="str">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Abdul Samad</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B69" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C69" t="str">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70">
@@ -1147,425 +1147,425 @@
         <v>PBKS</v>
       </c>
       <c r="C70" t="str">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B71" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C71" t="str">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>David Miller</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B72" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C72" t="str">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Shubman Gill</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B73" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C73" t="str">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B74" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C74" t="str">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Harpreet Brar</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B75" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C75" t="str">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Trent Boult</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B76" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C76" t="str">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B77" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C77" t="str">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shai Hope</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B78" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C78" t="str">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B79" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C79" t="str">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B80" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C80" t="str">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B81" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C81" t="str">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Deepak Hooda</v>
+        <v>David Miller</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C82" t="str">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B83" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C83" t="str">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Sai Kishore</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B84" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C84" t="str">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B85" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C85" t="str">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B86" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C86" t="str">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B87" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C87" t="str">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mohsin Khan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B88" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C88" t="str">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B89" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C89" t="str">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Shardul Thakur</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B90" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C90" t="str">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Rovman Powell</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B91" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C91" t="str">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Yash Dayal</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B92" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C92" t="str">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Liam Livingstone</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B93" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C93" t="str">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B94" t="str">
         <v>RR</v>
       </c>
       <c r="C94" t="str">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>MS Dhoni</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B95" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C95" t="str">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B96" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C96" t="str">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B97" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C97" t="str">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B98" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C98" t="str">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Quinton de Kock</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B99" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C99" t="str">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Krunal Pandya</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B100" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C100" t="str">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Noor Ahmad</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B101" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C101" t="str">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Rinku Singh</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B102" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C102" t="str">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B103" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C103" t="str">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B104" t="str">
         <v>LSG</v>
       </c>
       <c r="C104" t="str">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B105" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C105" t="str">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mayank Markande</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B106" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C106" t="str">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Swapnil Singh</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B107" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C107" t="str">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B108" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C108" t="str">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109">
@@ -1592,35 +1592,35 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B111" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C111" t="str">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Karn Sharma</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B112" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C112" t="str">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Yash Thakur</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B113" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
@@ -1636,24 +1636,24 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Moeen Ali</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B115" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C115" t="str">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B116" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C116" t="str">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
@@ -1669,10 +1669,10 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B118" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C118" t="str">
         <v>97</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Ishant Sharma</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B119" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C119" t="str">
-        <v>97</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
@@ -1702,24 +1702,24 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Mohit Sharma</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B121" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C121" t="str">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B122" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C122" t="str">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123">
@@ -1735,10 +1735,10 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Manish Pandey</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B124" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C124" t="str">
         <v>74</v>
@@ -1746,222 +1746,222 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B125" t="str">
         <v>CSK</v>
       </c>
       <c r="C125" t="str">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B126" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C126" t="str">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B127" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C127" t="str">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Akash Madhwal</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B128" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C128" t="str">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Mitchell Santner</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B129" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C129" t="str">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Deepak Chahar</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B130" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C130" t="str">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Vijay Shankar</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B131" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C131" t="str">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B132" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C132" t="str">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Shubham Dubey</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B133" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C133" t="str">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B134" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C134" t="str">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Mayank Yadav</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B135" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C135" t="str">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B136" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C136" t="str">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Anuj Rawat</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B137" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C137" t="str">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B138" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C138" t="str">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Sikandar Raza</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B139" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C139" t="str">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Spencer Johnson</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B140" t="str">
         <v>GT</v>
       </c>
       <c r="C140" t="str">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Sumit Kumar</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B141" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C141" t="str">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Matt Henry</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B142" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C142" t="str">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Arshad Khan</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B143" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C143" t="str">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B144" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C144" t="str">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
@@ -1977,21 +1977,21 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Luke Wood</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B146" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C146" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Anrich Nortje</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C147" t="str">
         <v>33</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B148" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C148" t="str">
         <v>33</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ashton Turner</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B149" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C149" t="str">
         <v>33</v>
@@ -2021,32 +2021,32 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Richard Gleeson</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B150" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C150" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Lizaad Williams</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B151" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C151" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B152" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C152" t="str">
         <v>32</v>
@@ -2054,46 +2054,46 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B153" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C153" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B154" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C154" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Amit Mishra</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B155" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C155" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B156" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C156" t="str">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -2120,98 +2120,98 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Reece Topley</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B159" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C159" t="str">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Sanvir Singh</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B160" t="str">
         <v>SRH</v>
       </c>
       <c r="C160" t="str">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B161" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C161" t="str">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Washington Sundar</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B162" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C162" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Naman Dhir</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B163" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C163" t="str">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Atharva Taide</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B164" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C164" t="str">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B165" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C165" t="str">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B166" t="str">
         <v>LSG</v>
       </c>
       <c r="C166" t="str">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Matthew Wade</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B167" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C167" t="str">
         <v>16</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B168" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C168" t="str">
         <v>16</v>
@@ -2241,79 +2241,79 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B170" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C170" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B171" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C171" t="str">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Lalit Yadav</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B172" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C172" t="str">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Anukul Roy</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B173" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C173" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Romario Shepherd</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B174" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C174" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B175" t="str">
         <v>DC</v>
       </c>
       <c r="C175" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B176" t="str">
         <v>KKR</v>
       </c>
       <c r="C176" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
@@ -2329,21 +2329,21 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B178" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C178" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Chris Woakes</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B179" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,24 +2351,24 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Nathan Ellis</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B180" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C180" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B181" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C181" t="str">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Navdeep Saini</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B183" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B185" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Yash Dhull</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B186" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Umran Malik</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B187" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B189" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B191" t="str">
         <v>MI</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B193" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Fazal Haque</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B194" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Dewald Brevis</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B195" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B197" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B198" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>M Siddharth</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B200" t="str">
         <v>LSG</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B202" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>SK Rasheed</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B203" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Swastik Chikara</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B204" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Mayank Dagar</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B205" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B206" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Shamar Joseph</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B207" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B211" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B212" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B214" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B215" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Prince Choudhary</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B216" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Prashant Solanki</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B217" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Praveen Dubey</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B218" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B219" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B220" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Sushant Mishra</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Jayant Yadav</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B222" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Chetan Sakariya</v>
+        <v>BR sharath</v>
       </c>
       <c r="B223" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B224" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>BR sharath</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B225" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Tom Curran</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B226" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Sakib Hussain</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B227" t="str">
         <v>KKR</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Akash Singh</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B228" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B229" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B230" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Harvik Desai</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B231" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B232" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Rajan Kumar</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B233" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Ricky Bhui</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B234" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Upendra Yadav</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B237" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B238" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Shivam Singh</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B239" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B240" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Srikar Bharat</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B241" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,21 +3033,21 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B242" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C242" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B243" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C243" t="str">
         <v>0</v>
@@ -3055,35 +3055,35 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Nandre Burger</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B245" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Manav Suthar</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B246" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C246" t="str">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="247">

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -410,29 +410,29 @@
         <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Travis Head</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B4" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C4" t="str">
-        <v>623</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Phil Salt</v>
+        <v>Travis Head</v>
       </c>
       <c r="B5" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C5" t="str">
-        <v>578</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6">
@@ -459,145 +459,145 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Virat Kohli</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B8" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C8" t="str">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B9" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C9" t="str">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Marcus Stoinis</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B10" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C10" t="str">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Sanju Samson</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B11" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C11" t="str">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Rishabh Pant</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B12" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C12" t="str">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Sam Curran</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B13" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C13" t="str">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B14" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C14" t="str">
-        <v>450</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Nithish Reddy</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B15" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C15" t="str">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Pat Cummins</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B16" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C16" t="str">
-        <v>424</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Axar Patel</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B17" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C17" t="str">
-        <v>423</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Tilak Varma</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B18" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C18" t="str">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Shashank Singh</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B19" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C19" t="str">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Hardik Pandya</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B20" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C20" t="str">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21">
@@ -613,376 +613,376 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B22" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C22" t="str">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B23" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C23" t="str">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Faf du Plessis</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B24" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C24" t="str">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B25" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C25" t="str">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B26" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C26" t="str">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Riyan Parag</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B27" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C27" t="str">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>T Natarajan</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B28" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C28" t="str">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Andre Russell</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B29" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C29" t="str">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Rajat Patidar</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B30" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C30" t="str">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B31" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C31" t="str">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B32" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C32" t="str">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B33" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C33" t="str">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B34" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C34" t="str">
-        <v>344</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Will Jacks</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B35" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C35" t="str">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shivam Dube</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B36" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C36" t="str">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B37" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C37" t="str">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Rohit Sharma</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B38" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C38" t="str">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Ishan Kishan</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B39" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C39" t="str">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B40" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C40" t="str">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B41" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C41" t="str">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Jos Buttler</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B42" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C42" t="str">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B43" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C43" t="str">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B44" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C44" t="str">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B45" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C45" t="str">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B46" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C46" t="str">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B47" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C47" t="str">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B48" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C48" t="str">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B49" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C49" t="str">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Cameron Green</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B50" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C50" t="str">
-        <v>289</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Harshit Rana</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B51" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C51" t="str">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B52" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C52" t="str">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Ayush Badoni</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B53" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C53" t="str">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Avesh Khan</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B54" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C54" t="str">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B55" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C55" t="str">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
@@ -998,79 +998,79 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Simran Singh</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B57" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C57" t="str">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B58" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C58" t="str">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B59" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C59" t="str">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Rashid Khan</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B60" t="str">
         <v>GT</v>
       </c>
       <c r="C60" t="str">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B61" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C61" t="str">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mohammed Siraj</v>
+        <v>David Miller</v>
       </c>
       <c r="B62" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C62" t="str">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B63" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C63" t="str">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64">
@@ -1086,13 +1086,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Piyush Chawla</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B65" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C65" t="str">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
@@ -1108,24 +1108,24 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Rasikh Dar</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B67" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C67" t="str">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B68" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C68" t="str">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69">
@@ -1141,13 +1141,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Rahul Chahar</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B70" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C70" t="str">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71">
@@ -1174,131 +1174,131 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B73" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C73" t="str">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Abdul Samad</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B74" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>214</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B75" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Harpreet Brar</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B76" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C76" t="str">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Swapnil Singh</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B77" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C77" t="str">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B78" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C78" t="str">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Karn Sharma</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B79" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C79" t="str">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Shubman Gill</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B80" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C80" t="str">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B81" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C81" t="str">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>David Miller</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B82" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C82" t="str">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B83" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C83" t="str">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shai Hope</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B84" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C84" t="str">
         <v>186</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Sai Kishore</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B85" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C85" t="str">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86">
@@ -1328,131 +1328,131 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B87" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C87" t="str">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B88" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C88" t="str">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Noor Ahmad</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B89" t="str">
         <v>GT</v>
       </c>
       <c r="C89" t="str">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Deepak Hooda</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B90" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C90" t="str">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B91" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C91" t="str">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Liam Livingstone</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B92" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C92" t="str">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohsin Khan</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B93" t="str">
         <v>LSG</v>
       </c>
       <c r="C93" t="str">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rovman Powell</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B94" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C94" t="str">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Yash Dayal</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B95" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C95" t="str">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B96" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C96" t="str">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B97" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C97" t="str">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Shardul Thakur</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B98" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C98" t="str">
         <v>156</v>
@@ -1460,21 +1460,21 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B99" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C99" t="str">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>MS Dhoni</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B100" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C100" t="str">
         <v>154</v>
@@ -1482,46 +1482,46 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B101" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C101" t="str">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B102" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C102" t="str">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B103" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C103" t="str">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Quinton de Kock</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B104" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C104" t="str">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
@@ -1554,191 +1554,191 @@
         <v>CSK</v>
       </c>
       <c r="C107" t="str">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Mayank Markande</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B108" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C108" t="str">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B109" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C109" t="str">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Aiden Markram</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B110" t="str">
         <v>SRH</v>
       </c>
       <c r="C110" t="str">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B111" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C111" t="str">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B112" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C112" t="str">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Moeen Ali</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C113" t="str">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B114" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C114" t="str">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B115" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B116" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C116" t="str">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Joshua Little</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B117" t="str">
         <v>GT</v>
       </c>
       <c r="C117" t="str">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ishant Sharma</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B118" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C118" t="str">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Yash Thakur</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B119" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C119" t="str">
-        <v>139</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B120" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C120" t="str">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Manish Pandey</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B121" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C121" t="str">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Mohit Sharma</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B122" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Marco Jansen</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B123" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C123" t="str">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B124" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C124" t="str">
         <v>74</v>
@@ -1746,233 +1746,233 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B125" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C125" t="str">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B126" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C126" t="str">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B127" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C127" t="str">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Vijay Shankar</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B128" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C128" t="str">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B129" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C129" t="str">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Shubham Dubey</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B130" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C130" t="str">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B131" t="str">
         <v>CSK</v>
       </c>
       <c r="C131" t="str">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Mayank Yadav</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B132" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C132" t="str">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B133" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C133" t="str">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Anuj Rawat</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B134" t="str">
         <v>RCB</v>
       </c>
       <c r="C134" t="str">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B135" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C135" t="str">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sikandar Raza</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B136" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C136" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Spencer Johnson</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B137" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C137" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Harpreet Singh</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B138" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C138" t="str">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Arshad Khan</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B139" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C139" t="str">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B140" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C140" t="str">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Deepak Chahar</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B141" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C141" t="str">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Akash Madhwal</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B142" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C142" t="str">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Mitchell Santner</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B143" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C143" t="str">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Sumit Kumar</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B144" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C144" t="str">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>David Warner</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B145" t="str">
         <v>DC</v>
       </c>
       <c r="C145" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
@@ -1988,32 +1988,32 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ashton Turner</v>
+        <v>David Warner</v>
       </c>
       <c r="B147" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Anrich Nortje</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B148" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C148" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B149" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C149" t="str">
         <v>33</v>
@@ -2021,21 +2021,21 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B150" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C150" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Richard Gleeson</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B151" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C151" t="str">
         <v>33</v>
@@ -2054,35 +2054,35 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Luke Wood</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B153" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C153" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Amit Mishra</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B154" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C154" t="str">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B155" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C155" t="str">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
@@ -2098,153 +2098,153 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Akash Deep</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B157" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C157" t="str">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Umesh Yadav</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B158" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C158" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Sanvir Singh</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B159" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C159" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Washington Sundar</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B160" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C160" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B161" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C161" t="str">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B162" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C162" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Atharva Taide</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B163" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C163" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Naman Dhir</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B164" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C164" t="str">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Reece Topley</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B165" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C165" t="str">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B166" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C166" t="str">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B167" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C167" t="str">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Matthew Wade</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B168" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C168" t="str">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B169" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C169" t="str">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B170" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C170" t="str">
         <v>16</v>
@@ -2252,57 +2252,57 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B171" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C171" t="str">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B172" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C172" t="str">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Lalit Yadav</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B173" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C173" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B174" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C174" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B175" t="str">
         <v>DC</v>
       </c>
       <c r="C175" t="str">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
@@ -2318,10 +2318,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Kane Williamson</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B177" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C177" t="str">
         <v>0</v>
@@ -2340,32 +2340,32 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B179" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C179" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Romario Shepherd</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B180" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C180" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Navdeep Saini</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B181" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B182" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Nathan Ellis</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B183" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B184" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Chris Woakes</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B185" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Fazal Haque</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B186" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B187" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Nitish Rana</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B188" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Yash Dhull</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B189" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Kyle Mayers</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B190" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B191" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Jhye Richardson</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B192" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B193" t="str">
         <v>MI</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B194" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Umran Malik</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B195" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B196" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B197" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Praveen Dubey</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B198" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B199" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Shamar Joseph</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B200" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Glenn Phillips</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B201" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Dewald Brevis</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B202" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>SK Rasheed</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B204" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Swastik Chikara</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B205" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Mayank Dagar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B206" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B207" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Prerak Mankad</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B208" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B209" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B210" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B211" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B212" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Shams Mulani</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B213" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B214" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B215" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B216" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Prashant Solanki</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B219" t="str">
         <v>CSK</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B220" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B221" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Prince Choudhary</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B222" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>BR sharath</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B223" t="str">
         <v>GT</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Tom Curran</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B224" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Harvik Desai</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B225" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B227" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B228" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Akash Singh</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B230" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajan Kumar</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B231" t="str">
         <v>RCB</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Ricky Bhui</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B232" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B233" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>M Siddharth</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B234" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B235" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B236" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Shivam Singh</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B237" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B239" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Upendra Yadav</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B240" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,65 +3022,65 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B241" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C241" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Srikar Bharat</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B242" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Nandre Burger</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B243" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C243" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Manav Suthar</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B244" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>BR sharath</v>
       </c>
       <c r="B245" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Suyash Sharma</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B246" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C246" t="str">
         <v>-2</v>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B247" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C247" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,7 +399,7 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>875</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3">
@@ -410,29 +410,29 @@
         <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>649</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Phil Salt</v>
+        <v>Travis Head</v>
       </c>
       <c r="B4" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C4" t="str">
-        <v>578</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Travis Head</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B5" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C5" t="str">
-        <v>623</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6">
@@ -459,662 +459,662 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B8" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C8" t="str">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Virat Kohli</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B9" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C9" t="str">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B10" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C10" t="str">
-        <v>476</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Sam Curran</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B11" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C11" t="str">
-        <v>458</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sanju Samson</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B12" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C12" t="str">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rishabh Pant</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B13" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C13" t="str">
-        <v>461</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Marcus Stoinis</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B14" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C14" t="str">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B15" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C15" t="str">
-        <v>450</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B16" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C16" t="str">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Nithish Reddy</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B17" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C17" t="str">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Pat Cummins</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B18" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C18" t="str">
-        <v>424</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Tilak Varma</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B19" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C19" t="str">
-        <v>421</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Axar Patel</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B20" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C20" t="str">
-        <v>423</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B21" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C21" t="str">
-        <v>416</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B22" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C22" t="str">
-        <v>413</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Shashank Singh</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B23" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C23" t="str">
-        <v>417</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Hardik Pandya</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B24" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C24" t="str">
-        <v>417</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Faf du Plessis</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B25" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C25" t="str">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B26" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C26" t="str">
-        <v>396</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B27" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C27" t="str">
-        <v>391</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Riyan Parag</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B28" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C28" t="str">
-        <v>386</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Shivam Dube</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B29" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C29" t="str">
-        <v>381</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B30" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C30" t="str">
-        <v>372</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rajat Patidar</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B31" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C31" t="str">
-        <v>363</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B32" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C32" t="str">
-        <v>358</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B33" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C33" t="str">
-        <v>354</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B34" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C34" t="str">
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Andre Russell</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B35" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C35" t="str">
-        <v>368</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>T Natarajan</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B36" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C36" t="str">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Shubman Gill</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B37" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C37" t="str">
-        <v>349</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Will Jacks</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B38" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C38" t="str">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B39" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C39" t="str">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B40" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C40" t="str">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Dinesh Karthik</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B41" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C41" t="str">
-        <v>344</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Ishan Kishan</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B42" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C42" t="str">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B43" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C43" t="str">
-        <v>334</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Rohit Sharma</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B44" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C44" t="str">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Mitchell Starc</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B45" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C45" t="str">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Rashid Khan</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B46" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C46" t="str">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Jos Buttler</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B47" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C47" t="str">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B48" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C48" t="str">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B49" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C49" t="str">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B50" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C50" t="str">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B51" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C51" t="str">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Harshit Rana</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B52" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C52" t="str">
-        <v>283</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Cameron Green</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B53" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C53" t="str">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Ayush Badoni</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B54" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C54" t="str">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B55" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C55" t="str">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Abhishek Porel</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B56" t="str">
         <v>DC</v>
       </c>
       <c r="C56" t="str">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B57" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C57" t="str">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Avesh Khan</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B58" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C58" t="str">
-        <v>279</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Simran Singh</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B59" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C59" t="str">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B60" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C60" t="str">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B61" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C61" t="str">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>David Miller</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B62" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C62" t="str">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B63" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C63" t="str">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B64" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C64" t="str">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rasikh Dar</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B65" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C65" t="str">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Tim David</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B66" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C66" t="str">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Piyush Chawla</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B67" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C67" t="str">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68">
@@ -1130,296 +1130,296 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Trent Boult</v>
+        <v>David Miller</v>
       </c>
       <c r="B69" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C69" t="str">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B70" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C70" t="str">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B71" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Tim David</v>
       </c>
       <c r="B72" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C72" t="str">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Abdul Samad</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B73" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C73" t="str">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B74" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C74" t="str">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Rahul Chahar</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B75" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C75" t="str">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B76" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C76" t="str">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B77" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C77" t="str">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Karn Sharma</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B78" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C78" t="str">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B79" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C79" t="str">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>MS Dhoni</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B80" t="str">
         <v>CSK</v>
       </c>
       <c r="C80" t="str">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Moeen Ali</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B81" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C81" t="str">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Harpreet Brar</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B82" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C82" t="str">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B83" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C83" t="str">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Noor Ahmad</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B84" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C84" t="str">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B85" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C85" t="str">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B86" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C86" t="str">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Swapnil Singh</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B87" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C87" t="str">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Sai Kishore</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B88" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C88" t="str">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mohit Sharma</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B89" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C89" t="str">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B90" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C90" t="str">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Vaibhav Arora</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B91" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C91" t="str">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B92" t="str">
         <v>RR</v>
       </c>
       <c r="C92" t="str">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B93" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C93" t="str">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mohsin Khan</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B94" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C94" t="str">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Shai Hope</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B95" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C95" t="str">
         <v>186</v>
@@ -1427,178 +1427,178 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Shardul Thakur</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B96" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C96" t="str">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Liam Livingstone</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B97" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C97" t="str">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Rovman Powell</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B98" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C98" t="str">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B99" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C99" t="str">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B100" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B101" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C101" t="str">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Yash Dayal</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B102" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C102" t="str">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Deepak Hooda</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B103" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C103" t="str">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B104" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C104" t="str">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Krunal Pandya</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B105" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C105" t="str">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Rinku Singh</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B106" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C106" t="str">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B107" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C107" t="str">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Quinton de Kock</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B108" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C108" t="str">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Yash Thakur</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B109" t="str">
         <v>LSG</v>
       </c>
       <c r="C109" t="str">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Mayank Markande</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B110" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C110" t="str">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B111" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C111" t="str">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
@@ -1614,123 +1614,123 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B113" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C113" t="str">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B114" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C114" t="str">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B115" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C115" t="str">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Aiden Markram</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B116" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C116" t="str">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B117" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C117" t="str">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Joshua Little</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B118" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C118" t="str">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B119" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C119" t="str">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B120" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C120" t="str">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Ishant Sharma</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B121" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B122" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C122" t="str">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B123" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C123" t="str">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124">
@@ -1741,29 +1741,29 @@
         <v>RCB</v>
       </c>
       <c r="C124" t="str">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Manish Pandey</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B125" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C125" t="str">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Akash Madhwal</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B126" t="str">
         <v>MI</v>
       </c>
       <c r="C126" t="str">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
@@ -1779,263 +1779,263 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B128" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C128" t="str">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Umesh Yadav</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B129" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C129" t="str">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B130" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C130" t="str">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Deepak Chahar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B131" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C131" t="str">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Vijay Shankar</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B132" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C132" t="str">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Mitchell Santner</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B133" t="str">
         <v>CSK</v>
       </c>
       <c r="C133" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B134" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C134" t="str">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Shubham Dubey</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B135" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C135" t="str">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B136" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C136" t="str">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Mayank Yadav</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B137" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C137" t="str">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B138" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C138" t="str">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Anuj Rawat</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B139" t="str">
         <v>RCB</v>
       </c>
       <c r="C139" t="str">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B140" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C140" t="str">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Sikandar Raza</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B141" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C141" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Spencer Johnson</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B142" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C142" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B143" t="str">
         <v>PBKS</v>
       </c>
       <c r="C143" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Arshad Khan</v>
+        <v>David Warner</v>
       </c>
       <c r="B144" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C144" t="str">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Sumit Kumar</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B145" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C145" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Matt Henry</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B146" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C146" t="str">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>David Warner</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C147" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Luke Wood</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B148" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C148" t="str">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Anrich Nortje</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B149" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C149" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Ashton Turner</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B150" t="str">
         <v>LSG</v>
       </c>
       <c r="C150" t="str">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B151" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C151" t="str">
         <v>33</v>
@@ -2043,142 +2043,142 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Lizaad Williams</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B152" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C152" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Richard Gleeson</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B153" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Reece Topley</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B154" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C154" t="str">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B155" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C155" t="str">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B156" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C156" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B157" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C157" t="str">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Amit Mishra</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B158" t="str">
         <v>LSG</v>
       </c>
       <c r="C158" t="str">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B159" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C159" t="str">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Akash Deep</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B160" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C160" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Sanvir Singh</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B161" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C161" t="str">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Washington Sundar</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B162" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C162" t="str">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B163" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C163" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B164" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C164" t="str">
         <v>22</v>
@@ -2186,112 +2186,112 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Atharva Taide</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B165" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C165" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Matthew Wade</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B166" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C166" t="str">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Naman Dhir</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B167" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C167" t="str">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B168" t="str">
         <v>SRH</v>
       </c>
       <c r="C168" t="str">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B169" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C169" t="str">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B170" t="str">
         <v>SRH</v>
       </c>
       <c r="C170" t="str">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B171" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C171" t="str">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B172" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C172" t="str">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B173" t="str">
         <v>SRH</v>
       </c>
       <c r="C173" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B174" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C174" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -2318,43 +2318,43 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B177" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C177" t="str">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B178" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C178" t="str">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Romario Shepherd</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B179" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C179" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Nathan Ellis</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B180" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Chris Woakes</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B181" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,21 +2373,21 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B182" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C182" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Kane Williamson</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B183" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C183" t="str">
         <v>0</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B184" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Kyle Mayers</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B185" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Yash Dhull</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B186" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Umran Malik</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B187" t="str">
         <v>SRH</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B188" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Fazal Haque</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B189" t="str">
         <v>SRH</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B190" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B191" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Navdeep Saini</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B192" t="str">
         <v>RR</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B193" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Jhye Richardson</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B194" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B195" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Praveen Dubey</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B196" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Nitish Rana</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B197" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B199" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B200" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>M Siddharth</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B201" t="str">
         <v>LSG</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Glenn Phillips</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B202" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B203" t="str">
         <v>RR</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Jason Behrendorff</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B204" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>SK Rasheed</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B205" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B206" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Swastik Chikara</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B207" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B208" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Shamar Joseph</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B209" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Mayank Dagar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B210" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Ajay Mandal</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B211" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Prerak Mankad</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B212" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B213" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Shams Mulani</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B214" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B215" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Prashant Solanki</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B216" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B217" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Jayant Yadav</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B218" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B219" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Prince Choudhary</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B220" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B221" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B222" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Sushant Mishra</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B223" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Harvik Desai</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B224" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B225" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Sakib Hussain</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B226" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B227" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Ricky Bhui</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B230" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B231" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Shivam Singh</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B232" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B233" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Abid Mushtaq</v>
+        <v>BR sharath</v>
       </c>
       <c r="B234" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B235" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Upendra Yadav</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B236" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Tom Curran</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B237" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B238" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Srikar Bharat</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B239" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Nandre Burger</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B240" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,35 +3022,35 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Manav Suthar</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B241" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C241" t="str">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B242" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C242" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B243" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C243" t="str">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
@@ -3066,21 +3066,21 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>BR sharath</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B245" t="str">
         <v>GT</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B246" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C246" t="str">
         <v>-2</v>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B247" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C247" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Travis Head</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B4" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C4" t="str">
-        <v>623</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Phil Salt</v>
+        <v>Travis Head</v>
       </c>
       <c r="B5" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C5" t="str">
-        <v>604</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6">
@@ -443,221 +443,221 @@
         <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>569</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Harshal Patel</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B7" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C7" t="str">
-        <v>556</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Axar Patel</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B8" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C8" t="str">
-        <v>521</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B9" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C9" t="str">
-        <v>512</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Virat Kohli</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B10" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C10" t="str">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B11" t="str">
         <v>MI</v>
       </c>
       <c r="C11" t="str">
-        <v>539</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Tilak Varma</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B12" t="str">
         <v>MI</v>
       </c>
       <c r="C12" t="str">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Sanju Samson</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B13" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C13" t="str">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B14" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C14" t="str">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Marcus Stoinis</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B15" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C15" t="str">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Rishabh Pant</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B16" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C16" t="str">
-        <v>461</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B17" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C17" t="str">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B18" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C18" t="str">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Sam Curran</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B19" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C19" t="str">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Riyan Parag</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B20" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C20" t="str">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Andre Russell</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B21" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C21" t="str">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Nithish Reddy</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B22" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C22" t="str">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B23" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C23" t="str">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Rajat Patidar</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B24" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C24" t="str">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B25" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C25" t="str">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B26" t="str">
         <v>DC</v>
@@ -679,211 +679,211 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Faf du Plessis</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B28" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C28" t="str">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Hardik Pandya</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B29" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C29" t="str">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B30" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C30" t="str">
-        <v>420</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Shivam Dube</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B31" t="str">
         <v>CSK</v>
       </c>
       <c r="C31" t="str">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Will Jacks</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B32" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C32" t="str">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Ishan Kishan</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B33" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C33" t="str">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B34" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C34" t="str">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Shashank Singh</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B35" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C35" t="str">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B36" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C36" t="str">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B37" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C37" t="str">
-        <v>382</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B38" t="str">
         <v>DC</v>
       </c>
       <c r="C38" t="str">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Cameron Green</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B39" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C39" t="str">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Shubman Gill</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B40" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C40" t="str">
-        <v>349</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>T Natarajan</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B41" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C41" t="str">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B42" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C42" t="str">
-        <v>334</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Rohit Sharma</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B43" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C43" t="str">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Harshit Rana</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B44" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C44" t="str">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B45" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C45" t="str">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B46" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C46" t="str">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
@@ -899,222 +899,222 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mitchell Starc</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B48" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C48" t="str">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B49" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C49" t="str">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rashid Khan</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B50" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C50" t="str">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B51" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C51" t="str">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Jos Buttler</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B52" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C52" t="str">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Abhishek Porel</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B53" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C53" t="str">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Avesh Khan</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B54" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C54" t="str">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rasikh Dar</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B55" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C55" t="str">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B56" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C56" t="str">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Piyush Chawla</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B57" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C57" t="str">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B58" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C58" t="str">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B59" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C59" t="str">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Ayush Badoni</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B60" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C60" t="str">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B61" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C61" t="str">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B62" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C62" t="str">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B63" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C63" t="str">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Yash Dayal</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B64" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C64" t="str">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Simran Singh</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B65" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C65" t="str">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B66" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C66" t="str">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B67" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C67" t="str">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68">
@@ -1152,21 +1152,21 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Shai Hope</v>
+        <v>Tim David</v>
       </c>
       <c r="B71" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C71" t="str">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Tim David</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B72" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C72" t="str">
         <v>228</v>
@@ -1174,79 +1174,79 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Karn Sharma</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B73" t="str">
         <v>RCB</v>
       </c>
       <c r="C73" t="str">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Trent Boult</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B74" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C74" t="str">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B75" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Swapnil Singh</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B76" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C76" t="str">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B77" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C77" t="str">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Rahul Chahar</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B78" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C78" t="str">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B79" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C79" t="str">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80">
@@ -1262,626 +1262,626 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B81" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C81" t="str">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B82" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C82" t="str">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Moeen Ali</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B83" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C83" t="str">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Abdul Samad</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B84" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C84" t="str">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B85" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C85" t="str">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Rahul Tewatia</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B86" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C86" t="str">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B87" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C87" t="str">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B88" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C88" t="str">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Harpreet Brar</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B89" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C89" t="str">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Rinku Singh</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B90" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C90" t="str">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>MS Dhoni</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B91" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C91" t="str">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B92" t="str">
         <v>RR</v>
       </c>
       <c r="C92" t="str">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B93" t="str">
         <v>PBKS</v>
       </c>
       <c r="C93" t="str">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B94" t="str">
         <v>KKR</v>
       </c>
       <c r="C94" t="str">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Noor Ahmad</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B95" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C95" t="str">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Sai Kishore</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B96" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C96" t="str">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Shardul Thakur</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B97" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C97" t="str">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Deepak Hooda</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B98" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C98" t="str">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B99" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C99" t="str">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Mohsin Khan</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B100" t="str">
         <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Mohit Sharma</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B101" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C101" t="str">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B102" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C102" t="str">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B103" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C103" t="str">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B104" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C104" t="str">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B105" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C105" t="str">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Liam Livingstone</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B106" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C106" t="str">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Rovman Powell</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B107" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C107" t="str">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B108" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C108" t="str">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Quinton de Kock</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B109" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Krunal Pandya</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B110" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C110" t="str">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B111" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C111" t="str">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B112" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C112" t="str">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Yash Thakur</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B113" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Mayank Markande</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B114" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C114" t="str">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B115" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C115" t="str">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B116" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C116" t="str">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ishant Sharma</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B117" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C117" t="str">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Aiden Markram</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B118" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C118" t="str">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B119" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C119" t="str">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B120" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C120" t="str">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C121" t="str">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B122" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C122" t="str">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Joshua Little</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B123" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C123" t="str">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B124" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C124" t="str">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B125" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C125" t="str">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B126" t="str">
         <v>MI</v>
       </c>
       <c r="C126" t="str">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Marco Jansen</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B127" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C127" t="str">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Manish Pandey</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B128" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C128" t="str">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B129" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C129" t="str">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Akash Madhwal</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B130" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C130" t="str">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Umesh Yadav</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B131" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C131" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B132" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C132" t="str">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Deepak Chahar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B133" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C133" t="str">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Mitchell Santner</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B134" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C134" t="str">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Vijay Shankar</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B135" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C135" t="str">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Nitish Rana</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B136" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C136" t="str">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B137" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C137" t="str">
         <v>49</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B139" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C139" t="str">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140">
@@ -1922,54 +1922,54 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Anuj Rawat</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B141" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C141" t="str">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Mayank Yadav</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B142" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C142" t="str">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Sikandar Raza</v>
+        <v>David Warner</v>
       </c>
       <c r="B143" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C143" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>David Warner</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B144" t="str">
         <v>DC</v>
       </c>
       <c r="C144" t="str">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Spencer Johnson</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B145" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C145" t="str">
         <v>38</v>
@@ -1977,35 +1977,35 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Harpreet Singh</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B146" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C146" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Matt Henry</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B147" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C147" t="str">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Sumit Kumar</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B148" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C148" t="str">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149">
@@ -2021,13 +2021,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Arshad Khan</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B150" t="str">
         <v>LSG</v>
       </c>
       <c r="C150" t="str">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
@@ -2043,32 +2043,32 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B152" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C152" t="str">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Lizaad Williams</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B153" t="str">
         <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Richard Gleeson</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B154" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C154" t="str">
         <v>33</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B155" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C155" t="str">
         <v>32</v>
@@ -2087,79 +2087,79 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Reece Topley</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B156" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C156" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Nandre Burger</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B157" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C157" t="str">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Ashton Turner</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B158" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C158" t="str">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B159" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C159" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B160" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C160" t="str">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Amit Mishra</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B161" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C161" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B162" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C162" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163">
@@ -2175,13 +2175,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B164" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C164" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165">
@@ -2208,57 +2208,57 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Matthew Wade</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B167" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C167" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Sanvir Singh</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B168" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C168" t="str">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B169" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C169" t="str">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B170" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C170" t="str">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Atharva Taide</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B171" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C171" t="str">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -2285,65 +2285,65 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B174" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C174" t="str">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Lalit Yadav</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B175" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C175" t="str">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Anukul Roy</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B176" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C176" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B177" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C177" t="str">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B178" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C178" t="str">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B179" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C179" t="str">
         <v>0</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Kane Williamson</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B180" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C180" t="str">
         <v>0</v>
@@ -2362,10 +2362,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B181" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C181" t="str">
         <v>0</v>
@@ -2373,18 +2373,18 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Romario Shepherd</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B182" t="str">
         <v>MI</v>
       </c>
       <c r="C182" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Nathan Ellis</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B183" t="str">
         <v>PBKS</v>
@@ -2395,10 +2395,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Navdeep Saini</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B184" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B185" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B186" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C186" t="str">
         <v>0</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Fazal Haque</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B187" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Kyle Mayers</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B188" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Umran Malik</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B189" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Yash Dhull</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B190" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,21 +2472,21 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B191" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C191" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B192" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Jhye Richardson</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B193" t="str">
         <v>DC</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B194" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B195" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Chris Woakes</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B196" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B197" t="str">
         <v>MI</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Dewald Brevis</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B198" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Praveen Dubey</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B199" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B200" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B202" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B203" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>M Siddharth</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B204" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Swastik Chikara</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B205" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B206" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>SK Rasheed</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B207" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Glenn Phillips</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B208" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B209" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B210" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Mayank Dagar</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B211" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B212" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B213" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B214" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Shams Mulani</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B215" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Prince Choudhary</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B217" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B218" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B219" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B220" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Jayant Yadav</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Tom Curran</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B223" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B224" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Sakib Hussain</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B225" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B226" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B227" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Rajan Kumar</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B228" t="str">
         <v>RCB</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Harvik Desai</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B230" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Ricky Bhui</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B231" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B232" t="str">
         <v>RCB</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Shivam Singh</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B233" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>BR sharath</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B234" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B235" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>BR sharath</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B237" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Prerak Mankad</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B238" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Ajay Mandal</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B239" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B241" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C241" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="242">
@@ -3055,21 +3055,21 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B245" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
         <v>-2</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B246" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C246" t="str">
         <v>-2</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Suyash Sharma</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B247" t="str">
         <v>KKR</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -415,123 +415,123 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Phil Salt</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B4" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C4" t="str">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Travis Head</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B5" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C5" t="str">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KL Rahul</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B6" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C6" t="str">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Axar Patel</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B7" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C7" t="str">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Harshal Patel</v>
+        <v>Travis Head</v>
       </c>
       <c r="B8" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C8" t="str">
-        <v>556</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Virat Kohli</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B9" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C9" t="str">
-        <v>552</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rishabh Pant</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B10" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C10" t="str">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B11" t="str">
         <v>MI</v>
       </c>
       <c r="C11" t="str">
-        <v>512</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B12" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C12" t="str">
-        <v>539</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Tilak Varma</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B13" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C13" t="str">
-        <v>486</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B14" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C14" t="str">
-        <v>482</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15">
@@ -547,90 +547,90 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Sanju Samson</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B16" t="str">
         <v>RR</v>
       </c>
       <c r="C16" t="str">
-        <v>483</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sam Curran</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B17" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C17" t="str">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Riyan Parag</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B18" t="str">
         <v>RR</v>
       </c>
       <c r="C18" t="str">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B19" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C19" t="str">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Andre Russell</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B20" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C20" t="str">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Nithish Reddy</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B21" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C21" t="str">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B22" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C22" t="str">
-        <v>460</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Rajat Patidar</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B23" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C23" t="str">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24">
@@ -668,90 +668,90 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Pat Cummins</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B27" t="str">
         <v>SRH</v>
       </c>
       <c r="C27" t="str">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Hardik Pandya</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B28" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C28" t="str">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B29" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C29" t="str">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B30" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C30" t="str">
-        <v>475</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B31" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C31" t="str">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Shashank Singh</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B32" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C32" t="str">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Will Jacks</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B33" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C33" t="str">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Shivam Dube</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B34" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C34" t="str">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35">
@@ -767,13 +767,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B36" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C36" t="str">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37">
@@ -822,90 +822,90 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Nicholas Pooran</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B41" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C41" t="str">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B42" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C42" t="str">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B43" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C43" t="str">
-        <v>354</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Shubman Gill</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B44" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C44" t="str">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Rohit Sharma</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B45" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C45" t="str">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>T Natarajan</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B46" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C46" t="str">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B47" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C47" t="str">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B48" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C48" t="str">
-        <v>334</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49">
@@ -921,109 +921,109 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B50" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C50" t="str">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Harshit Rana</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B51" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C51" t="str">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B52" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C52" t="str">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B53" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C53" t="str">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B54" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C54" t="str">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rashid Khan</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B55" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C55" t="str">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B56" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C56" t="str">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B57" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C57" t="str">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rasikh Dar</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B58" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C58" t="str">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Ayush Badoni</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B59" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C59" t="str">
         <v>288</v>
@@ -1031,222 +1031,222 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Avesh Khan</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B60" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C60" t="str">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shai Hope</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B61" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C61" t="str">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Piyush Chawla</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B62" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C62" t="str">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B63" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C63" t="str">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B64" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C64" t="str">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Yash Dayal</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B65" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C65" t="str">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Simran Singh</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B66" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C66" t="str">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B67" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C67" t="str">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B68" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C68" t="str">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>David Miller</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B69" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C69" t="str">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B70" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C70" t="str">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Tim David</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B71" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C71" t="str">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Karn Sharma</v>
+        <v>David Miller</v>
       </c>
       <c r="B72" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C72" t="str">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Swapnil Singh</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B73" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C73" t="str">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B74" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>216</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Rahul Chahar</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B75" t="str">
         <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B76" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C76" t="str">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Trent Boult</v>
+        <v>Tim David</v>
       </c>
       <c r="B77" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C77" t="str">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B78" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C78" t="str">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B79" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C79" t="str">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -1273,24 +1273,24 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B82" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C82" t="str">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Abdul Samad</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B83" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C83" t="str">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84">
@@ -1317,13 +1317,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>MS Dhoni</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B86" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C86" t="str">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87">
@@ -1339,21 +1339,21 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B88" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C88" t="str">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B89" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C89" t="str">
         <v>206</v>
@@ -1361,21 +1361,21 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B90" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C90" t="str">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B91" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C91" t="str">
         <v>197</v>
@@ -1383,35 +1383,35 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B92" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C92" t="str">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Harpreet Brar</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B93" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C93" t="str">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rinku Singh</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B94" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C94" t="str">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -1427,101 +1427,101 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B96" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C96" t="str">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Noor Ahmad</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B97" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C97" t="str">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Sai Kishore</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B98" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C98" t="str">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Shardul Thakur</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B99" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C99" t="str">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Deepak Hooda</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B100" t="str">
         <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B101" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C101" t="str">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Mohit Sharma</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B102" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C102" t="str">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Krunal Pandya</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B103" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C103" t="str">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B104" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C104" t="str">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
@@ -1537,167 +1537,167 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B106" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C106" t="str">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohsin Khan</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B107" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C107" t="str">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B108" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C108" t="str">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B109" t="str">
         <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Rovman Powell</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B110" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C110" t="str">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B111" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C111" t="str">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Liam Livingstone</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B112" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C112" t="str">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C113" t="str">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Yash Thakur</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B114" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C114" t="str">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Arshad Khan</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B115" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C115" t="str">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mayank Markande</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B116" t="str">
         <v>SRH</v>
       </c>
       <c r="C116" t="str">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Aiden Markram</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B117" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C117" t="str">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B118" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C118" t="str">
-        <v>122</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B119" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C119" t="str">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B120" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C120" t="str">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121">
@@ -1746,134 +1746,134 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B125" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C125" t="str">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B126" t="str">
         <v>MI</v>
       </c>
       <c r="C126" t="str">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B127" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C127" t="str">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B128" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C128" t="str">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Marco Jansen</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B129" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C129" t="str">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Manish Pandey</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B130" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C130" t="str">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Akash Madhwal</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B131" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C131" t="str">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Mitchell Santner</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B132" t="str">
         <v>CSK</v>
       </c>
       <c r="C132" t="str">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Umesh Yadav</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B133" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C133" t="str">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B134" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C134" t="str">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B135" t="str">
         <v>CSK</v>
       </c>
       <c r="C135" t="str">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Vijay Shankar</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B136" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C136" t="str">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
@@ -1889,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Shubham Dubey</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B138" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C138" t="str">
         <v>49</v>
@@ -1900,24 +1900,24 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B139" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C139" t="str">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Naman Dhir</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B140" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C140" t="str">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141">
@@ -1944,21 +1944,21 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>David Warner</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B143" t="str">
         <v>DC</v>
       </c>
       <c r="C143" t="str">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B144" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C144" t="str">
         <v>38</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Sikandar Raza</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B145" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C145" t="str">
         <v>38</v>
@@ -1977,46 +1977,46 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Spencer Johnson</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B146" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C146" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Deepak Chahar</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B147" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C147" t="str">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Glenn Maxwell</v>
+        <v>David Warner</v>
       </c>
       <c r="B148" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C148" t="str">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Luke Wood</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B149" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C149" t="str">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
@@ -2032,35 +2032,35 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Anrich Nortje</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B151" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C151" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B152" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C152" t="str">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Sumit Kumar</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B153" t="str">
         <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
@@ -2076,200 +2076,200 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B155" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C155" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B156" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C156" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Reece Topley</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B157" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C157" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Nandre Burger</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B158" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C158" t="str">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Richard Gleeson</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B159" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C159" t="str">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Ashton Turner</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B160" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C160" t="str">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B161" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C161" t="str">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Amit Mishra</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B162" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C162" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Akash Deep</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B163" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C163" t="str">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Sanvir Singh</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B164" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C164" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B165" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C165" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Washington Sundar</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B166" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C166" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B167" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C167" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B168" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C168" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Atharva Taide</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B169" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C169" t="str">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Matthew Wade</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B170" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C170" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B171" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C171" t="str">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B172" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C172" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -2285,68 +2285,68 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B174" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C174" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B175" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C175" t="str">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B176" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C176" t="str">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Lalit Yadav</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B177" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C177" t="str">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Romario Shepherd</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B178" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C178" t="str">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B179" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C179" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -2362,21 +2362,21 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Kane Williamson</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B181" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C181" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B182" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C182" t="str">
         <v>0</v>
@@ -2384,18 +2384,18 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Chris Woakes</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B183" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C183" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Nathan Ellis</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B184" t="str">
         <v>PBKS</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Anukul Roy</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B191" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C191" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Yash Dhull</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B193" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B200" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Shamar Joseph</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B201" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B202" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>M Siddharth</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B203" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Glenn Phillips</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B204" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B205" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B207" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>SK Rasheed</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B208" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Swastik Chikara</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B209" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Ajay Mandal</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B210" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Prerak Mankad</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B211" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B212" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B213" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B214" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B216" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B217" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Shams Mulani</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B218" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B219" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Prince Choudhary</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B220" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B221" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Prashant Solanki</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B222" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Jayant Yadav</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B223" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Sakib Hussain</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B224" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B225" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Sushant Mishra</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B226" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Akash Singh</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B227" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Tom Curran</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B228" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B229" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B230" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajan Kumar</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B232" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B233" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Shivam Singh</v>
+        <v>BR sharath</v>
       </c>
       <c r="B235" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>BR sharath</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B236" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B238" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B241" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C241" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -3055,13 +3055,13 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B244" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C244" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -410,40 +410,40 @@
         <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Harshal Patel</v>
+        <v>Travis Head</v>
       </c>
       <c r="B4" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C4" t="str">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Sam Curran</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B5" t="str">
         <v>PBKS</v>
       </c>
       <c r="C5" t="str">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Phil Salt</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B6" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C6" t="str">
-        <v>604</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7">
@@ -454,326 +454,326 @@
         <v>LSG</v>
       </c>
       <c r="C7" t="str">
-        <v>587</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Travis Head</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B8" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C8" t="str">
-        <v>623</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Axar Patel</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B9" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C9" t="str">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Virat Kohli</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B10" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C10" t="str">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B11" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>539</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Sanju Samson</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B12" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C12" t="str">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rishabh Pant</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B13" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C13" t="str">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B14" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C14" t="str">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B15" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C15" t="str">
-        <v>476</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Riyan Parag</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B16" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C16" t="str">
-        <v>538</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B17" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C17" t="str">
-        <v>475</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B18" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C18" t="str">
-        <v>463</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B19" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C19" t="str">
-        <v>482</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B20" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C20" t="str">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B21" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C21" t="str">
-        <v>460</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Tilak Varma</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B22" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C22" t="str">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Andre Russell</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B23" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C23" t="str">
-        <v>454</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B24" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C24" t="str">
-        <v>436</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Faf du Plessis</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B25" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C25" t="str">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B26" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C26" t="str">
-        <v>428</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Nithish Reddy</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B27" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C27" t="str">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Pat Cummins</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B28" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C28" t="str">
-        <v>424</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Hardik Pandya</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B29" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C29" t="str">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Shashank Singh</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B30" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C30" t="str">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rajat Patidar</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B31" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C31" t="str">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B32" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C32" t="str">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B33" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C33" t="str">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Will Jacks</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B34" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C34" t="str">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B35" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C35" t="str">
-        <v>396</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B36" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C36" t="str">
-        <v>392</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37">
@@ -784,447 +784,447 @@
         <v>MI</v>
       </c>
       <c r="C37" t="str">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Abhishek Porel</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B38" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C38" t="str">
-        <v>386</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B39" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C39" t="str">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Cameron Green</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B40" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C40" t="str">
-        <v>379</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>T Natarajan</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B41" t="str">
         <v>SRH</v>
       </c>
       <c r="C41" t="str">
-        <v>369</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B42" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C42" t="str">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Shivam Dube</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B43" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C43" t="str">
-        <v>419</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Avesh Khan</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B44" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C44" t="str">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B45" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C45" t="str">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B46" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C46" t="str">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Rohit Sharma</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B47" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B48" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C48" t="str">
-        <v>354</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Jos Buttler</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B49" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C49" t="str">
-        <v>333</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B50" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C50" t="str">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Shubman Gill</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B51" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C51" t="str">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Harshit Rana</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B52" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C52" t="str">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Rashid Khan</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B53" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C53" t="str">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B54" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C54" t="str">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B55" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C55" t="str">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Rasikh Dar</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B56" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C56" t="str">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B57" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C57" t="str">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B58" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C58" t="str">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B59" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C59" t="str">
-        <v>288</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shai Hope</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B60" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C60" t="str">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B61" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C61" t="str">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Ayush Badoni</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B62" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C62" t="str">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Piyush Chawla</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B63" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C63" t="str">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rahul Chahar</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B64" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C64" t="str">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B65" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C65" t="str">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B66" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C66" t="str">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B67" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C67" t="str">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B68" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C68" t="str">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Yash Dayal</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B69" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C69" t="str">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B70" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C70" t="str">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B71" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C71" t="str">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>David Miller</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B72" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C72" t="str">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Trent Boult</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B73" t="str">
         <v>RR</v>
       </c>
       <c r="C73" t="str">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Simran Singh</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B74" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C74" t="str">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B75" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C75" t="str">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B76" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C76" t="str">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Tim David</v>
+        <v>David Miller</v>
       </c>
       <c r="B77" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C77" t="str">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78">
@@ -1235,59 +1235,59 @@
         <v>RCB</v>
       </c>
       <c r="C78" t="str">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B79" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C79" t="str">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B80" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C80" t="str">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ishant Sharma</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B81" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C81" t="str">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B82" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C82" t="str">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Karn Sharma</v>
+        <v>Tim David</v>
       </c>
       <c r="B83" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C83" t="str">
         <v>228</v>
@@ -1295,24 +1295,24 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B84" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C84" t="str">
-        <v>210</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Moeen Ali</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B85" t="str">
         <v>CSK</v>
       </c>
       <c r="C85" t="str">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
@@ -1323,29 +1323,29 @@
         <v>SRH</v>
       </c>
       <c r="C86" t="str">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B87" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C87" t="str">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B88" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C88" t="str">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89">
@@ -1356,554 +1356,554 @@
         <v>PBKS</v>
       </c>
       <c r="C89" t="str">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>MS Dhoni</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B90" t="str">
         <v>CSK</v>
       </c>
       <c r="C90" t="str">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B91" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C91" t="str">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B92" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C92" t="str">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B93" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C93" t="str">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B94" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C94" t="str">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B95" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C95" t="str">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Rinku Singh</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B96" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C96" t="str">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Deepak Hooda</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B97" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C97" t="str">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Shardul Thakur</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B98" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C98" t="str">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Mohit Sharma</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B99" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C99" t="str">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Mohsin Khan</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B100" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C100" t="str">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B101" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C101" t="str">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Krunal Pandya</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B102" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C102" t="str">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B103" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C103" t="str">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Rovman Powell</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B104" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C104" t="str">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Quinton de Kock</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B105" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C105" t="str">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B106" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C106" t="str">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B107" t="str">
         <v>MI</v>
       </c>
       <c r="C107" t="str">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Liam Livingstone</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B108" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C108" t="str">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B109" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C109" t="str">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B110" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C110" t="str">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Yash Thakur</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B111" t="str">
         <v>LSG</v>
       </c>
       <c r="C111" t="str">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Arshad Khan</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B112" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C112" t="str">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Mayank Markande</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B113" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C113" t="str">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B114" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C114" t="str">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B115" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C115" t="str">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Aiden Markram</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B116" t="str">
         <v>SRH</v>
       </c>
       <c r="C116" t="str">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B117" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C117" t="str">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Noor Ahmad</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B118" t="str">
         <v>GT</v>
       </c>
       <c r="C118" t="str">
-        <v>186</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B119" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C119" t="str">
-        <v>187</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Sai Kishore</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B120" t="str">
         <v>GT</v>
       </c>
       <c r="C120" t="str">
-        <v>184</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B121" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B122" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C122" t="str">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B123" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C123" t="str">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Joshua Little</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B124" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C124" t="str">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B125" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C125" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B126" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C126" t="str">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Marco Jansen</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B127" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C127" t="str">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B128" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C128" t="str">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Manish Pandey</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B129" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C129" t="str">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Umesh Yadav</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B130" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C130" t="str">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B131" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C131" t="str">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Deepak Chahar</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B132" t="str">
         <v>CSK</v>
       </c>
       <c r="C132" t="str">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Mitchell Santner</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B133" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C133" t="str">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Vijay Shankar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B134" t="str">
         <v>GT</v>
       </c>
       <c r="C134" t="str">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B135" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C135" t="str">
-        <v>61</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Akash Madhwal</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B136" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C136" t="str">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Nitish Rana</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B137" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C137" t="str">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B138" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C138" t="str">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Shubham Dubey</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B139" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C139" t="str">
         <v>49</v>
@@ -1911,156 +1911,156 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B140" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C140" t="str">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Mayank Yadav</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B141" t="str">
         <v>LSG</v>
       </c>
       <c r="C141" t="str">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Anuj Rawat</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B142" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C142" t="str">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B143" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C143" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Sikandar Raza</v>
+        <v>David Warner</v>
       </c>
       <c r="B144" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C144" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Spencer Johnson</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B145" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C145" t="str">
-        <v>38</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Naman Dhir</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B146" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C146" t="str">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B147" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C147" t="str">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>David Warner</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B148" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C148" t="str">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B149" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C149" t="str">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Matt Henry</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B150" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C150" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Luke Wood</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B151" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C151" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sumit Kumar</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B152" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C152" t="str">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Anrich Nortje</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B153" t="str">
         <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154">
@@ -2076,7 +2076,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Ashton Turner</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B155" t="str">
         <v>LSG</v>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Richard Gleeson</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B156" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C156" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Lizaad Williams</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B157" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C157" t="str">
         <v>32</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B158" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C158" t="str">
         <v>32</v>
@@ -2164,76 +2164,76 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Amit Mishra</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B163" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C163" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B164" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C164" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Akash Deep</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B165" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C165" t="str">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B166" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C166" t="str">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Sanvir Singh</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B167" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C167" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B168" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C168" t="str">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Washington Sundar</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B169" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C169" t="str">
         <v>23</v>
@@ -2241,164 +2241,164 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B170" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C170" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Matthew Wade</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B171" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C171" t="str">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B172" t="str">
         <v>SRH</v>
       </c>
       <c r="C172" t="str">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B173" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C173" t="str">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B174" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C174" t="str">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Atharva Taide</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B175" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C175" t="str">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B176" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C176" t="str">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B177" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C177" t="str">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B178" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C178" t="str">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Anukul Roy</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B179" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C179" t="str">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B180" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C180" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Romario Shepherd</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B181" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C181" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Kane Williamson</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B182" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C182" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Lalit Yadav</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B183" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C183" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Chris Woakes</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B184" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C184" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Navdeep Saini</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B185" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,21 +2417,21 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B186" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C186" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B187" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Fazal Haque</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B188" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Kyle Mayers</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B189" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Umran Malik</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B190" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B191" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B192" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B193" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Jhye Richardson</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B194" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B195" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Praveen Dubey</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B196" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B197" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B198" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Dewald Brevis</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B199" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Shamar Joseph</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B200" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B201" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B202" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Glenn Phillips</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B203" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B204" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>SK Rasheed</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B205" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Swastik Chikara</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B207" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B208" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B209" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>M Siddharth</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B210" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Yash Dhull</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B211" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Ajay Mandal</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B212" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Prerak Mankad</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B213" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B214" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B215" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B216" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Shams Mulani</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B217" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Sushant Mishra</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B219" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Jayant Yadav</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B220" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B221" t="str">
         <v>RCB</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B222" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B223" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Prashant Solanki</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B224" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Tom Curran</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B225" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Sakib Hussain</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B226" t="str">
         <v>KKR</v>
       </c>
       <c r="C226" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Rajan Kumar</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B230" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Harvik Desai</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B231" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B232" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B234" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>BR sharath</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B235" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>BR sharath</v>
       </c>
       <c r="B236" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Shivam Singh</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B238" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B239" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C239" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Upendra Yadav</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B240" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,43 +3022,43 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B241" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C241" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Srikar Bharat</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B242" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Manav Suthar</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B243" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C243" t="str">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B244" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
         <v>-2</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Suyash Sharma</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B245" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -3088,13 +3088,13 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B247" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C247" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -415,13 +415,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Travis Head</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B4" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C4" t="str">
-        <v>623</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5">
@@ -432,7 +432,7 @@
         <v>PBKS</v>
       </c>
       <c r="C5" t="str">
-        <v>622</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6">
@@ -448,79 +448,79 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>KL Rahul</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B7" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C7" t="str">
-        <v>665</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Sam Curran</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B8" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C8" t="str">
-        <v>606</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B9" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C9" t="str">
-        <v>549</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Riyan Parag</v>
+        <v>Travis Head</v>
       </c>
       <c r="B10" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C10" t="str">
-        <v>538</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Axar Patel</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B11" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C11" t="str">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Rishabh Pant</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B12" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C12" t="str">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B13" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C13" t="str">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14">
@@ -536,123 +536,123 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Phil Salt</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B15" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C15" t="str">
-        <v>604</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B16" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C16" t="str">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B17" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C17" t="str">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B18" t="str">
         <v>LSG</v>
       </c>
       <c r="C18" t="str">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rajat Patidar</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B19" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C19" t="str">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Tilak Varma</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B20" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C20" t="str">
-        <v>486</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Sanju Samson</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B21" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C21" t="str">
-        <v>508</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Cameron Green</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B22" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C22" t="str">
-        <v>465</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B23" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C23" t="str">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B24" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C24" t="str">
-        <v>475</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Rohit Sharma</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B25" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C25" t="str">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26">
@@ -668,87 +668,87 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B27" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C27" t="str">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Andre Russell</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B28" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C28" t="str">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B29" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C29" t="str">
-        <v>443</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Nithish Reddy</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B30" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C30" t="str">
-        <v>451</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Hardik Pandya</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B31" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C31" t="str">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Shashank Singh</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B32" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C32" t="str">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B33" t="str">
         <v>KKR</v>
       </c>
       <c r="C33" t="str">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Pat Cummins</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B34" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C34" t="str">
         <v>428</v>
@@ -756,200 +756,200 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B35" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C35" t="str">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shivam Dube</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B36" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C36" t="str">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ishan Kishan</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B37" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C37" t="str">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Will Jacks</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B38" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C38" t="str">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B39" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C39" t="str">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B40" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C40" t="str">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B41" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C41" t="str">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B42" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C42" t="str">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B43" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C43" t="str">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>T Natarajan</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B44" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C44" t="str">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Piyush Chawla</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B45" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C45" t="str">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Avesh Khan</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B46" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C46" t="str">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B47" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C47" t="str">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Abhishek Porel</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B48" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C48" t="str">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B49" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C49" t="str">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Shubman Gill</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B50" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C50" t="str">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B51" t="str">
         <v>PBKS</v>
       </c>
       <c r="C51" t="str">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Simran Singh</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B52" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C52" t="str">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53">
@@ -998,32 +998,32 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Ayush Badoni</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B57" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C57" t="str">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rashid Khan</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B58" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C58" t="str">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B59" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C59" t="str">
         <v>311</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Yash Dayal</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B60" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C60" t="str">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61">
@@ -1053,79 +1053,79 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B62" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C62" t="str">
-        <v>320</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B63" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C63" t="str">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rasikh Dar</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B64" t="str">
         <v>DC</v>
       </c>
       <c r="C64" t="str">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Shai Hope</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B65" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C65" t="str">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B66" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C66" t="str">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Rahul Chahar</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B67" t="str">
         <v>PBKS</v>
       </c>
       <c r="C67" t="str">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B68" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C68" t="str">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69">
@@ -1141,208 +1141,208 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Trent Boult</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B70" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C70" t="str">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B71" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C71" t="str">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>MS Dhoni</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B72" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C72" t="str">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B73" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C73" t="str">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B74" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B75" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C75" t="str">
-        <v>253</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B76" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C76" t="str">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>David Miller</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B77" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C77" t="str">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Swapnil Singh</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B78" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C78" t="str">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Jitesh Sharma</v>
+        <v>David Miller</v>
       </c>
       <c r="B79" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C79" t="str">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B80" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C80" t="str">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Karn Sharma</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B81" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C81" t="str">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Krunal Pandya</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B82" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C82" t="str">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Tim David</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B83" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C83" t="str">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B84" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C84" t="str">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Shardul Thakur</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B85" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C85" t="str">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Abdul Samad</v>
+        <v>Tim David</v>
       </c>
       <c r="B86" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C86" t="str">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B87" t="str">
         <v>CSK</v>
       </c>
       <c r="C87" t="str">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Ishant Sharma</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B88" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C88" t="str">
         <v>215</v>
@@ -1350,32 +1350,32 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Harpreet Brar</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C89" t="str">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B90" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C90" t="str">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B91" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C91" t="str">
         <v>210</v>
@@ -1383,57 +1383,57 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Moeen Ali</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B92" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C92" t="str">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohsin Khan</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B93" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C93" t="str">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B94" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C94" t="str">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Deepak Hooda</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B95" t="str">
         <v>LSG</v>
       </c>
       <c r="C95" t="str">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B96" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C96" t="str">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
@@ -1482,35 +1482,35 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B101" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C101" t="str">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B102" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C102" t="str">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Noor Ahmad</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B103" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C103" t="str">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104">
@@ -1537,546 +1537,546 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mohit Sharma</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B106" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C106" t="str">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B107" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C107" t="str">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B108" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C108" t="str">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B109" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Rovman Powell</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B110" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C110" t="str">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Quinton de Kock</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B111" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C111" t="str">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Liam Livingstone</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B112" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C112" t="str">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Arshad Khan</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B113" t="str">
         <v>LSG</v>
       </c>
       <c r="C113" t="str">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Naman Dhir</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B114" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C114" t="str">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Yash Thakur</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B115" t="str">
         <v>LSG</v>
       </c>
       <c r="C115" t="str">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mayank Markande</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B116" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C116" t="str">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B117" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C117" t="str">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B118" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C118" t="str">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Aiden Markram</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B119" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C119" t="str">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B120" t="str">
         <v>GT</v>
       </c>
       <c r="C120" t="str">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C121" t="str">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B122" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C122" t="str">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Joshua Little</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B123" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C123" t="str">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B124" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C124" t="str">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B125" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C125" t="str">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Mitchell Santner</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B126" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B127" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C127" t="str">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B128" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C128" t="str">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Atharva Taide</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B129" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C129" t="str">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Marco Jansen</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B130" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C130" t="str">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Manish Pandey</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B131" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C131" t="str">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B132" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C132" t="str">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Akash Madhwal</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B133" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C133" t="str">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Umesh Yadav</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B134" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C134" t="str">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B135" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C135" t="str">
-        <v>254</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B136" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C136" t="str">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Deepak Chahar</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B137" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C137" t="str">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Vijay Shankar</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B138" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C138" t="str">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Nitish Rana</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B139" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C139" t="str">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Shubham Dubey</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B140" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C140" t="str">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B141" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C141" t="str">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Mayank Yadav</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B142" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C142" t="str">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Anuj Rawat</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B143" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C143" t="str">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>David Warner</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B144" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C144" t="str">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B145" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C145" t="str">
-        <v>254</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Sikandar Raza</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B146" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C146" t="str">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Spencer Johnson</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B147" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C147" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Harpreet Singh</v>
+        <v>David Warner</v>
       </c>
       <c r="B148" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C148" t="str">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Sumit Kumar</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B149" t="str">
         <v>DC</v>
       </c>
       <c r="C149" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Luke Wood</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B150" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C150" t="str">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Anrich Nortje</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B151" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C151" t="str">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B152" t="str">
         <v>PBKS</v>
       </c>
       <c r="C152" t="str">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B153" t="str">
         <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B154" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C154" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Matt Henry</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B155" t="str">
         <v>LSG</v>
@@ -2087,54 +2087,54 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Lizaad Williams</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B156" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C156" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B157" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C157" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Dewald Brevis</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B158" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C158" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Nathan Ellis</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B159" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C159" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Reece Topley</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B160" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C160" t="str">
         <v>31</v>
@@ -2142,131 +2142,131 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Nandre Burger</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B161" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C161" t="str">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B162" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C162" t="str">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Sanvir Singh</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B163" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C163" t="str">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Amit Mishra</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B164" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C164" t="str">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Richard Gleeson</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B165" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C165" t="str">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Ashton Turner</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B166" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C166" t="str">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B167" t="str">
         <v>RR</v>
       </c>
       <c r="C167" t="str">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Akash Deep</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B168" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C168" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B169" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C169" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B170" t="str">
         <v>RR</v>
       </c>
       <c r="C170" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B171" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C171" t="str">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Washington Sundar</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B172" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C172" t="str">
         <v>23</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B173" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C173" t="str">
         <v>22</v>
@@ -2285,112 +2285,112 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B174" t="str">
         <v>SRH</v>
       </c>
       <c r="C174" t="str">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B175" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C175" t="str">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B176" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C176" t="str">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B177" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C177" t="str">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Matthew Wade</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B178" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C178" t="str">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Saurav Chauhan</v>
       </c>
       <c r="B179" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C179" t="str">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Lalit Yadav</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B180" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C180" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B181" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C181" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Shivam Singh</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B182" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C182" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Romario Shepherd</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B183" t="str">
         <v>MI</v>
       </c>
       <c r="C183" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -2417,21 +2417,21 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B186" t="str">
         <v>MI</v>
       </c>
       <c r="C186" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B187" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C187" t="str">
         <v>0</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Chris Woakes</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B188" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Navdeep Saini</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B189" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B190" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C190" t="str">
         <v>0</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B191" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Fazal Haque</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B192" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Kyle Mayers</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B193" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Umran Malik</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B194" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Yash Dhull</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B195" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B196" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B197" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Jhye Richardson</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B198" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Praveen Dubey</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B199" t="str">
         <v>DC</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Shamar Joseph</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B201" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B202" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>M Siddharth</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B203" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Glenn Phillips</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B204" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B205" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Mayank Dagar</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B206" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>SK Rasheed</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B207" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Swastik Chikara</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B208" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B209" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B210" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Prerak Mankad</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B212" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Ajay Mandal</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B213" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B214" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Shams Mulani</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B215" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B216" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B217" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Prince Choudhary</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B218" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B219" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B220" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Tom Curran</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B221" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Prashant Solanki</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B223" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Kane Williamson</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B224" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B225" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Anukul Roy</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B226" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C226" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B231" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Rajan Kumar</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B232" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Ricky Bhui</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B233" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Harvik Desai</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B234" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -3022,43 +3022,43 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Manav Suthar</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B241" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C241" t="str">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B242" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C242" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B243" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C243" t="str">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C244" t="str">
         <v>-2</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B245" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
@@ -3088,13 +3088,13 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Upendra Yadav</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B247" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C247" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3">
@@ -415,79 +415,79 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KL Rahul</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B4" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C4" t="str">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Harshal Patel</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B5" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C5" t="str">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Virat Kohli</v>
+        <v>Travis Head</v>
       </c>
       <c r="B6" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C6" t="str">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Phil Salt</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B7" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C7" t="str">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Axar Patel</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B8" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C8" t="str">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Sam Curran</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B9" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C9" t="str">
-        <v>606</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Travis Head</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B10" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C10" t="str">
-        <v>625</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11">
@@ -514,233 +514,233 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rishabh Pant</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B13" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C13" t="str">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Faf du Plessis</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B14" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C14" t="str">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B15" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C15" t="str">
-        <v>512</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B16" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C16" t="str">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Rajat Patidar</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B17" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C17" t="str">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B18" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C18" t="str">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Sanju Samson</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B19" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C19" t="str">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B20" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C20" t="str">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B21" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C21" t="str">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Nithish Reddy</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B22" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C22" t="str">
-        <v>501</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Tilak Varma</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B23" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C23" t="str">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B24" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C24" t="str">
-        <v>497</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cameron Green</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B25" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C25" t="str">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B26" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C26" t="str">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Rohit Sharma</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B27" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C27" t="str">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B28" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C28" t="str">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Shashank Singh</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B29" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C29" t="str">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B30" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C30" t="str">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Pat Cummins</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B31" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C31" t="str">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B32" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C32" t="str">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Andre Russell</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B33" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C33" t="str">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34">
@@ -756,57 +756,57 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Arshdeep Singh</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B35" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C35" t="str">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Hardik Pandya</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B36" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C36" t="str">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>T Natarajan</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B37" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C37" t="str">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Shivam Dube</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B38" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C38" t="str">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B39" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C39" t="str">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40">
@@ -822,101 +822,101 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Ishan Kishan</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B41" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C41" t="str">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Will Jacks</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B42" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C42" t="str">
-        <v>418</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B43" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C43" t="str">
-        <v>406</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B44" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C44" t="str">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Abhishek Porel</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B45" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C45" t="str">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B46" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C46" t="str">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Piyush Chawla</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B47" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C47" t="str">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B48" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C48" t="str">
-        <v>391</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Simran Singh</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B49" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C49" t="str">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50">
@@ -932,35 +932,35 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B51" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C51" t="str">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Shubman Gill</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B52" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C52" t="str">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Jos Buttler</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B53" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C53" t="str">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54">
@@ -971,7 +971,7 @@
         <v>KKR</v>
       </c>
       <c r="C54" t="str">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55">
@@ -982,29 +982,29 @@
         <v>KKR</v>
       </c>
       <c r="C55" t="str">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Mitchell Starc</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B56" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C56" t="str">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B57" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C57" t="str">
-        <v>358</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
@@ -1064,57 +1064,57 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Ayush Badoni</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B63" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C63" t="str">
-        <v>325</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Shai Hope</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B64" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C64" t="str">
-        <v>292</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rahul Chahar</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B65" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C65" t="str">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Avesh Khan</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B66" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C66" t="str">
-        <v>358</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B67" t="str">
         <v>PBKS</v>
       </c>
       <c r="C67" t="str">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68">
@@ -1130,24 +1130,24 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B69" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C69" t="str">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B70" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C70" t="str">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71">
@@ -1163,101 +1163,101 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B72" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C72" t="str">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>MS Dhoni</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B73" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C73" t="str">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B74" t="str">
         <v>PBKS</v>
       </c>
       <c r="C74" t="str">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Rasikh Dar</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B75" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B76" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C76" t="str">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B77" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C77" t="str">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>David Miller</v>
       </c>
       <c r="B78" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C78" t="str">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>David Miller</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B79" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C79" t="str">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B80" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C80" t="str">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81">
@@ -1268,40 +1268,40 @@
         <v>SRH</v>
       </c>
       <c r="C81" t="str">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Harpreet Brar</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B82" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C82" t="str">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Swapnil Singh</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B83" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C83" t="str">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B84" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C84" t="str">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85">
@@ -1328,13 +1328,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shardul Thakur</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B87" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C87" t="str">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88">
@@ -1350,98 +1350,98 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B89" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C89" t="str">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Ishant Sharma</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B90" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C90" t="str">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B91" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C91" t="str">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Karn Sharma</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B92" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C92" t="str">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B93" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C93" t="str">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Moeen Ali</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B94" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C94" t="str">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Mohsin Khan</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B95" t="str">
         <v>LSG</v>
       </c>
       <c r="C95" t="str">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B96" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C96" t="str">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B97" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C97" t="str">
         <v>197</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B98" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C98" t="str">
         <v>197</v>
@@ -1460,57 +1460,57 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B99" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C99" t="str">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Rinku Singh</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B100" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C100" t="str">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Deepak Hooda</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B101" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C101" t="str">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B102" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C102" t="str">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B103" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C103" t="str">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104">
@@ -1526,35 +1526,35 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B105" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C105" t="str">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B106" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C106" t="str">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Noor Ahmad</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B107" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C107" t="str">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108">
@@ -1581,10 +1581,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B110" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C110" t="str">
         <v>167</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B111" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C111" t="str">
         <v>167</v>
@@ -1834,24 +1834,24 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Manish Pandey</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B133" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C133" t="str">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B134" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C134" t="str">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135">
@@ -1933,21 +1933,21 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Sanvir Singh</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B142" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C142" t="str">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Nitish Rana</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B143" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C143" t="str">
         <v>49</v>
@@ -1955,13 +1955,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Shubham Dubey</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B144" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C144" t="str">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145">
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Ashton Turner</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B155" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C155" t="str">
         <v>33</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Anrich Nortje</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B157" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C157" t="str">
         <v>33</v>
@@ -2120,43 +2120,43 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Dewald Brevis</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B159" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C159" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Nathan Ellis</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B160" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C160" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Matt Henry</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B161" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C161" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Lizaad Williams</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B162" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
         <v>32</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B163" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C163" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164">
@@ -2186,79 +2186,79 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Amit Mishra</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B165" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C165" t="str">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Akash Deep</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B166" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C166" t="str">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Nandre Burger</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B167" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C167" t="str">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B168" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C168" t="str">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B169" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C169" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B170" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C170" t="str">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B171" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C171" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
@@ -2274,35 +2274,35 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Shivam Singh</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B173" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C173" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Washington Sundar</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B174" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C174" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B175" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C175" t="str">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
@@ -2351,65 +2351,65 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B180" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C180" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Anukul Roy</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B181" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C181" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Lalit Yadav</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B182" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C182" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B183" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C183" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Vijayakanth Viyaskanth</v>
       </c>
       <c r="B184" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C184" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B185" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C185" t="str">
         <v>0</v>
@@ -2417,32 +2417,32 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Romario Shepherd</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B186" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C186" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Kane Williamson</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B187" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C187" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Navdeep Saini</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B188" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B189" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,21 +2461,21 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Chris Woakes</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B190" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C190" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B191" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B192" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Fazal Haque</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B193" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Kyle Mayers</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B194" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C194" t="str">
         <v>0</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Umran Malik</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B195" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Yash Dhull</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B196" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B197" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B198" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Jhye Richardson</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B199" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B200" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Praveen Dubey</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B201" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Shamar Joseph</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B202" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B203" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B204" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>M Siddharth</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B205" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Glenn Phillips</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B206" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B207" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Mayank Dagar</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B208" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>SK Rasheed</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B209" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Swastik Chikara</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B210" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B211" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Prerak Mankad</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B213" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B214" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Ajay Mandal</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B215" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Shams Mulani</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B217" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B218" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B219" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B220" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Prince Choudhary</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B221" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Jayant Yadav</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B222" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Tom Curran</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B223" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Prashant Solanki</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B225" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2857,10 +2857,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Sushant Mishra</v>
+        <v>Prashant Solanki</v>
       </c>
       <c r="B226" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C226" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B227" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Akash Singh</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B228" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B229" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Sakib Hussain</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B230" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Rajan Kumar</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B231" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2923,10 +2923,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Harvik Desai</v>
+        <v>Rajan Kumar</v>
       </c>
       <c r="B232" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C232" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Ricky Bhui</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B234" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>BR sharath</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B236" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Aravelly Avanish</v>
+        <v>BR sharath</v>
       </c>
       <c r="B237" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C237" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B238" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Kumar Kartikeya</v>
       </c>
       <c r="B239" t="str">
         <v>MI</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Srikar Bharat</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B240" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Kumar Kartikeya</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B241" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,32 +3033,32 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Upendra Yadav</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B242" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Manav Suthar</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B243" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C243" t="str">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B244" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C244" t="str">
         <v>-2</v>
@@ -3066,40 +3066,51 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Suyash Sharma</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B245" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C245" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B246" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C246" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B247" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C247" t="str">
         <v>-2</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Dushmantha Chameera</v>
+      </c>
+      <c r="B248" t="str">
+        <v>KKR</v>
+      </c>
+      <c r="C248" t="str">
+        <v>-2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C247"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C248"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -399,7 +399,7 @@
         <v>KKR</v>
       </c>
       <c r="C2" t="str">
-        <v>914</v>
+        <v>972</v>
       </c>
     </row>
     <row r="3">
@@ -415,596 +415,596 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Harshal Patel</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B4" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C4" t="str">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>KL Rahul</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B5" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C5" t="str">
-        <v>665</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Travis Head</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B6" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C6" t="str">
-        <v>627</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Sam Curran</v>
+        <v>Travis Head</v>
       </c>
       <c r="B7" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C7" t="str">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Phil Salt</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B8" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C8" t="str">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Virat Kohli</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B9" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C9" t="str">
-        <v>630</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Axar Patel</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B10" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C10" t="str">
-        <v>576</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B11" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C11" t="str">
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Riyan Parag</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B12" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C12" t="str">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Faf du Plessis</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B13" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C13" t="str">
-        <v>524</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B14" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C14" t="str">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Rishabh Pant</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B15" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C15" t="str">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Sanju Samson</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B16" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C16" t="str">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B17" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C17" t="str">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Nithish Reddy</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B18" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C18" t="str">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B19" t="str">
         <v>LSG</v>
       </c>
       <c r="C19" t="str">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B20" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C20" t="str">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Tilak Varma</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B21" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C21" t="str">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B22" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C22" t="str">
-        <v>476</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Rajat Patidar</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B23" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B24" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C24" t="str">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B25" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C25" t="str">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Shashank Singh</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B26" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C26" t="str">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B27" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C27" t="str">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Cameron Green</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B28" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C28" t="str">
-        <v>465</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Andre Russell</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B29" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C29" t="str">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Rohit Sharma</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B30" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C30" t="str">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B31" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C31" t="str">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Pat Cummins</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B32" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C32" t="str">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Hardik Pandya</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B33" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C33" t="str">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B34" t="str">
         <v>DC</v>
       </c>
       <c r="C34" t="str">
-        <v>428</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>T Natarajan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B35" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C35" t="str">
-        <v>427</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B36" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C36" t="str">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Shivam Dube</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B37" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C37" t="str">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Ishan Kishan</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B38" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C38" t="str">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Will Jacks</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B39" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C39" t="str">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B40" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C40" t="str">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B41" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C41" t="str">
-        <v>406</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B42" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C42" t="str">
-        <v>396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B43" t="str">
         <v>DC</v>
       </c>
       <c r="C43" t="str">
-        <v>457</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Abhishek Porel</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B44" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C44" t="str">
-        <v>386</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B45" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C45" t="str">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Piyush Chawla</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B46" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C46" t="str">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Simran Singh</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B47" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C47" t="str">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mitchell Starc</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B48" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C48" t="str">
-        <v>363</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B49" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C49" t="str">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B50" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C50" t="str">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Avesh Khan</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B51" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C51" t="str">
-        <v>358</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B52" t="str">
         <v>PBKS</v>
       </c>
       <c r="C52" t="str">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Shubman Gill</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B53" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C53" t="str">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Harshit Rana</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B54" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C54" t="str">
-        <v>337</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B55" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C55" t="str">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Jos Buttler</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B56" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C56" t="str">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B57" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C57" t="str">
-        <v>440</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58">
@@ -1020,79 +1020,79 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Rashid Khan</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B59" t="str">
         <v>GT</v>
       </c>
       <c r="C59" t="str">
-        <v>311</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B60" t="str">
         <v>RR</v>
       </c>
       <c r="C60" t="str">
-        <v>311</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B61" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C61" t="str">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B62" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C62" t="str">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Rasikh Dar</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B63" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C63" t="str">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B64" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C64" t="str">
-        <v>395</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Ayush Badoni</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B65" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C65" t="str">
-        <v>325</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66">
@@ -1119,35 +1119,35 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B68" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C68" t="str">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B69" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C69" t="str">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B70" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C70" t="str">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71">
@@ -1163,90 +1163,90 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>MS Dhoni</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B72" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C72" t="str">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B73" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C73" t="str">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B74" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C74" t="str">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B75" t="str">
         <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B76" t="str">
         <v>RR</v>
       </c>
       <c r="C76" t="str">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B77" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C77" t="str">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>David Miller</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B78" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C78" t="str">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Lockie Ferguson</v>
+        <v>David Miller</v>
       </c>
       <c r="B79" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C79" t="str">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80">
@@ -1262,79 +1262,79 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Abdul Samad</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B81" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C81" t="str">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Swapnil Singh</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B82" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C82" t="str">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Harpreet Brar</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B83" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C83" t="str">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Karn Sharma</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B84" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C84" t="str">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Krunal Pandya</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B85" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C85" t="str">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Tim David</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B86" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C86" t="str">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B87" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C87" t="str">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88">
@@ -1361,43 +1361,43 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B90" t="str">
         <v>KKR</v>
       </c>
       <c r="C90" t="str">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B91" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C91" t="str">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Moeen Ali</v>
+        <v>Tim David</v>
       </c>
       <c r="B92" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C92" t="str">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohsin Khan</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B93" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C93" t="str">
         <v>209</v>
@@ -1405,65 +1405,65 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B94" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C94" t="str">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Deepak Hooda</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B95" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C95" t="str">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B96" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C96" t="str">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rinku Singh</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B97" t="str">
         <v>KKR</v>
       </c>
       <c r="C97" t="str">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B98" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C98" t="str">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B99" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C99" t="str">
         <v>197</v>
@@ -1471,35 +1471,35 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B100" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C100" t="str">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B101" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C101" t="str">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B102" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C102" t="str">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103">
@@ -1526,79 +1526,79 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B105" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C105" t="str">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Shardul Thakur</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B106" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C106" t="str">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B107" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C107" t="str">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Mohit Sharma</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B108" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C108" t="str">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B109" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C109" t="str">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B110" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C110" t="str">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B111" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C111" t="str">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
@@ -1614,46 +1614,46 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Quinton de Kock</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B113" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Liam Livingstone</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B114" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C114" t="str">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Arshad Khan</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B115" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C115" t="str">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Naman Dhir</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B116" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C116" t="str">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
@@ -1669,109 +1669,109 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Mayank Markande</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B118" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C118" t="str">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B119" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C119" t="str">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B120" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C120" t="str">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Aiden Markram</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B121" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C121" t="str">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B122" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C122" t="str">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B123" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C123" t="str">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B124" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C124" t="str">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Joshua Little</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B125" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C125" t="str">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B126" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C126" t="str">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B127" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C127" t="str">
         <v>99</v>
@@ -1779,142 +1779,142 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Mitchell Santner</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B128" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C128" t="str">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B129" t="str">
         <v>MI</v>
       </c>
       <c r="C129" t="str">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B130" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C130" t="str">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Atharva Taide</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B131" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C131" t="str">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Marco Jansen</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B132" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C132" t="str">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B133" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C133" t="str">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Manish Pandey</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B134" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C134" t="str">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B135" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C135" t="str">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Akash Madhwal</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B136" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C136" t="str">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Umesh Yadav</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B137" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C137" t="str">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B138" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C138" t="str">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B139" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C139" t="str">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Deepak Chahar</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B140" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C140" t="str">
         <v>53</v>
@@ -1955,65 +1955,65 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Sanvir Singh</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B144" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C144" t="str">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B145" t="str">
         <v>LSG</v>
       </c>
       <c r="C145" t="str">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Mayank Yadav</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B146" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C146" t="str">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Anuj Rawat</v>
+        <v>David Warner</v>
       </c>
       <c r="B147" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C147" t="str">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>David Warner</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B148" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C148" t="str">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B149" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C149" t="str">
         <v>38</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Sikandar Raza</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B150" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C150" t="str">
         <v>38</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Spencer Johnson</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B151" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C151" t="str">
         <v>38</v>
@@ -2043,43 +2043,43 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B152" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C152" t="str">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Sumit Kumar</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B153" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C153" t="str">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Luke Wood</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B154" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C154" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Anrich Nortje</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B155" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C155" t="str">
         <v>33</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B156" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C156" t="str">
         <v>33</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Ashton Turner</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B157" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C157" t="str">
         <v>33</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Richard Gleeson</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B158" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C158" t="str">
         <v>33</v>
@@ -2120,21 +2120,21 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Matt Henry</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B159" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C159" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Lizaad Williams</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B160" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C160" t="str">
         <v>32</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B161" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C161" t="str">
         <v>32</v>
@@ -2153,21 +2153,21 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Dewald Brevis</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C162" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Nathan Ellis</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B163" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C163" t="str">
         <v>31</v>
@@ -2175,76 +2175,76 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Reece Topley</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B164" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C164" t="str">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Nandre Burger</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B165" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C165" t="str">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B166" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C166" t="str">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Amit Mishra</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B167" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C167" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B168" t="str">
         <v>RR</v>
       </c>
       <c r="C168" t="str">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Akash Deep</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B169" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C169" t="str">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B170" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C170" t="str">
         <v>24</v>
@@ -2252,21 +2252,21 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B171" t="str">
-        <v>RR</v>
+        <v>DC</v>
       </c>
       <c r="C171" t="str">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B172" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C172" t="str">
         <v>23</v>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Washington Sundar</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B173" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C173" t="str">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
@@ -2318,13 +2318,13 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B177" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C177" t="str">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178">
@@ -2351,57 +2351,57 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Lalit Yadav</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B180" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C180" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B181" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C181" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B182" t="str">
         <v>KKR</v>
       </c>
       <c r="C182" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Anukul Roy</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B183" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C183" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Vijayakanth Viyaskanth</v>
+        <v>Romario Shepherd</v>
       </c>
       <c r="B184" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C184" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2417,32 +2417,32 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Kane Williamson</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B186" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C186" t="str">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Vijayakanth Viyaskanth</v>
       </c>
       <c r="B187" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C187" t="str">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Chris Woakes</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B188" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C188" t="str">
         <v>0</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Navdeep Saini</v>
       </c>
       <c r="B189" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C189" t="str">
         <v>0</v>
@@ -2461,21 +2461,21 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Romario Shepherd</v>
+        <v>Mukesh Choudhary</v>
       </c>
       <c r="B190" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C190" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Navdeep Saini</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B191" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Mukesh Choudhary</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B192" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C192" t="str">
         <v>0</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B193" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Fazal Haque</v>
+        <v>Umran Malik</v>
       </c>
       <c r="B194" t="str">
         <v>SRH</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Kyle Mayers</v>
+        <v>Yash Dhull</v>
       </c>
       <c r="B195" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C195" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Umran Malik</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B196" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Yash Dhull</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B197" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B198" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B199" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Jhye Richardson</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B200" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B201" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Praveen Dubey</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B202" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Shamar Joseph</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B203" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Rishi Dhawan</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B204" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C204" t="str">
         <v>0</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B205" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>M Siddharth</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B206" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B207" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B208" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Mayank Dagar</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B209" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>SK Rasheed</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B210" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Swastik Chikara</v>
+        <v>Allah Ghazanfar</v>
       </c>
       <c r="B211" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C211" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B212" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Allah Ghazanfar</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B213" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Prerak Mankad</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B214" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B215" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C215" t="str">
         <v>0</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B216" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Ajay Mandal</v>
+        <v>Jhatavedh Subramanyan</v>
       </c>
       <c r="B217" t="str">
-        <v>CSK</v>
+        <v>SRH</v>
       </c>
       <c r="C217" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Shams Mulani</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B218" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Jhatavedh Subramanyan</v>
+        <v>Vicky Ostwal</v>
       </c>
       <c r="B219" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C219" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B220" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Vicky Ostwal</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B221" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Prince Choudhary</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B222" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Jayant Yadav</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B223" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B224" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Himanshu Sharma</v>
+        <v>Ricky Bhui</v>
       </c>
       <c r="B235" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C235" t="str">
         <v>0</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Ricky Bhui</v>
+        <v>Himanshu Sharma</v>
       </c>
       <c r="B236" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C236" t="str">
         <v>0</v>
@@ -3033,65 +3033,65 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Manav Suthar</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B242" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C242" t="str">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B243" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C243" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Suyash Sharma</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B244" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C244" t="str">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B245" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C245" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Srikar Bharat</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B246" t="str">
         <v>KKR</v>
       </c>
       <c r="C246" t="str">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Kartik Tyagi</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B247" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C247" t="str">
         <v>-2</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Kartik Tyagi</v>
       </c>
       <c r="B248" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C248" t="str">
         <v>-2</v>

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -404,46 +404,46 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B3" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C3" t="str">
-        <v>722</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KL Rahul</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B4" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C4" t="str">
-        <v>665</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Virat Kohli</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B5" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C5" t="str">
-        <v>630</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Harshal Patel</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B6" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C6" t="str">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7">
@@ -487,7 +487,7 @@
         <v>RR</v>
       </c>
       <c r="C10" t="str">
-        <v>538</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11">
@@ -503,87 +503,87 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Rishabh Pant</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B12" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C12" t="str">
-        <v>533</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B13" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C13" t="str">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Faf du Plessis</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B14" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C14" t="str">
-        <v>524</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Pat Cummins</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B15" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C15" t="str">
-        <v>516</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Nithish Reddy</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B16" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C16" t="str">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Sanju Samson</v>
       </c>
       <c r="B17" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B18" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C18" t="str">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B19" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C19" t="str">
         <v>519</v>
@@ -591,145 +591,145 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Sanju Samson</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B20" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C20" t="str">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Rajat Patidar</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B21" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C21" t="str">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B22" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C22" t="str">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B23" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C23" t="str">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Varun Chakravarthy</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B24" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C24" t="str">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B25" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C25" t="str">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Varun Chakravarthy</v>
       </c>
       <c r="B26" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C26" t="str">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Shashank Singh</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B27" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C27" t="str">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Andre Russell</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B28" t="str">
         <v>KKR</v>
       </c>
       <c r="C28" t="str">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Cameron Green</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B29" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C29" t="str">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B30" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C30" t="str">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B31" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C31" t="str">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Tilak Varma</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B32" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C32" t="str">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33">
@@ -756,13 +756,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Rohit Sharma</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B35" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C35" t="str">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36">
@@ -778,219 +778,219 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B37" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C37" t="str">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B38" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C38" t="str">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mitchell Starc</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B39" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C39" t="str">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Shivam Dube</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B40" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C40" t="str">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Hardik Pandya</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B41" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C41" t="str">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Will Jacks</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B42" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C42" t="str">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B43" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C43" t="str">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B44" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C44" t="str">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B45" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C45" t="str">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Abhishek Porel</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B46" t="str">
         <v>DC</v>
       </c>
       <c r="C46" t="str">
-        <v>386</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B47" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C47" t="str">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Ishan Kishan</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B48" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C48" t="str">
-        <v>421</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Simran Singh</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B49" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C49" t="str">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Harshit Rana</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B50" t="str">
         <v>KKR</v>
       </c>
       <c r="C50" t="str">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B51" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C51" t="str">
-        <v>440</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B52" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C52" t="str">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Avesh Khan</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B53" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C53" t="str">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B54" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C54" t="str">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Piyush Chawla</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B55" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C55" t="str">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B56" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C56" t="str">
         <v>362</v>
@@ -998,35 +998,35 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Ayush Badoni</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B57" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C57" t="str">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Yash Dayal</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B58" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C58" t="str">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Shubman Gill</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B59" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C59" t="str">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60">
@@ -1042,285 +1042,285 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rashid Khan</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B61" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C61" t="str">
-        <v>311</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B62" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C62" t="str">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B63" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C63" t="str">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B64" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C64" t="str">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rasikh Dar</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B65" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C65" t="str">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Shai Hope</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B66" t="str">
         <v>DC</v>
       </c>
       <c r="C66" t="str">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Rahul Chahar</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B67" t="str">
-        <v>PBKS</v>
+        <v>RR</v>
       </c>
       <c r="C67" t="str">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B68" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C68" t="str">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B69" t="str">
-        <v>CSK</v>
+        <v>DC</v>
       </c>
       <c r="C69" t="str">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B70" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C70" t="str">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Trent Boult</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B71" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C71" t="str">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Abdul Samad</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B72" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C72" t="str">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B73" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C73" t="str">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>MS Dhoni</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B74" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C74" t="str">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B75" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C75" t="str">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B76" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C76" t="str">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B77" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C77" t="str">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B78" t="str">
         <v>RCB</v>
       </c>
       <c r="C78" t="str">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>David Miller</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B79" t="str">
         <v>GT</v>
       </c>
       <c r="C79" t="str">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B80" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C80" t="str">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Swapnil Singh</v>
+        <v>MS Dhoni</v>
       </c>
       <c r="B81" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C81" t="str">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Harpreet Brar</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B82" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C82" t="str">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Shahrukh Khan</v>
+        <v>David Miller</v>
       </c>
       <c r="B83" t="str">
         <v>GT</v>
       </c>
       <c r="C83" t="str">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B84" t="str">
         <v>PBKS</v>
       </c>
       <c r="C84" t="str">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B85" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C85" t="str">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Karn Sharma</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B86" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C86" t="str">
         <v>232</v>
@@ -1328,90 +1328,90 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shardul Thakur</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B87" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C87" t="str">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B88" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C88" t="str">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Ishant Sharma</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B89" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C89" t="str">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Tim David</v>
       </c>
       <c r="B90" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C90" t="str">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Krunal Pandya</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B91" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C91" t="str">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Tim David</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B92" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C92" t="str">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Moeen Ali</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B93" t="str">
         <v>CSK</v>
       </c>
       <c r="C93" t="str">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mohsin Khan</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B94" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C94" t="str">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95">
@@ -1427,241 +1427,241 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B96" t="str">
         <v>CSK</v>
       </c>
       <c r="C96" t="str">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B97" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C97" t="str">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Rinku Singh</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B98" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C98" t="str">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B99" t="str">
-        <v>RR</v>
+        <v>KKR</v>
       </c>
       <c r="C99" t="str">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B100" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C100" t="str">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Deepak Hooda</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B101" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C101" t="str">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B102" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C102" t="str">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Noor Ahmad</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B103" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C103" t="str">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Sai Kishore</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B104" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C104" t="str">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B105" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C105" t="str">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mohit Sharma</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B106" t="str">
         <v>GT</v>
       </c>
       <c r="C106" t="str">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B107" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C107" t="str">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B108" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C108" t="str">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B109" t="str">
         <v>CSK</v>
       </c>
       <c r="C109" t="str">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Quinton de Kock</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B110" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C110" t="str">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Liam Livingstone</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B111" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C111" t="str">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Rovman Powell</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B112" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C112" t="str">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B113" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C113" t="str">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Naman Dhir</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B114" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C114" t="str">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Mahipal Lomror</v>
       </c>
       <c r="B115" t="str">
-        <v>SRH</v>
+        <v>RCB</v>
       </c>
       <c r="C115" t="str">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mayank Markande</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B116" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C116" t="str">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Yash Thakur</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B117" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C117" t="str">
         <v>139</v>
@@ -1669,373 +1669,373 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B118" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C118" t="str">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Aiden Markram</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B119" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C119" t="str">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Prithvi Shaw</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B120" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C120" t="str">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Vyshak Vijay Kumar</v>
+        <v>Mayank Markande</v>
       </c>
       <c r="B121" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C121" t="str">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Arshad Khan</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B122" t="str">
-        <v>LSG</v>
+        <v>SRH</v>
       </c>
       <c r="C122" t="str">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Sandeep Warrier</v>
       </c>
       <c r="B123" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C123" t="str">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Joshua Little</v>
+        <v>Prithvi Shaw</v>
       </c>
       <c r="B124" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C124" t="str">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mahipal Lomror</v>
+        <v>Wriddhiman Saha</v>
       </c>
       <c r="B125" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C125" t="str">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Sandeep Warrier</v>
+        <v>Vyshak Vijay Kumar</v>
       </c>
       <c r="B126" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C126" t="str">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mitchell Santner</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B127" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C127" t="str">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B128" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C128" t="str">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B129" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C129" t="str">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Atharva Taide</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B130" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C130" t="str">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Marco Jansen</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B131" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C131" t="str">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Manish Pandey</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B132" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C132" t="str">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B133" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C133" t="str">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Akash Madhwal</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B134" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C134" t="str">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B135" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C135" t="str">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Umesh Yadav</v>
+        <v>Akash Madhwal</v>
       </c>
       <c r="B136" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C136" t="str">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B137" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C137" t="str">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B138" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C138" t="str">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Deepak Chahar</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B139" t="str">
-        <v>CSK</v>
+        <v>RR</v>
       </c>
       <c r="C139" t="str">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Sanvir Singh</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B140" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C140" t="str">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Vijay Shankar</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B141" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C141" t="str">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Nitish Rana</v>
+        <v>Deepak Chahar</v>
       </c>
       <c r="B142" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C142" t="str">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Shubham Dubey</v>
+        <v>Sanvir Singh</v>
       </c>
       <c r="B143" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C143" t="str">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Vijay Shankar</v>
       </c>
       <c r="B144" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C144" t="str">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Mayank Yadav</v>
+        <v>Nitish Rana</v>
       </c>
       <c r="B145" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C145" t="str">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Anuj Rawat</v>
+        <v>Shubham Dubey</v>
       </c>
       <c r="B146" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C146" t="str">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>David Warner</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B147" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C147" t="str">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B148" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C148" t="str">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Sikandar Raza</v>
+        <v>David Warner</v>
       </c>
       <c r="B149" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C149" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Spencer Johnson</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B150" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C150" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B151" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C151" t="str">
         <v>38</v>
@@ -2043,43 +2043,43 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sumit Kumar</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B152" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C152" t="str">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Luke Wood</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B153" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C153" t="str">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Anrich Nortje</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B154" t="str">
         <v>DC</v>
       </c>
       <c r="C154" t="str">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B155" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C155" t="str">
         <v>33</v>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Ashton Turner</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B156" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C156" t="str">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Richard Gleeson</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B157" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C157" t="str">
         <v>33</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Matt Henry</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B158" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C158" t="str">
         <v>33</v>
@@ -2120,21 +2120,21 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Lizaad Williams</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B159" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C159" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B160" t="str">
-        <v>GT</v>
+        <v>DC</v>
       </c>
       <c r="C160" t="str">
         <v>32</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Dewald Brevis</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B161" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C161" t="str">
         <v>32</v>
@@ -2153,21 +2153,21 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Nathan Ellis</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B162" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C162" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Reece Topley</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B163" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C163" t="str">
         <v>31</v>
@@ -2175,131 +2175,131 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Harpreet Singh</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B164" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C164" t="str">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Wriddhiman Saha</v>
+        <v>Nandre Burger</v>
       </c>
       <c r="B165" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C165" t="str">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Amit Mishra</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B166" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C166" t="str">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Amit Mishra</v>
       </c>
       <c r="B167" t="str">
-        <v>RR</v>
+        <v>LSG</v>
       </c>
       <c r="C167" t="str">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Nandre Burger</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B168" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C168" t="str">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B169" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C169" t="str">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B170" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C170" t="str">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B171" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C171" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Washington Sundar</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B172" t="str">
-        <v>SRH</v>
+        <v>RR</v>
       </c>
       <c r="C172" t="str">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B173" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C173" t="str">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B174" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C174" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Shivam Singh</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B175" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C175" t="str">
         <v>22</v>
@@ -2307,24 +2307,24 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Matthew Wade</v>
+        <v>Vijayakanth Viyaskanth</v>
       </c>
       <c r="B176" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C176" t="str">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Akash Deep</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B177" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C177" t="str">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -2351,46 +2351,46 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Anmolpreet Singh</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B180" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C180" t="str">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Lalit Yadav</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B181" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C181" t="str">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Anukul Roy</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B182" t="str">
-        <v>KKR</v>
+        <v>SRH</v>
       </c>
       <c r="C182" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Arjun Tendulkar</v>
+        <v>Lalit Yadav</v>
       </c>
       <c r="B183" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C183" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
@@ -2417,35 +2417,35 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B186" t="str">
-        <v>SRH</v>
+        <v>GT</v>
       </c>
       <c r="C186" t="str">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Vijayakanth Viyaskanth</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B187" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C187" t="str">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Kane Williamson</v>
+        <v>Anukul Roy</v>
       </c>
       <c r="B188" t="str">
-        <v>GT</v>
+        <v>KKR</v>
       </c>
       <c r="C188" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -2472,10 +2472,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Alzarri Joseph</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B191" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C191" t="str">
         <v>0</v>
@@ -2483,21 +2483,21 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Chris Woakes</v>
+        <v>Arjun Tendulkar</v>
       </c>
       <c r="B192" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C192" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Kyle Mayers</v>
       </c>
       <c r="B193" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C193" t="str">
         <v>0</v>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Kwena Maphaka</v>
+        <v>Fazal Haque</v>
       </c>
       <c r="B196" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C196" t="str">
         <v>0</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Alzarri Joseph</v>
       </c>
       <c r="B197" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C197" t="str">
         <v>0</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Jhye Richardson</v>
+        <v>Kwena Maphaka</v>
       </c>
       <c r="B198" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C198" t="str">
         <v>0</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Jason Behrendorff</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B199" t="str">
-        <v>MI</v>
+        <v>RR</v>
       </c>
       <c r="C199" t="str">
         <v>0</v>
@@ -2571,10 +2571,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Kyle Mayers</v>
+        <v>Jhye Richardson</v>
       </c>
       <c r="B200" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C200" t="str">
         <v>0</v>
@@ -2582,10 +2582,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Shamar Joseph</v>
+        <v>Praveen Dubey</v>
       </c>
       <c r="B201" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C201" t="str">
         <v>0</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Rishi Dhawan</v>
+        <v>Jason Behrendorff</v>
       </c>
       <c r="B202" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C202" t="str">
         <v>0</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Sherfane Rutherford</v>
+        <v>Rishi Dhawan</v>
       </c>
       <c r="B203" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C203" t="str">
         <v>0</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>M Siddharth</v>
+        <v>Shamar Joseph</v>
       </c>
       <c r="B204" t="str">
         <v>LSG</v>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Glenn Phillips</v>
+        <v>Sherfane Rutherford</v>
       </c>
       <c r="B205" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C205" t="str">
         <v>0</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Kunal Singh Rathore</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B206" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C206" t="str">
         <v>0</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Mayank Dagar</v>
+        <v>Kunal Singh Rathore</v>
       </c>
       <c r="B207" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C207" t="str">
         <v>0</v>
@@ -2659,10 +2659,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>SK Rasheed</v>
+        <v>Mayank Dagar</v>
       </c>
       <c r="B208" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C208" t="str">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Swastik Chikara</v>
+        <v>SK Rasheed</v>
       </c>
       <c r="B209" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C209" t="str">
         <v>0</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Fazal Haque</v>
+        <v>Swastik Chikara</v>
       </c>
       <c r="B210" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C210" t="str">
         <v>0</v>
@@ -2703,10 +2703,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Prerak Mankad</v>
+        <v>Tanay Thyagarajan</v>
       </c>
       <c r="B212" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C212" t="str">
         <v>0</v>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Shivalik Sharma</v>
+        <v>Prerak Mankad</v>
       </c>
       <c r="B213" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C213" t="str">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Nishant Sindhu</v>
+        <v>Shivalik Sharma</v>
       </c>
       <c r="B214" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C214" t="str">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Ajay Mandal</v>
+        <v>Nishant Sindhu</v>
       </c>
       <c r="B215" t="str">
         <v>CSK</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Praveen Dubey</v>
+        <v>Ajay Mandal</v>
       </c>
       <c r="B216" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C216" t="str">
         <v>0</v>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Manoj Bhandage</v>
+        <v>Shams Mulani</v>
       </c>
       <c r="B218" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C218" t="str">
         <v>0</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Prince Choudhary</v>
+        <v>Manoj Bhandage</v>
       </c>
       <c r="B220" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C220" t="str">
         <v>0</v>
@@ -2802,10 +2802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Jayant Yadav</v>
+        <v>Prince Choudhary</v>
       </c>
       <c r="B221" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C221" t="str">
         <v>0</v>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Chetan Sakariya</v>
+        <v>Sushant Mishra</v>
       </c>
       <c r="B222" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C222" t="str">
         <v>0</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Shams Mulani</v>
+        <v>Chetan Sakariya</v>
       </c>
       <c r="B223" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C223" t="str">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Tanay Thyagarajan</v>
+        <v>Jayant Yadav</v>
       </c>
       <c r="B224" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C224" t="str">
         <v>0</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Tom Curran</v>
+        <v>M Siddharth</v>
       </c>
       <c r="B225" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C225" t="str">
         <v>0</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Sushant Mishra</v>
+        <v>Abid Mushtaq</v>
       </c>
       <c r="B227" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C227" t="str">
         <v>0</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Abid Mushtaq</v>
+        <v>Tom Curran</v>
       </c>
       <c r="B228" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C228" t="str">
         <v>0</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Akash Singh</v>
+        <v>Sakib Hussain</v>
       </c>
       <c r="B229" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C229" t="str">
         <v>0</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Vishwapratap Singh</v>
+        <v>Akash Singh</v>
       </c>
       <c r="B230" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C230" t="str">
         <v>0</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Sakib Hussain</v>
+        <v>Vishwapratap Singh</v>
       </c>
       <c r="B231" t="str">
-        <v>KKR</v>
+        <v>PBKS</v>
       </c>
       <c r="C231" t="str">
         <v>0</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Rajvardhan Hangargekar</v>
+        <v>Harvik Desai</v>
       </c>
       <c r="B233" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C233" t="str">
         <v>0</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Harvik Desai</v>
+        <v>Rajvardhan Hangargekar</v>
       </c>
       <c r="B234" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C234" t="str">
         <v>0</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Aravelly Avanish</v>
+        <v>Darshan Nalkande</v>
       </c>
       <c r="B238" t="str">
-        <v>CSK</v>
+        <v>GT</v>
       </c>
       <c r="C238" t="str">
         <v>0</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Darshan Nalkande</v>
+        <v>Upendra Yadav</v>
       </c>
       <c r="B240" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C240" t="str">
         <v>0</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Upendra Yadav</v>
+        <v>Vishnu Vinod</v>
       </c>
       <c r="B241" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C241" t="str">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Vishnu Vinod</v>
+        <v>Srikar Bharat</v>
       </c>
       <c r="B242" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C242" t="str">
         <v>0</v>
@@ -3044,32 +3044,32 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Srikar Bharat</v>
+        <v>Manav Suthar</v>
       </c>
       <c r="B243" t="str">
-        <v>KKR</v>
+        <v>GT</v>
       </c>
       <c r="C243" t="str">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Manav Suthar</v>
+        <v>Krishnappa Gowtham</v>
       </c>
       <c r="B244" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C244" t="str">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Krishnappa Gowtham</v>
+        <v>Suyash Sharma</v>
       </c>
       <c r="B245" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C245" t="str">
         <v>-2</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Suyash Sharma</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B246" t="str">
         <v>KKR</v>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Aravelly Avanish</v>
       </c>
       <c r="B247" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C247" t="str">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">

--- a/frontend/public/Apr16.xlsx
+++ b/frontend/public/Apr16.xlsx
@@ -404,117 +404,117 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Virat Kohli</v>
+        <v>Ruturaj Gaikwad</v>
       </c>
       <c r="B3" t="str">
-        <v>RCB</v>
+        <v>CSK</v>
       </c>
       <c r="C3" t="str">
-        <v>684</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ruturaj Gaikwad</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B4" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C4" t="str">
-        <v>722</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Harshal Patel</v>
+        <v>Travis Head</v>
       </c>
       <c r="B5" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C5" t="str">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KL Rahul</v>
+        <v>Harshal Patel</v>
       </c>
       <c r="B6" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C6" t="str">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Travis Head</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B7" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C7" t="str">
-        <v>627</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Sam Curran</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B8" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C8" t="str">
-        <v>606</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Phil Salt</v>
+        <v>Riyan Parag</v>
       </c>
       <c r="B9" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C9" t="str">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Riyan Parag</v>
+        <v>Yashasvi Jaiswal</v>
       </c>
       <c r="B10" t="str">
         <v>RR</v>
       </c>
       <c r="C10" t="str">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Axar Patel</v>
+        <v>Phil Salt</v>
       </c>
       <c r="B11" t="str">
-        <v>DC</v>
+        <v>KKR</v>
       </c>
       <c r="C11" t="str">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Faf du Plessis</v>
+        <v>Abhishek Sharma</v>
       </c>
       <c r="B12" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C12" t="str">
-        <v>557</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rajat Patidar</v>
+        <v>Faf du Plessis</v>
       </c>
       <c r="B13" t="str">
         <v>RCB</v>
@@ -525,35 +525,35 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B14" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C14" t="str">
-        <v>549</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Yashasvi Jaiswal</v>
+        <v>Rajat Patidar</v>
       </c>
       <c r="B15" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C15" t="str">
-        <v>536</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Rishabh Pant</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B16" t="str">
-        <v>DC</v>
+        <v>SRH</v>
       </c>
       <c r="C16" t="str">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17">
@@ -564,95 +564,95 @@
         <v>RR</v>
       </c>
       <c r="C17" t="str">
-        <v>533</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B18" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C18" t="str">
-        <v>519</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B19" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C19" t="str">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cameron Green</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B20" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C20" t="str">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Nithish Reddy</v>
+        <v>Rishabh Pant</v>
       </c>
       <c r="B21" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C21" t="str">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Pat Cummins</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B22" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C22" t="str">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Nithish Reddy</v>
       </c>
       <c r="B23" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C23" t="str">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Nicholas Pooran</v>
+        <v>Avesh Khan</v>
       </c>
       <c r="B24" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C24" t="str">
-        <v>504</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Abhishek Sharma</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B25" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C25" t="str">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26">
@@ -668,596 +668,596 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Andre Russell</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B27" t="str">
         <v>KKR</v>
       </c>
       <c r="C27" t="str">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Nicholas Pooran</v>
       </c>
       <c r="B28" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C28" t="str">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Tilak Varma</v>
+        <v>Andre Russell</v>
       </c>
       <c r="B29" t="str">
-        <v>MI</v>
+        <v>KKR</v>
       </c>
       <c r="C29" t="str">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Shashank Singh</v>
+        <v>B Sai Sudharsan</v>
       </c>
       <c r="B30" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C30" t="str">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rohit Sharma</v>
+        <v>T Natarajan</v>
       </c>
       <c r="B31" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C31" t="str">
-        <v>458</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Jack Fraser-Mcgurk</v>
+        <v>Tilak Varma</v>
       </c>
       <c r="B32" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C32" t="str">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>T Natarajan</v>
+        <v>Shashank Singh</v>
       </c>
       <c r="B33" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C33" t="str">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Jack Fraser-Mcgurk</v>
       </c>
       <c r="B34" t="str">
         <v>DC</v>
       </c>
       <c r="C34" t="str">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>B Sai Sudharsan</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B35" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C35" t="str">
-        <v>476</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Tushar Deshpande</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B36" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C36" t="str">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B37" t="str">
-        <v>SRH</v>
+        <v>DC</v>
       </c>
       <c r="C37" t="str">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Hardik Pandya</v>
+        <v>Tushar Deshpande</v>
       </c>
       <c r="B38" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C38" t="str">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Avesh Khan</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B39" t="str">
-        <v>RR</v>
+        <v>MI</v>
       </c>
       <c r="C39" t="str">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mukesh Kumar</v>
+        <v>Arshdeep Singh</v>
       </c>
       <c r="B40" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C40" t="str">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Arshdeep Singh</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B41" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C41" t="str">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mitchell Starc</v>
+        <v>Mukesh Kumar</v>
       </c>
       <c r="B42" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C42" t="str">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Shivam Dube</v>
+        <v>Will Jacks</v>
       </c>
       <c r="B43" t="str">
-        <v>CSK</v>
+        <v>RCB</v>
       </c>
       <c r="C43" t="str">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Ishan Kishan</v>
+        <v>Tristan Stubbs</v>
       </c>
       <c r="B44" t="str">
-        <v>MI</v>
+        <v>DC</v>
       </c>
       <c r="C44" t="str">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Will Jacks</v>
+        <v>Venkatesh Iyer</v>
       </c>
       <c r="B45" t="str">
-        <v>RCB</v>
+        <v>KKR</v>
       </c>
       <c r="C45" t="str">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Tristan Stubbs</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B46" t="str">
-        <v>DC</v>
+        <v>MI</v>
       </c>
       <c r="C46" t="str">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Shivam Dube</v>
       </c>
       <c r="B47" t="str">
         <v>CSK</v>
       </c>
       <c r="C47" t="str">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Abhishek Porel</v>
+        <v>Dinesh Karthik</v>
       </c>
       <c r="B48" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C48" t="str">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Piyush Chawla</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B49" t="str">
-        <v>MI</v>
+        <v>CSK</v>
       </c>
       <c r="C49" t="str">
-        <v>370</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Venkatesh Iyer</v>
+        <v>Sandeep Sharma</v>
       </c>
       <c r="B50" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C50" t="str">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Simran Singh</v>
+        <v>Abhishek Porel</v>
       </c>
       <c r="B51" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C51" t="str">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Dinesh Karthik</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B52" t="str">
-        <v>RCB</v>
+        <v>RR</v>
       </c>
       <c r="C52" t="str">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Piyush Chawla</v>
       </c>
       <c r="B53" t="str">
-        <v>RCB</v>
+        <v>MI</v>
       </c>
       <c r="C53" t="str">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Harshit Rana</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B54" t="str">
-        <v>KKR</v>
+        <v>RCB</v>
       </c>
       <c r="C54" t="str">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Bhuvneshwar Kumar</v>
+        <v>Harshit Rana</v>
       </c>
       <c r="B55" t="str">
-        <v>SRH</v>
+        <v>KKR</v>
       </c>
       <c r="C55" t="str">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Rilee Rossouw</v>
+        <v>Simran Singh</v>
       </c>
       <c r="B56" t="str">
         <v>PBKS</v>
       </c>
       <c r="C56" t="str">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Bhuvneshwar Kumar</v>
       </c>
       <c r="B57" t="str">
-        <v>PBKS</v>
+        <v>SRH</v>
       </c>
       <c r="C57" t="str">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Shubman Gill</v>
+        <v>Rilee Rossouw</v>
       </c>
       <c r="B58" t="str">
-        <v>GT</v>
+        <v>PBKS</v>
       </c>
       <c r="C58" t="str">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Ayush Badoni</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B59" t="str">
-        <v>LSG</v>
+        <v>PBKS</v>
       </c>
       <c r="C59" t="str">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Jos Buttler</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B60" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C60" t="str">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Sandeep Sharma</v>
+        <v>Yuzvendra Chahal</v>
       </c>
       <c r="B61" t="str">
         <v>RR</v>
       </c>
       <c r="C61" t="str">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Yash Dayal</v>
+        <v>Shahbaz Ahmed</v>
       </c>
       <c r="B62" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C62" t="str">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B63" t="str">
         <v>RR</v>
       </c>
       <c r="C63" t="str">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rashid Khan</v>
+        <v>Ayush Badoni</v>
       </c>
       <c r="B64" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C64" t="str">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Yuzvendra Chahal</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B65" t="str">
         <v>RR</v>
       </c>
       <c r="C65" t="str">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Khaleel Ahmed</v>
+        <v>Yash Dayal</v>
       </c>
       <c r="B66" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C66" t="str">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Trent Boult</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B67" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C67" t="str">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rasikh Dar</v>
+        <v>Dhruv Jurel</v>
       </c>
       <c r="B68" t="str">
-        <v>DC</v>
+        <v>RR</v>
       </c>
       <c r="C68" t="str">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Shai Hope</v>
+        <v>Khaleel Ahmed</v>
       </c>
       <c r="B69" t="str">
         <v>DC</v>
       </c>
       <c r="C69" t="str">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Rahul Chahar</v>
+        <v>Rasikh Dar</v>
       </c>
       <c r="B70" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C70" t="str">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Jitesh Sharma</v>
+        <v>Shai Hope</v>
       </c>
       <c r="B71" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C71" t="str">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Ashutosh Sharma</v>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B72" t="str">
         <v>PBKS</v>
       </c>
       <c r="C72" t="str">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Jitesh Sharma</v>
       </c>
       <c r="B73" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C73" t="str">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ravi Bishnoi</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B74" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C74" t="str">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Karn Sharma</v>
+        <v>Ashutosh Sharma</v>
       </c>
       <c r="B75" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C75" t="str">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Abdul Samad</v>
       </c>
       <c r="B76" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C76" t="str">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Abdul Samad</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B77" t="str">
-        <v>SRH</v>
+        <v>CSK</v>
       </c>
       <c r="C77" t="str">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Swapnil Singh</v>
+        <v>Ravi Bishnoi</v>
       </c>
       <c r="B78" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C78" t="str">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Shahrukh Khan</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B79" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C79" t="str">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Karn Sharma</v>
       </c>
       <c r="B80" t="str">
-        <v>LSG</v>
+        <v>RCB</v>
       </c>
       <c r="C80" t="str">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81">
@@ -1273,90 +1273,90 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Nuwan Thushara</v>
+        <v>Swapnil Singh</v>
       </c>
       <c r="B82" t="str">
-        <v>MI</v>
+        <v>RCB</v>
       </c>
       <c r="C82" t="str">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>David Miller</v>
+        <v>Shahrukh Khan</v>
       </c>
       <c r="B83" t="str">
         <v>GT</v>
       </c>
       <c r="C83" t="str">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Harpreet Brar</v>
+        <v>Nuwan Thushara</v>
       </c>
       <c r="B84" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C84" t="str">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Kagiso Rabada</v>
+        <v>David Miller</v>
       </c>
       <c r="B85" t="str">
-        <v>PBKS</v>
+        <v>GT</v>
       </c>
       <c r="C85" t="str">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Shahbaz Ahmed</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B86" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C86" t="str">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Rovman Powell</v>
+        <v>Harpreet Brar</v>
       </c>
       <c r="B87" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C87" t="str">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Krunal Pandya</v>
+        <v>Rovman Powell</v>
       </c>
       <c r="B88" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C88" t="str">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Shardul Thakur</v>
+        <v>Krunal Pandya</v>
       </c>
       <c r="B89" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C89" t="str">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90">
@@ -1372,43 +1372,43 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Vaibhav Arora</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B91" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C91" t="str">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Dhruv Jurel</v>
+        <v>Rahul Tripathi</v>
       </c>
       <c r="B92" t="str">
-        <v>RR</v>
+        <v>SRH</v>
       </c>
       <c r="C92" t="str">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Vaibhav Arora</v>
       </c>
       <c r="B93" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C93" t="str">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Ishant Sharma</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B94" t="str">
-        <v>DC</v>
+        <v>CSK</v>
       </c>
       <c r="C94" t="str">
         <v>215</v>
@@ -1416,32 +1416,32 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Ramandeep Singh</v>
+        <v>Ishant Sharma</v>
       </c>
       <c r="B95" t="str">
-        <v>KKR</v>
+        <v>DC</v>
       </c>
       <c r="C95" t="str">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Moeen Ali</v>
+        <v>Ramandeep Singh</v>
       </c>
       <c r="B96" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C96" t="str">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Mohsin Khan</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B97" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C97" t="str">
         <v>209</v>
@@ -1460,167 +1460,167 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Rinku Singh</v>
+        <v>Mohsin Khan</v>
       </c>
       <c r="B99" t="str">
-        <v>KKR</v>
+        <v>LSG</v>
       </c>
       <c r="C99" t="str">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Deepak Hooda</v>
+        <v>Angkrish Raghuvanshi</v>
       </c>
       <c r="B100" t="str">
-        <v>LSG</v>
+        <v>KKR</v>
       </c>
       <c r="C100" t="str">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Ajinkya Rahane</v>
+        <v>Rinku Singh</v>
       </c>
       <c r="B101" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C101" t="str">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Rahul Tewatia</v>
+        <v>Deepak Hooda</v>
       </c>
       <c r="B102" t="str">
-        <v>GT</v>
+        <v>LSG</v>
       </c>
       <c r="C102" t="str">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rahul Tewatia</v>
       </c>
       <c r="B103" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C103" t="str">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Angkrish Raghuvanshi</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B104" t="str">
-        <v>KKR</v>
+        <v>MI</v>
       </c>
       <c r="C104" t="str">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Kuldeep Sen</v>
+        <v>Ajinkya Rahane</v>
       </c>
       <c r="B105" t="str">
-        <v>RR</v>
+        <v>CSK</v>
       </c>
       <c r="C105" t="str">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Noor Ahmad</v>
+        <v>Kuldeep Sen</v>
       </c>
       <c r="B106" t="str">
-        <v>GT</v>
+        <v>RR</v>
       </c>
       <c r="C106" t="str">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohit Sharma</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B107" t="str">
         <v>GT</v>
       </c>
       <c r="C107" t="str">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Nehal Wadhera</v>
+        <v>Sai Kishore</v>
       </c>
       <c r="B108" t="str">
-        <v>MI</v>
+        <v>GT</v>
       </c>
       <c r="C108" t="str">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Simarjeet Singh</v>
+        <v>Nehal Wadhera</v>
       </c>
       <c r="B109" t="str">
-        <v>CSK</v>
+        <v>MI</v>
       </c>
       <c r="C109" t="str">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Jaydev Unadkat</v>
       </c>
       <c r="B110" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C110" t="str">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Sai Kishore</v>
+        <v>Mohit Sharma</v>
       </c>
       <c r="B111" t="str">
         <v>GT</v>
       </c>
       <c r="C111" t="str">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Jaydev Unadkat</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B112" t="str">
-        <v>SRH</v>
+        <v>MI</v>
       </c>
       <c r="C112" t="str">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Liam Livingstone</v>
+        <v>Simarjeet Singh</v>
       </c>
       <c r="B113" t="str">
-        <v>PBKS</v>
+        <v>CSK</v>
       </c>
       <c r="C113" t="str">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
@@ -1647,43 +1647,43 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Arshad Khan</v>
+        <v>Shimron Hetmyer</v>
       </c>
       <c r="B116" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C116" t="str">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Naman Dhir</v>
+        <v>Arshad Khan</v>
       </c>
       <c r="B117" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C117" t="str">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Shimron Hetmyer</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B118" t="str">
-        <v>RR</v>
+        <v>PBKS</v>
       </c>
       <c r="C118" t="str">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Yash Thakur</v>
+        <v>Naman Dhir</v>
       </c>
       <c r="B119" t="str">
-        <v>LSG</v>
+        <v>MI</v>
       </c>
       <c r="C119" t="str">
         <v>139</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Rahul Tripathi</v>
+        <v>Yash Thakur</v>
       </c>
       <c r="B120" t="str">
-        <v>SRH</v>
+        <v>LSG</v>
       </c>
       <c r="C120" t="str">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
@@ -1719,7 +1719,7 @@
         <v>SRH</v>
       </c>
       <c r="C122" t="str">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
@@ -1768,24 +1768,24 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Joshua Little</v>
       </c>
       <c r="B127" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C127" t="str">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Joshua Little</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B128" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C128" t="str">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129">
@@ -1801,68 +1801,68 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Anshul Kamboj</v>
+        <v>Shreyas Gopal</v>
       </c>
       <c r="B130" t="str">
         <v>MI</v>
       </c>
       <c r="C130" t="str">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Atharva Taide</v>
+        <v>Anshul Kamboj</v>
       </c>
       <c r="B131" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C131" t="str">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Marco Jansen</v>
+        <v>Atharva Taide</v>
       </c>
       <c r="B132" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C132" t="str">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Shreyas Gopal</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B133" t="str">
-        <v>MI</v>
+        <v>SRH</v>
       </c>
       <c r="C133" t="str">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Manish Pandey</v>
+        <v>Tom Kohler-Cadmore</v>
       </c>
       <c r="B134" t="str">
-        <v>KKR</v>
+        <v>RR</v>
       </c>
       <c r="C134" t="str">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Sameer Rizvi</v>
+        <v>Manish Pandey</v>
       </c>
       <c r="B135" t="str">
-        <v>CSK</v>
+        <v>KKR</v>
       </c>
       <c r="C135" t="str">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="136">
@@ -1878,32 +1878,32 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Sameer Rizvi</v>
       </c>
       <c r="B137" t="str">
-        <v>KKR</v>
+        <v>CSK</v>
       </c>
       <c r="C137" t="str">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Umesh Yadav</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B138" t="str">
-        <v>GT</v>
+        <v>CSK</v>
       </c>
       <c r="C138" t="str">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Tom Kohler-Cadmore</v>
+        <v>Umesh Yadav</v>
       </c>
       <c r="B139" t="str">
-        <v>RR</v>
+        <v>GT</v>
       </c>
       <c r="C139" t="str">
         <v>56</v>
@@ -1911,24 +1911,24 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Vidhwath Kaverappa</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B140" t="str">
-        <v>PBKS</v>
+        <v>KKR</v>
       </c>
       <c r="C140" t="str">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Vidhwath Kaverappa</v>
       </c>
       <c r="B141" t="str">
-        <v>CSK</v>
+        <v>PBKS</v>
       </c>
       <c r="C141" t="str">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142">
@@ -1988,87 +1988,87 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Yudhvir Singh</v>
+        <v>Mayank Yadav</v>
       </c>
       <c r="B147" t="str">
         <v>LSG</v>
       </c>
       <c r="C147" t="str">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Mayank Yadav</v>
+        <v>Gulbadin Naib</v>
       </c>
       <c r="B148" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C148" t="str">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>David Warner</v>
+        <v>Yudhvir Singh</v>
       </c>
       <c r="B149" t="str">
-        <v>DC</v>
+        <v>LSG</v>
       </c>
       <c r="C149" t="str">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Anuj Rawat</v>
+        <v>Sikandar Raza</v>
       </c>
       <c r="B150" t="str">
-        <v>RCB</v>
+        <v>PBKS</v>
       </c>
       <c r="C150" t="str">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Sikandar Raza</v>
+        <v>David Warner</v>
       </c>
       <c r="B151" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C151" t="str">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Spencer Johnson</v>
+        <v>Anuj Rawat</v>
       </c>
       <c r="B152" t="str">
-        <v>GT</v>
+        <v>RCB</v>
       </c>
       <c r="C152" t="str">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Harpreet Singh</v>
+        <v>Sumit Kumar</v>
       </c>
       <c r="B153" t="str">
-        <v>PBKS</v>
+        <v>DC</v>
       </c>
       <c r="C153" t="str">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Gulbadin Naib</v>
+        <v>Spencer Johnson</v>
       </c>
       <c r="B154" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C154" t="str">
         <v>38</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Anrich Nortje</v>
+        <v>Suyash Prabhudessai</v>
       </c>
       <c r="B155" t="str">
-        <v>DC</v>
+        <v>RCB</v>
       </c>
       <c r="C155" t="str">
         <v>33</v>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Luke Wood</v>
+        <v>Ashton Turner</v>
       </c>
       <c r="B156" t="str">
-        <v>MI</v>
+        <v>LSG</v>
       </c>
       <c r="C156" t="str">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Ashton Turner</v>
+        <v>Richard Gleeson</v>
       </c>
       <c r="B157" t="str">
-        <v>LSG</v>
+        <v>CSK</v>
       </c>
       <c r="C157" t="str">
         <v>33</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Richard Gleeson</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B158" t="str">
-        <v>CSK</v>
+        <v>LSG</v>
       </c>
       <c r="C158" t="str">
         <v>33</v>
@@ -2120,54 +2120,54 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Matt Henry</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B159" t="str">
-        <v>LSG</v>
+        <v>DC</v>
       </c>
       <c r="C159" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Lizaad Williams</v>
+        <v>Harpreet Singh</v>
       </c>
       <c r="B160" t="str">
-        <v>DC</v>
+        <v>PBKS</v>
       </c>
       <c r="C160" t="str">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Luke Wood</v>
       </c>
       <c r="B161" t="str">
-        <v>GT</v>
+        <v>MI</v>
       </c>
       <c r="C161" t="str">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Dewald Brevis</v>
+        <v>Nathan Ellis</v>
       </c>
       <c r="B162" t="str">
-        <v>MI</v>
+        <v>PBKS</v>
       </c>
       <c r="C162" t="str">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Nathan Ellis</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B163" t="str">
-        <v>PBKS</v>
+        <v>RCB</v>
       </c>
       <c r="C163" t="str">
         <v>31</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Reece Topley</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B164" t="str">
-        <v>RCB</v>
+        <v>GT</v>
       </c>
       <c r="C164" t="str">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -2197,13 +2197,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Shikhar Dhawan</v>
+        <v>Dewald Brevis</v>
       </c>
       <c r="B166" t="str">
-        <v>PBKS</v>
+        <v>MI</v>
       </c>
       <c r="C166" t="str">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -2219,43 +2219,43 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Akash Deep</v>
+        <v>Devdutt Padikkal</v>
       </c>
       <c r="B168" t="str">
-        <v>RCB</v>
+        <v>LSG</v>
       </c>
       <c r="C168" t="str">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Sumit Kumar</v>
+        <v>Anrich Nortje</v>
       </c>
       <c r="B169" t="str">
         <v>DC</v>
       </c>
       <c r="C169" t="str">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Suyash Prabhudessai</v>
+        <v>Kumar Kushagra</v>
       </c>
       <c r="B170" t="str">
-        <v>RCB</v>
+        <v>DC</v>
       </c>
       <c r="C170" t="str">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Devdutt Padikkal</v>
+        <v>Donavon Ferreira</v>
       </c>
       <c r="B171" t="str">
-        <v>LSG</v>
+        <v>RR</v>
       </c>
       <c r="C171" t="str">
         <v>24</v>
@@ -2263,46 +2263,46 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Donavon Ferreira</v>
+        <v>Akash Deep</v>
       </c>
       <c r="B172" t="str">
-        <v>RR</v>
+        <v>RCB</v>
       </c>
       <c r="C172" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Kumar Kushagra</v>
+        <v>Abhinav Manohar</v>
       </c>
       <c r="B173" t="str">
-        <v>DC</v>
+        <v>GT</v>
       </c>
       <c r="C173" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Washington Sundar</v>
+        <v>Shikhar Dhawan</v>
       </c>
       <c r="B174" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C174" t="str">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Abhinav Manohar</v>
+        <v>Washington Sundar</v>
       </c>
       <c r="B175" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C175" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
@@ -2318,79 +2318,79 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Mayank Agarwal</v>
+        <v>Shivam Singh</v>
       </c>
       <c r="B177" t="str">
-        <v>SRH</v>
+        <v>PBKS</v>
       </c>
       <c r="C177" t="str">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Arshin Kulkarni</v>
+        <v>Matthew Wade</v>
       </c>
       <c r="B178" t="str">
-        <v>LSG</v>
+        <v>GT</v>
       </c>
       <c r="C178" t="str">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Saurav Chauhan</v>
+        <v>Mayank Agarwal</v>
       </c>
       <c r="B179" t="str">
-        <v>RCB</v>
+        <v>SRH</v>
       </c>
       <c r="C179" t="str">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Shivam Singh</v>
+        <v>Arshin Kulkarni</v>
       </c>
       <c r="B180" t="str">
-        <v>PBKS</v>
+        <v>LSG</v>
       </c>
       <c r="C180" t="str">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Matthew Wade</v>
+        <v>Anmolpreet Singh</v>
       </c>
       <c r="B181" t="str">
-        <v>GT</v>
+        <v>SRH</v>
       </c>
       <c r="C181" t="str">
-        <v>20</v>
+        <v>12</v>
